--- a/Archivos de trabajo/Datos/socios_expo.xlsx
+++ b/Archivos de trabajo/Datos/socios_expo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd03ae9016654ccc/Escritorio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DISCO D\Francisco\Trabajos\Paper ITCRM\Paper-ITCRM.SF\Archivos de trabajo\Datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{B97B1009-B8AC-4A2B-972B-C430B09BE6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAEB951B-FA8E-4F41-B9A1-48EE3B99B344}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEFDB262-F85A-4503-9F9C-FB96FD9C40B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SOCIOS COM" sheetId="6" r:id="rId1"/>
@@ -21,11 +21,22 @@
     <sheet name="Part_peso" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="243">
   <si>
     <t>anio</t>
   </si>
@@ -749,12 +760,18 @@
   <si>
     <t>TOP que acumula el 80% EN PROMEDIO</t>
   </si>
+  <si>
+    <t>Países que están presentes en una metodología y no en la otra.</t>
+  </si>
+  <si>
+    <t>Comparación</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -783,6 +800,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -804,7 +828,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -812,12 +836,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -840,27 +930,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1191,741 +1299,767 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA5121E-4C95-407A-A5D1-7B0917DADC02}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="28.88671875" customWidth="1"/>
-    <col min="3" max="3" width="1.6640625" customWidth="1"/>
-    <col min="4" max="5" width="28.88671875" customWidth="1"/>
-    <col min="6" max="7" width="2.44140625" customWidth="1"/>
+    <col min="1" max="2" width="28.85546875" customWidth="1"/>
+    <col min="3" max="3" width="1.7109375" customWidth="1"/>
+    <col min="4" max="5" width="28.85546875" customWidth="1"/>
+    <col min="6" max="7" width="2.42578125" customWidth="1"/>
+    <col min="8" max="9" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="8" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="I1" s="22"/>
+    </row>
+    <row r="2" spans="1:15" s="8" customFormat="1" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H2" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I2" s="14" t="s">
         <v>240</v>
       </c>
+      <c r="L2" s="13"/>
+      <c r="M2" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="B3" s="23"/>
+      <c r="D3" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="H2" t="s">
+      <c r="E3" s="24"/>
+      <c r="H3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I3" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I4" s="17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>19</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I5" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>24</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I6" s="17" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>24</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>5</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I7" s="17" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>17</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I8" s="17" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>21</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>2</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I9" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>3</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H10" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I10" s="17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>12</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>16</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I11" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>3</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>1</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I12" s="16" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>21</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>2</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I13" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>7</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>9</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H14" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I14" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>1</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>10</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H15" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I15" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>4</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>24</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H16" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I16" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>24</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>13</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H17" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I17" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>2</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>22</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I18" s="17" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>24</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>20</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H19" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I19" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>15</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>1</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H20" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I20" s="17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>21</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>23</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H21" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I21" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>7</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>10</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H22" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I22" s="16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>14</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>17</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H23" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I23" s="17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>3</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>1</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H24" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I24" s="17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>7</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>11</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H25" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I25" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>23</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>24</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H26" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I26" s="17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>22</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>1</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H27" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I27" s="17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>23</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="E27">
-        <v>24</v>
-      </c>
-      <c r="H27" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28">
-        <v>16</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="E28">
         <v>24</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>16</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29">
         <v>24</v>
       </c>
-      <c r="I28" t="s">
+      <c r="H29" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>3</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <v>20</v>
       </c>
-      <c r="I29" t="s">
+      <c r="H30" s="15"/>
+      <c r="I30" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B30">
+      <c r="B31">
         <v>1</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <v>11</v>
       </c>
-      <c r="I30" t="s">
+      <c r="H31" s="19"/>
+      <c r="I31" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>12</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E31">
+      <c r="E32">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D32" s="3" t="s">
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D33" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D33" s="2" t="s">
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E33">
+      <c r="E34">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I2:I30">
-    <sortCondition ref="I2:I30"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I3:I31">
+    <sortCondition ref="I3:I31"/>
   </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="M2:O2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4CFBD1-5C0C-4064-A11B-DE329AC70872}">
-  <dimension ref="A1:GW26"/>
+  <dimension ref="A1:GW31"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:205" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:205" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="V1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="W1" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="X1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Y1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="Z1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AA1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AB1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AC1" s="11" t="s">
+      <c r="AC1" s="10" t="s">
         <v>238</v>
       </c>
       <c r="AD1" t="s">
@@ -2457,7 +2591,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:205" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:205" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -2543,7 +2677,7 @@
         <v>6.8198351347001059E-3</v>
       </c>
       <c r="AC2" s="4">
-        <f>+SUM(B2:AB2)</f>
+        <f>+_xlfn.AGGREGATE(9,6,B2:AB2)</f>
         <v>0.72146374903170429</v>
       </c>
       <c r="AD2" s="4">
@@ -3075,7 +3209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:205" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:205" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -3160,9 +3294,9 @@
       <c r="AB3" s="4">
         <v>1.2438971868728796E-2</v>
       </c>
-      <c r="AC3" s="4" t="e">
-        <f t="shared" ref="AC3:AC26" si="0">+SUM(B3:AB3)</f>
-        <v>#VALUE!</v>
+      <c r="AC3" s="4">
+        <f t="shared" ref="AC3:AC26" si="0">+_xlfn.AGGREGATE(9,6,B3:AB3)</f>
+        <v>0.75572698581378994</v>
       </c>
       <c r="AD3" s="4">
         <v>1.6622635329393735E-2</v>
@@ -3693,7 +3827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:205" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:205" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -4311,7 +4445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:205" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:205" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -4929,7 +5063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:205" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:205" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -5547,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:205" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:205" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -6165,7 +6299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:205" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:205" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>45</v>
       </c>
@@ -6783,7 +6917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:205" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:205" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -7401,7 +7535,7 @@
         <v>2.2019180281232056E-8</v>
       </c>
     </row>
-    <row r="10" spans="1:205" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:205" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -8019,7 +8153,7 @@
         <v>4.0493498035126583E-9</v>
       </c>
     </row>
-    <row r="11" spans="1:205" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:205" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -8637,7 +8771,7 @@
         <v>2.1352595037035205E-8</v>
       </c>
     </row>
-    <row r="12" spans="1:205" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:205" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -9255,7 +9389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:205" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:205" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -9873,7 +10007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:205" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:205" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -10491,7 +10625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:205" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:205" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>52</v>
       </c>
@@ -11109,7 +11243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:205" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:205" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -11727,7 +11861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:205" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:205" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -12345,7 +12479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:205" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:205" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -12963,7 +13097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:205" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:205" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>56</v>
       </c>
@@ -13581,7 +13715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:205" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:205" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>57</v>
       </c>
@@ -14199,7 +14333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:205" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:205" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -14817,7 +14951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:205" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:205" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -15435,7 +15569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:205" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:205" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -16053,7 +16187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:205" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:205" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -16671,7 +16805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:205" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:205" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -16756,9 +16890,9 @@
       <c r="AB25" s="4">
         <v>6.7898051415394541E-3</v>
       </c>
-      <c r="AC25" s="4" t="e">
+      <c r="AC25" s="4">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>0.78373548276083205</v>
       </c>
       <c r="AD25" s="4">
         <v>9.5890624982561522E-3</v>
@@ -17289,826 +17423,829 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:205" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:205" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>237</v>
       </c>
-      <c r="B26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,B2:B25)</f>
+      <c r="B26" s="11">
+        <f t="shared" ref="B26:AB26" si="1">+_xlfn.AGGREGATE(1,6,B2:B25)</f>
         <v>9.0690497983785021E-2</v>
       </c>
-      <c r="C26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,C2:C25)</f>
+      <c r="C26" s="11">
+        <f t="shared" si="1"/>
         <v>8.6000127058847353E-2</v>
       </c>
-      <c r="D26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,D2:D25)</f>
+      <c r="D26" s="11">
+        <f t="shared" si="1"/>
         <v>6.6309433689601807E-2</v>
       </c>
-      <c r="E26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,E2:E25)</f>
+      <c r="E26" s="11">
+        <f t="shared" si="1"/>
         <v>4.8940754024316274E-2</v>
       </c>
-      <c r="F26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,F2:F25)</f>
+      <c r="F26" s="11">
+        <f t="shared" si="1"/>
         <v>4.8667983419478832E-2</v>
       </c>
-      <c r="G26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,G2:G25)</f>
+      <c r="G26" s="11">
+        <f t="shared" si="1"/>
         <v>3.6247451812824065E-2</v>
       </c>
-      <c r="H26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,H2:H25)</f>
+      <c r="H26" s="11">
+        <f t="shared" si="1"/>
         <v>3.6054629807252533E-2</v>
       </c>
-      <c r="I26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,I2:I25)</f>
+      <c r="I26" s="11">
+        <f t="shared" si="1"/>
         <v>3.0264991392564111E-2</v>
       </c>
-      <c r="J26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,J2:J25)</f>
+      <c r="J26" s="11">
+        <f t="shared" si="1"/>
         <v>2.9776126989344055E-2</v>
       </c>
-      <c r="K26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,K2:K25)</f>
+      <c r="K26" s="11">
+        <f t="shared" si="1"/>
         <v>2.9237318683958794E-2</v>
       </c>
-      <c r="L26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,L2:L25)</f>
+      <c r="L26" s="11">
+        <f t="shared" si="1"/>
         <v>2.6620360590217457E-2</v>
       </c>
-      <c r="M26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,M2:M25)</f>
+      <c r="M26" s="11">
+        <f t="shared" si="1"/>
         <v>2.6387867729876776E-2</v>
       </c>
-      <c r="N26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,N2:N25)</f>
+      <c r="N26" s="11">
+        <f t="shared" si="1"/>
         <v>2.628622215303229E-2</v>
       </c>
-      <c r="O26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,O2:O25)</f>
+      <c r="O26" s="11">
+        <f t="shared" si="1"/>
         <v>2.6135338242534934E-2</v>
       </c>
-      <c r="P26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,P2:P25)</f>
+      <c r="P26" s="11">
+        <f t="shared" si="1"/>
         <v>2.0865858426800183E-2</v>
       </c>
-      <c r="Q26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,Q2:Q25)</f>
+      <c r="Q26" s="11">
+        <f t="shared" si="1"/>
         <v>1.8285572404326923E-2</v>
       </c>
-      <c r="R26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,R2:R25)</f>
+      <c r="R26" s="11">
+        <f t="shared" si="1"/>
         <v>1.7315796714178548E-2</v>
       </c>
-      <c r="S26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,S2:S25)</f>
+      <c r="S26" s="11">
+        <f t="shared" si="1"/>
         <v>1.6169449268486662E-2</v>
       </c>
-      <c r="T26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,T2:T25)</f>
+      <c r="T26" s="11">
+        <f t="shared" si="1"/>
         <v>1.5525192764301692E-2</v>
       </c>
-      <c r="U26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,U2:U25)</f>
+      <c r="U26" s="11">
+        <f t="shared" si="1"/>
         <v>1.5409359685047206E-2</v>
       </c>
-      <c r="V26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,V2:V25)</f>
+      <c r="V26" s="11">
+        <f t="shared" si="1"/>
         <v>1.528904649228678E-2</v>
       </c>
-      <c r="W26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,W2:W25)</f>
+      <c r="W26" s="11">
+        <f t="shared" si="1"/>
         <v>1.4946458947990807E-2</v>
       </c>
-      <c r="X26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,X2:X25)</f>
+      <c r="X26" s="11">
+        <f t="shared" si="1"/>
         <v>1.4329547215490937E-2</v>
       </c>
-      <c r="Y26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,Y2:Y25)</f>
+      <c r="Y26" s="11">
+        <f t="shared" si="1"/>
         <v>1.3792911443338178E-2</v>
       </c>
-      <c r="Z26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,Z2:Z25)</f>
+      <c r="Z26" s="11">
+        <f t="shared" si="1"/>
         <v>1.1550433212190825E-2</v>
       </c>
-      <c r="AA26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,AA2:AA25)</f>
+      <c r="AA26" s="11">
+        <f t="shared" si="1"/>
         <v>1.0799124770074787E-2</v>
       </c>
-      <c r="AB26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,AB2:AB25)</f>
+      <c r="AB26" s="11">
+        <f t="shared" si="1"/>
         <v>1.0484013490285446E-2</v>
       </c>
-      <c r="AC26" s="13">
+      <c r="AC26" s="4">
         <f t="shared" si="0"/>
         <v>0.80238186841243353</v>
       </c>
-      <c r="AD26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,AD2:AD25)</f>
+      <c r="AD26" s="11">
+        <f t="shared" ref="AD26:BI26" si="2">+_xlfn.AGGREGATE(1,6,AD2:AD25)</f>
         <v>1.0273609350634502E-2</v>
       </c>
-      <c r="AE26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,AE2:AE25)</f>
+      <c r="AE26" s="11">
+        <f t="shared" si="2"/>
         <v>1.0269008713495538E-2</v>
       </c>
-      <c r="AF26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,AF2:AF25)</f>
+      <c r="AF26" s="11">
+        <f t="shared" si="2"/>
         <v>1.0060497739542757E-2</v>
       </c>
-      <c r="AG26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,AG2:AG25)</f>
+      <c r="AG26" s="11">
+        <f t="shared" si="2"/>
         <v>9.8765638071800065E-3</v>
       </c>
-      <c r="AH26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,AH2:AH25)</f>
+      <c r="AH26" s="11">
+        <f t="shared" si="2"/>
         <v>9.62288664459497E-3</v>
       </c>
-      <c r="AI26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,AI2:AI25)</f>
+      <c r="AI26" s="11">
+        <f t="shared" si="2"/>
         <v>8.3773051216310072E-3</v>
       </c>
-      <c r="AJ26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,AJ2:AJ25)</f>
+      <c r="AJ26" s="11">
+        <f t="shared" si="2"/>
         <v>7.7933025803405146E-3</v>
       </c>
-      <c r="AK26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,AK2:AK25)</f>
+      <c r="AK26" s="11">
+        <f t="shared" si="2"/>
         <v>7.4571533606100915E-3</v>
       </c>
-      <c r="AL26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,AL2:AL25)</f>
+      <c r="AL26" s="11">
+        <f t="shared" si="2"/>
         <v>6.8971572681318415E-3</v>
       </c>
-      <c r="AM26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,AM2:AM25)</f>
+      <c r="AM26" s="11">
+        <f t="shared" si="2"/>
         <v>6.4230659554272845E-3</v>
       </c>
-      <c r="AN26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,AN2:AN25)</f>
+      <c r="AN26" s="11">
+        <f t="shared" si="2"/>
         <v>6.0568739121624289E-3</v>
       </c>
-      <c r="AO26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,AO2:AO25)</f>
+      <c r="AO26" s="11">
+        <f t="shared" si="2"/>
         <v>5.7835524103904646E-3</v>
       </c>
-      <c r="AP26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,AP2:AP25)</f>
+      <c r="AP26" s="11">
+        <f t="shared" si="2"/>
         <v>5.7068158934602516E-3</v>
       </c>
-      <c r="AQ26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,AQ2:AQ25)</f>
+      <c r="AQ26" s="11">
+        <f t="shared" si="2"/>
         <v>5.6320399219443899E-3</v>
       </c>
-      <c r="AR26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,AR2:AR25)</f>
+      <c r="AR26" s="11">
+        <f t="shared" si="2"/>
         <v>5.0787242458410608E-3</v>
       </c>
-      <c r="AS26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,AS2:AS25)</f>
+      <c r="AS26" s="11">
+        <f t="shared" si="2"/>
         <v>4.7866010298862798E-3</v>
       </c>
-      <c r="AT26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,AT2:AT25)</f>
+      <c r="AT26" s="11">
+        <f t="shared" si="2"/>
         <v>4.1494395549705586E-3</v>
       </c>
-      <c r="AU26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,AU2:AU25)</f>
+      <c r="AU26" s="11">
+        <f t="shared" si="2"/>
         <v>4.146896008055961E-3</v>
       </c>
-      <c r="AV26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,AV2:AV25)</f>
+      <c r="AV26" s="11">
+        <f t="shared" si="2"/>
         <v>4.0151927735594759E-3</v>
       </c>
-      <c r="AW26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,AW2:AW25)</f>
+      <c r="AW26" s="11">
+        <f t="shared" si="2"/>
         <v>3.4263640877509279E-3</v>
       </c>
-      <c r="AX26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,AX2:AX25)</f>
+      <c r="AX26" s="11">
+        <f t="shared" si="2"/>
         <v>3.1353192217005773E-3</v>
       </c>
-      <c r="AY26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,AY2:AY25)</f>
+      <c r="AY26" s="11">
+        <f t="shared" si="2"/>
         <v>3.0349294339624602E-3</v>
       </c>
-      <c r="AZ26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,AZ2:AZ25)</f>
+      <c r="AZ26" s="11">
+        <f t="shared" si="2"/>
         <v>2.7428877073074755E-3</v>
       </c>
-      <c r="BA26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,BA2:BA25)</f>
+      <c r="BA26" s="11">
+        <f t="shared" si="2"/>
         <v>2.5991274970627821E-3</v>
       </c>
-      <c r="BB26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,BB2:BB25)</f>
+      <c r="BB26" s="11">
+        <f t="shared" si="2"/>
         <v>2.4617186605544786E-3</v>
       </c>
-      <c r="BC26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,BC2:BC25)</f>
+      <c r="BC26" s="11">
+        <f t="shared" si="2"/>
         <v>2.3331173470937296E-3</v>
       </c>
-      <c r="BD26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,BD2:BD25)</f>
+      <c r="BD26" s="11">
+        <f t="shared" si="2"/>
         <v>2.309060138962872E-3</v>
       </c>
-      <c r="BE26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,BE2:BE25)</f>
+      <c r="BE26" s="11">
+        <f t="shared" si="2"/>
         <v>2.2637875000283167E-3</v>
       </c>
-      <c r="BF26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,BF2:BF25)</f>
+      <c r="BF26" s="11">
+        <f t="shared" si="2"/>
         <v>2.2479988827716342E-3</v>
       </c>
-      <c r="BG26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,BG2:BG25)</f>
+      <c r="BG26" s="11">
+        <f t="shared" si="2"/>
         <v>2.1652206746984736E-3</v>
       </c>
-      <c r="BH26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,BH2:BH25)</f>
+      <c r="BH26" s="11">
+        <f t="shared" si="2"/>
         <v>2.1261450649696818E-3</v>
       </c>
-      <c r="BI26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,BI2:BI25)</f>
+      <c r="BI26" s="11">
+        <f t="shared" si="2"/>
         <v>2.0219344916065055E-3</v>
       </c>
-      <c r="BJ26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,BJ2:BJ25)</f>
+      <c r="BJ26" s="11">
+        <f t="shared" ref="BJ26:CO26" si="3">+_xlfn.AGGREGATE(1,6,BJ2:BJ25)</f>
         <v>1.9001277356765847E-3</v>
       </c>
-      <c r="BK26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,BK2:BK25)</f>
+      <c r="BK26" s="11">
+        <f t="shared" si="3"/>
         <v>1.8994314926742393E-3</v>
       </c>
-      <c r="BL26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,BL2:BL25)</f>
+      <c r="BL26" s="11">
+        <f t="shared" si="3"/>
         <v>1.5818065200985129E-3</v>
       </c>
-      <c r="BM26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,BM2:BM25)</f>
+      <c r="BM26" s="11">
+        <f t="shared" si="3"/>
         <v>1.5817006907753407E-3</v>
       </c>
-      <c r="BN26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,BN2:BN25)</f>
+      <c r="BN26" s="11">
+        <f t="shared" si="3"/>
         <v>1.4240773971074131E-3</v>
       </c>
-      <c r="BO26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,BO2:BO25)</f>
+      <c r="BO26" s="11">
+        <f t="shared" si="3"/>
         <v>1.4179142968474539E-3</v>
       </c>
-      <c r="BP26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,BP2:BP25)</f>
+      <c r="BP26" s="11">
+        <f t="shared" si="3"/>
         <v>1.3246818358387689E-3</v>
       </c>
-      <c r="BQ26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,BQ2:BQ25)</f>
+      <c r="BQ26" s="11">
+        <f t="shared" si="3"/>
         <v>1.1568669593959716E-3</v>
       </c>
-      <c r="BR26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,BR2:BR25)</f>
+      <c r="BR26" s="11">
+        <f t="shared" si="3"/>
         <v>1.1548225149005239E-3</v>
       </c>
-      <c r="BS26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,BS2:BS25)</f>
+      <c r="BS26" s="11">
+        <f t="shared" si="3"/>
         <v>1.039648489534789E-3</v>
       </c>
-      <c r="BT26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,BT2:BT25)</f>
+      <c r="BT26" s="11">
+        <f t="shared" si="3"/>
         <v>8.3589620061899031E-4</v>
       </c>
-      <c r="BU26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,BU2:BU25)</f>
+      <c r="BU26" s="11">
+        <f t="shared" si="3"/>
         <v>8.1635834416509583E-4</v>
       </c>
-      <c r="BV26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,BV2:BV25)</f>
+      <c r="BV26" s="11">
+        <f t="shared" si="3"/>
         <v>8.0031804399629354E-4</v>
       </c>
-      <c r="BW26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,BW2:BW25)</f>
+      <c r="BW26" s="11">
+        <f t="shared" si="3"/>
         <v>7.4631937540048994E-4</v>
       </c>
-      <c r="BX26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,BX2:BX25)</f>
+      <c r="BX26" s="11">
+        <f t="shared" si="3"/>
         <v>7.3681388037847011E-4</v>
       </c>
-      <c r="BY26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,BY2:BY25)</f>
+      <c r="BY26" s="11">
+        <f t="shared" si="3"/>
         <v>7.0590484794593345E-4</v>
       </c>
-      <c r="BZ26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,BZ2:BZ25)</f>
+      <c r="BZ26" s="11">
+        <f t="shared" si="3"/>
         <v>6.84104039053807E-4</v>
       </c>
-      <c r="CA26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,CA2:CA25)</f>
+      <c r="CA26" s="11">
+        <f t="shared" si="3"/>
         <v>6.6945964646833911E-4</v>
       </c>
-      <c r="CB26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,CB2:CB25)</f>
+      <c r="CB26" s="11">
+        <f t="shared" si="3"/>
         <v>5.9565288053354799E-4</v>
       </c>
-      <c r="CC26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,CC2:CC25)</f>
+      <c r="CC26" s="11">
+        <f t="shared" si="3"/>
         <v>5.9031129638444861E-4</v>
       </c>
-      <c r="CD26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,CD2:CD25)</f>
+      <c r="CD26" s="11">
+        <f t="shared" si="3"/>
         <v>5.1535642949135602E-4</v>
       </c>
-      <c r="CE26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,CE2:CE25)</f>
+      <c r="CE26" s="11">
+        <f t="shared" si="3"/>
         <v>4.4771645688457105E-4</v>
       </c>
-      <c r="CF26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,CF2:CF25)</f>
+      <c r="CF26" s="11">
+        <f t="shared" si="3"/>
         <v>4.3756865980477499E-4</v>
       </c>
-      <c r="CG26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,CG2:CG25)</f>
+      <c r="CG26" s="11">
+        <f t="shared" si="3"/>
         <v>4.3428782391311221E-4</v>
       </c>
-      <c r="CH26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,CH2:CH25)</f>
+      <c r="CH26" s="11">
+        <f t="shared" si="3"/>
         <v>3.7792309448869682E-4</v>
       </c>
-      <c r="CI26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,CI2:CI25)</f>
+      <c r="CI26" s="11">
+        <f t="shared" si="3"/>
         <v>3.7328537362639312E-4</v>
       </c>
-      <c r="CJ26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,CJ2:CJ25)</f>
+      <c r="CJ26" s="11">
+        <f t="shared" si="3"/>
         <v>3.4372343417186539E-4</v>
       </c>
-      <c r="CK26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,CK2:CK25)</f>
+      <c r="CK26" s="11">
+        <f t="shared" si="3"/>
         <v>3.3733372960564667E-4</v>
       </c>
-      <c r="CL26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,CL2:CL25)</f>
+      <c r="CL26" s="11">
+        <f t="shared" si="3"/>
         <v>3.3277875946143048E-4</v>
       </c>
-      <c r="CM26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,CM2:CM25)</f>
+      <c r="CM26" s="11">
+        <f t="shared" si="3"/>
         <v>3.2788861004403951E-4</v>
       </c>
-      <c r="CN26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,CN2:CN25)</f>
+      <c r="CN26" s="11">
+        <f t="shared" si="3"/>
         <v>3.2420157741907385E-4</v>
       </c>
-      <c r="CO26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,CO2:CO25)</f>
+      <c r="CO26" s="11">
+        <f t="shared" si="3"/>
         <v>3.1341098292035326E-4</v>
       </c>
-      <c r="CP26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,CP2:CP25)</f>
+      <c r="CP26" s="11">
+        <f t="shared" ref="CP26:DU26" si="4">+_xlfn.AGGREGATE(1,6,CP2:CP25)</f>
         <v>3.046953338461358E-4</v>
       </c>
-      <c r="CQ26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,CQ2:CQ25)</f>
+      <c r="CQ26" s="11">
+        <f t="shared" si="4"/>
         <v>2.9316414947031904E-4</v>
       </c>
-      <c r="CR26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,CR2:CR25)</f>
+      <c r="CR26" s="11">
+        <f t="shared" si="4"/>
         <v>2.5577976842436985E-4</v>
       </c>
-      <c r="CS26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,CS2:CS25)</f>
+      <c r="CS26" s="11">
+        <f t="shared" si="4"/>
         <v>2.5176479886458161E-4</v>
       </c>
-      <c r="CT26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,CT2:CT25)</f>
+      <c r="CT26" s="11">
+        <f t="shared" si="4"/>
         <v>2.2461868986113742E-4</v>
       </c>
-      <c r="CU26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,CU2:CU25)</f>
+      <c r="CU26" s="11">
+        <f t="shared" si="4"/>
         <v>2.1947673061216422E-4</v>
       </c>
-      <c r="CV26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,CV2:CV25)</f>
+      <c r="CV26" s="11">
+        <f t="shared" si="4"/>
         <v>2.1345235807233257E-4</v>
       </c>
-      <c r="CW26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,CW2:CW25)</f>
+      <c r="CW26" s="11">
+        <f t="shared" si="4"/>
         <v>2.0460529954117429E-4</v>
       </c>
-      <c r="CX26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,CX2:CX25)</f>
+      <c r="CX26" s="11">
+        <f t="shared" si="4"/>
         <v>1.9711936038914501E-4</v>
       </c>
-      <c r="CY26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,CY2:CY25)</f>
+      <c r="CY26" s="11">
+        <f t="shared" si="4"/>
         <v>1.9037335788780303E-4</v>
       </c>
-      <c r="CZ26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,CZ2:CZ25)</f>
+      <c r="CZ26" s="11">
+        <f t="shared" si="4"/>
         <v>1.8833118013590879E-4</v>
       </c>
-      <c r="DA26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,DA2:DA25)</f>
+      <c r="DA26" s="11">
+        <f t="shared" si="4"/>
         <v>1.8220576493017111E-4</v>
       </c>
-      <c r="DB26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,DB2:DB25)</f>
+      <c r="DB26" s="11">
+        <f t="shared" si="4"/>
         <v>1.7384865279049475E-4</v>
       </c>
-      <c r="DC26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,DC2:DC25)</f>
+      <c r="DC26" s="11">
+        <f t="shared" si="4"/>
         <v>1.6255581051692958E-4</v>
       </c>
-      <c r="DD26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,DD2:DD25)</f>
+      <c r="DD26" s="11">
+        <f t="shared" si="4"/>
         <v>1.5957454655151872E-4</v>
       </c>
-      <c r="DE26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,DE2:DE25)</f>
+      <c r="DE26" s="11">
+        <f t="shared" si="4"/>
         <v>1.5954160582257889E-4</v>
       </c>
-      <c r="DF26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,DF2:DF25)</f>
+      <c r="DF26" s="11">
+        <f t="shared" si="4"/>
         <v>1.4203012158121406E-4</v>
       </c>
-      <c r="DG26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,DG2:DG25)</f>
+      <c r="DG26" s="11">
+        <f t="shared" si="4"/>
         <v>1.2070130022813934E-4</v>
       </c>
-      <c r="DH26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,DH2:DH25)</f>
+      <c r="DH26" s="11">
+        <f t="shared" si="4"/>
         <v>1.1674888379909217E-4</v>
       </c>
-      <c r="DI26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,DI2:DI25)</f>
+      <c r="DI26" s="11">
+        <f t="shared" si="4"/>
         <v>1.0884487758367084E-4</v>
       </c>
-      <c r="DJ26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,DJ2:DJ25)</f>
+      <c r="DJ26" s="11">
+        <f t="shared" si="4"/>
         <v>1.059323241353588E-4</v>
       </c>
-      <c r="DK26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,DK2:DK25)</f>
+      <c r="DK26" s="11">
+        <f t="shared" si="4"/>
         <v>9.0317129168430546E-5</v>
       </c>
-      <c r="DL26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,DL2:DL25)</f>
+      <c r="DL26" s="11">
+        <f t="shared" si="4"/>
         <v>8.7076786417718209E-5</v>
       </c>
-      <c r="DM26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,DM2:DM25)</f>
+      <c r="DM26" s="11">
+        <f t="shared" si="4"/>
         <v>8.5236889612280782E-5</v>
       </c>
-      <c r="DN26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,DN2:DN25)</f>
+      <c r="DN26" s="11">
+        <f t="shared" si="4"/>
         <v>8.3303566699208961E-5</v>
       </c>
-      <c r="DO26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,DO2:DO25)</f>
+      <c r="DO26" s="11">
+        <f t="shared" si="4"/>
         <v>7.0253785767211138E-5</v>
       </c>
-      <c r="DP26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,DP2:DP25)</f>
+      <c r="DP26" s="11">
+        <f t="shared" si="4"/>
         <v>6.5622073139259449E-5</v>
       </c>
-      <c r="DQ26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,DQ2:DQ25)</f>
+      <c r="DQ26" s="11">
+        <f t="shared" si="4"/>
         <v>6.0437430444646104E-5</v>
       </c>
-      <c r="DR26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,DR2:DR25)</f>
+      <c r="DR26" s="11">
+        <f t="shared" si="4"/>
         <v>6.0219020052339537E-5</v>
       </c>
-      <c r="DS26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,DS2:DS25)</f>
+      <c r="DS26" s="11">
+        <f t="shared" si="4"/>
         <v>5.4788844582679399E-5</v>
       </c>
-      <c r="DT26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,DT2:DT25)</f>
+      <c r="DT26" s="11">
+        <f t="shared" si="4"/>
         <v>5.0862053359068949E-5</v>
       </c>
-      <c r="DU26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,DU2:DU25)</f>
+      <c r="DU26" s="11">
+        <f t="shared" si="4"/>
         <v>5.0092684372180712E-5</v>
       </c>
-      <c r="DV26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,DV2:DV25)</f>
+      <c r="DV26" s="11">
+        <f t="shared" ref="DV26:FA26" si="5">+_xlfn.AGGREGATE(1,6,DV2:DV25)</f>
         <v>4.8452581049507184E-5</v>
       </c>
-      <c r="DW26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,DW2:DW25)</f>
+      <c r="DW26" s="11">
+        <f t="shared" si="5"/>
         <v>4.1192634864047348E-5</v>
       </c>
-      <c r="DX26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,DX2:DX25)</f>
+      <c r="DX26" s="11">
+        <f t="shared" si="5"/>
         <v>3.9294889100723167E-5</v>
       </c>
-      <c r="DY26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,DY2:DY25)</f>
+      <c r="DY26" s="11">
+        <f t="shared" si="5"/>
         <v>3.8110862285835568E-5</v>
       </c>
-      <c r="DZ26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,DZ2:DZ25)</f>
+      <c r="DZ26" s="11">
+        <f t="shared" si="5"/>
         <v>3.7887310619647277E-5</v>
       </c>
-      <c r="EA26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,EA2:EA25)</f>
+      <c r="EA26" s="11">
+        <f t="shared" si="5"/>
         <v>3.5439296174170811E-5</v>
       </c>
-      <c r="EB26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,EB2:EB25)</f>
+      <c r="EB26" s="11">
+        <f t="shared" si="5"/>
         <v>3.4113669121957932E-5</v>
       </c>
-      <c r="EC26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,EC2:EC25)</f>
+      <c r="EC26" s="11">
+        <f t="shared" si="5"/>
         <v>3.3512588338673529E-5</v>
       </c>
-      <c r="ED26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,ED2:ED25)</f>
+      <c r="ED26" s="11">
+        <f t="shared" si="5"/>
         <v>3.1970949134526196E-5</v>
       </c>
-      <c r="EE26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,EE2:EE25)</f>
+      <c r="EE26" s="11">
+        <f t="shared" si="5"/>
         <v>2.8752982970978931E-5</v>
       </c>
-      <c r="EF26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,EF2:EF25)</f>
+      <c r="EF26" s="11">
+        <f t="shared" si="5"/>
         <v>2.7853681125123557E-5</v>
       </c>
-      <c r="EG26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,EG2:EG25)</f>
+      <c r="EG26" s="11">
+        <f t="shared" si="5"/>
         <v>2.7664378203874605E-5</v>
       </c>
-      <c r="EH26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,EH2:EH25)</f>
+      <c r="EH26" s="11">
+        <f t="shared" si="5"/>
         <v>2.637353010154568E-5</v>
       </c>
-      <c r="EI26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,EI2:EI25)</f>
+      <c r="EI26" s="11">
+        <f t="shared" si="5"/>
         <v>2.5816083739500002E-5</v>
       </c>
-      <c r="EJ26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,EJ2:EJ25)</f>
+      <c r="EJ26" s="11">
+        <f t="shared" si="5"/>
         <v>2.5113014358191046E-5</v>
       </c>
-      <c r="EK26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,EK2:EK25)</f>
+      <c r="EK26" s="11">
+        <f t="shared" si="5"/>
         <v>2.224266303389184E-5</v>
       </c>
-      <c r="EL26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,EL2:EL25)</f>
+      <c r="EL26" s="11">
+        <f t="shared" si="5"/>
         <v>1.8556145242032658E-5</v>
       </c>
-      <c r="EM26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,EM2:EM25)</f>
+      <c r="EM26" s="11">
+        <f t="shared" si="5"/>
         <v>1.8313750716815581E-5</v>
       </c>
-      <c r="EN26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,EN2:EN25)</f>
+      <c r="EN26" s="11">
+        <f t="shared" si="5"/>
         <v>1.7385926576048578E-5</v>
       </c>
-      <c r="EO26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,EO2:EO25)</f>
+      <c r="EO26" s="11">
+        <f t="shared" si="5"/>
         <v>1.6456746912651851E-5</v>
       </c>
-      <c r="EP26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,EP2:EP25)</f>
+      <c r="EP26" s="11">
+        <f t="shared" si="5"/>
         <v>1.5823571429944694E-5</v>
       </c>
-      <c r="EQ26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,EQ2:EQ25)</f>
+      <c r="EQ26" s="11">
+        <f t="shared" si="5"/>
         <v>1.5496013879835966E-5</v>
       </c>
-      <c r="ER26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,ER2:ER25)</f>
+      <c r="ER26" s="11">
+        <f t="shared" si="5"/>
         <v>1.4792242010440139E-5</v>
       </c>
-      <c r="ES26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,ES2:ES25)</f>
+      <c r="ES26" s="11">
+        <f t="shared" si="5"/>
         <v>1.3852228500611736E-5</v>
       </c>
-      <c r="ET26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,ET2:ET25)</f>
+      <c r="ET26" s="11">
+        <f t="shared" si="5"/>
         <v>1.3098964436984766E-5</v>
       </c>
-      <c r="EU26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,EU2:EU25)</f>
+      <c r="EU26" s="11">
+        <f t="shared" si="5"/>
         <v>1.2758641761552422E-5</v>
       </c>
-      <c r="EV26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,EV2:EV25)</f>
+      <c r="EV26" s="11">
+        <f t="shared" si="5"/>
         <v>1.2137058155266414E-5</v>
       </c>
-      <c r="EW26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,EW2:EW25)</f>
+      <c r="EW26" s="11">
+        <f t="shared" si="5"/>
         <v>1.1912492798766391E-5</v>
       </c>
-      <c r="EX26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,EX2:EX25)</f>
+      <c r="EX26" s="11">
+        <f t="shared" si="5"/>
         <v>1.1547779227676223E-5</v>
       </c>
-      <c r="EY26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,EY2:EY25)</f>
+      <c r="EY26" s="11">
+        <f t="shared" si="5"/>
         <v>1.0601923764617281E-5</v>
       </c>
-      <c r="EZ26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,EZ2:EZ25)</f>
+      <c r="EZ26" s="11">
+        <f t="shared" si="5"/>
         <v>1.0089450812558093E-5</v>
       </c>
-      <c r="FA26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,FA2:FA25)</f>
+      <c r="FA26" s="11">
+        <f t="shared" si="5"/>
         <v>9.8349412695822692E-6</v>
       </c>
-      <c r="FB26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,FB2:FB25)</f>
+      <c r="FB26" s="11">
+        <f t="shared" ref="FB26:GG26" si="6">+_xlfn.AGGREGATE(1,6,FB2:FB25)</f>
         <v>9.7472759054910724E-6</v>
       </c>
-      <c r="FC26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,FC2:FC25)</f>
+      <c r="FC26" s="11">
+        <f t="shared" si="6"/>
         <v>9.1337063559020263E-6</v>
       </c>
-      <c r="FD26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,FD2:FD25)</f>
+      <c r="FD26" s="11">
+        <f t="shared" si="6"/>
         <v>8.21256797859765E-6</v>
       </c>
-      <c r="FE26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,FE2:FE25)</f>
+      <c r="FE26" s="11">
+        <f t="shared" si="6"/>
         <v>7.7817243723336906E-6</v>
       </c>
-      <c r="FF26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,FF2:FF25)</f>
+      <c r="FF26" s="11">
+        <f t="shared" si="6"/>
         <v>7.5668317267705537E-6</v>
       </c>
-      <c r="FG26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,FG2:FG25)</f>
+      <c r="FG26" s="11">
+        <f t="shared" si="6"/>
         <v>7.3091490254499637E-6</v>
       </c>
-      <c r="FH26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,FH2:FH25)</f>
+      <c r="FH26" s="11">
+        <f t="shared" si="6"/>
         <v>5.6088465476866548E-6</v>
       </c>
-      <c r="FI26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,FI2:FI25)</f>
+      <c r="FI26" s="11">
+        <f t="shared" si="6"/>
         <v>4.9643805333375721E-6</v>
       </c>
-      <c r="FJ26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,FJ2:FJ25)</f>
+      <c r="FJ26" s="11">
+        <f t="shared" si="6"/>
         <v>4.746189828938119E-6</v>
       </c>
-      <c r="FK26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,FK2:FK25)</f>
+      <c r="FK26" s="11">
+        <f t="shared" si="6"/>
         <v>4.596106997106515E-6</v>
       </c>
-      <c r="FL26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,FL2:FL25)</f>
+      <c r="FL26" s="11">
+        <f t="shared" si="6"/>
         <v>4.2476455653208211E-6</v>
       </c>
-      <c r="FM26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,FM2:FM25)</f>
+      <c r="FM26" s="11">
+        <f t="shared" si="6"/>
         <v>4.0956246668746722E-6</v>
       </c>
-      <c r="FN26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,FN2:FN25)</f>
+      <c r="FN26" s="11">
+        <f t="shared" si="6"/>
         <v>4.0546237825954466E-6</v>
       </c>
-      <c r="FO26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,FO2:FO25)</f>
+      <c r="FO26" s="11">
+        <f t="shared" si="6"/>
         <v>3.6009845047961204E-6</v>
       </c>
-      <c r="FP26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,FP2:FP25)</f>
+      <c r="FP26" s="11">
+        <f t="shared" si="6"/>
         <v>3.0154999477134716E-6</v>
       </c>
-      <c r="FQ26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,FQ2:FQ25)</f>
+      <c r="FQ26" s="11">
+        <f t="shared" si="6"/>
         <v>2.9533655344837398E-6</v>
       </c>
-      <c r="FR26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,FR2:FR25)</f>
+      <c r="FR26" s="11">
+        <f t="shared" si="6"/>
         <v>2.1681072873671141E-6</v>
       </c>
-      <c r="FS26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,FS2:FS25)</f>
+      <c r="FS26" s="11">
+        <f t="shared" si="6"/>
         <v>1.8555632754936141E-6</v>
       </c>
-      <c r="FT26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,FT2:FT25)</f>
+      <c r="FT26" s="11">
+        <f t="shared" si="6"/>
         <v>1.8138113422002508E-6</v>
       </c>
-      <c r="FU26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,FU2:FU25)</f>
+      <c r="FU26" s="11">
+        <f t="shared" si="6"/>
         <v>1.6849425836476886E-6</v>
       </c>
-      <c r="FV26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,FV2:FV25)</f>
+      <c r="FV26" s="11">
+        <f t="shared" si="6"/>
         <v>1.4584334529011246E-6</v>
       </c>
-      <c r="FW26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,FW2:FW25)</f>
+      <c r="FW26" s="11">
+        <f t="shared" si="6"/>
         <v>1.3767508542573457E-6</v>
       </c>
-      <c r="FX26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,FX2:FX25)</f>
+      <c r="FX26" s="11">
+        <f t="shared" si="6"/>
         <v>1.1854258001962174E-6</v>
       </c>
-      <c r="FY26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,FY2:FY25)</f>
+      <c r="FY26" s="11">
+        <f t="shared" si="6"/>
         <v>8.0456642566304327E-7</v>
       </c>
-      <c r="FZ26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,FZ2:FZ25)</f>
+      <c r="FZ26" s="11">
+        <f t="shared" si="6"/>
         <v>7.8891315090872101E-7</v>
       </c>
-      <c r="GA26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,GA2:GA25)</f>
+      <c r="GA26" s="11">
+        <f t="shared" si="6"/>
         <v>6.9810464201247123E-7</v>
       </c>
-      <c r="GB26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,GB2:GB25)</f>
+      <c r="GB26" s="11">
+        <f t="shared" si="6"/>
         <v>6.6871516015542619E-7</v>
       </c>
-      <c r="GC26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,GC2:GC25)</f>
+      <c r="GC26" s="11">
+        <f t="shared" si="6"/>
         <v>6.5107031856255609E-7</v>
       </c>
-      <c r="GD26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,GD2:GD25)</f>
+      <c r="GD26" s="11">
+        <f t="shared" si="6"/>
         <v>4.7485933887491535E-7</v>
       </c>
-      <c r="GE26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,GE2:GE25)</f>
+      <c r="GE26" s="11">
+        <f t="shared" si="6"/>
         <v>3.9081223738939693E-7</v>
       </c>
-      <c r="GF26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,GF2:GF25)</f>
+      <c r="GF26" s="11">
+        <f t="shared" si="6"/>
         <v>3.5972707205067652E-7</v>
       </c>
-      <c r="GG26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,GG2:GG25)</f>
+      <c r="GG26" s="11">
+        <f t="shared" si="6"/>
         <v>3.4634981361413148E-7</v>
       </c>
-      <c r="GH26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,GH2:GH25)</f>
+      <c r="GH26" s="11">
+        <f t="shared" ref="GH26:HM26" si="7">+_xlfn.AGGREGATE(1,6,GH2:GH25)</f>
         <v>2.3051584807082739E-7</v>
       </c>
-      <c r="GI26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,GI2:GI25)</f>
+      <c r="GI26" s="11">
+        <f t="shared" si="7"/>
         <v>1.9843296793722359E-7</v>
       </c>
-      <c r="GJ26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,GJ2:GJ25)</f>
+      <c r="GJ26" s="11">
+        <f t="shared" si="7"/>
         <v>1.5106012928049318E-7</v>
       </c>
-      <c r="GK26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,GK2:GK25)</f>
+      <c r="GK26" s="11">
+        <f t="shared" si="7"/>
         <v>8.51008671406934E-8</v>
       </c>
-      <c r="GL26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,GL2:GL25)</f>
+      <c r="GL26" s="11">
+        <f t="shared" si="7"/>
         <v>7.7111411261546996E-8</v>
       </c>
-      <c r="GM26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,GM2:GM25)</f>
+      <c r="GM26" s="11">
+        <f t="shared" si="7"/>
         <v>5.2987881695539513E-8</v>
       </c>
-      <c r="GN26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,GN2:GN25)</f>
+      <c r="GN26" s="11">
+        <f t="shared" si="7"/>
         <v>3.9691983322088712E-8</v>
       </c>
-      <c r="GO26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,GO2:GO25)</f>
+      <c r="GO26" s="11">
+        <f t="shared" si="7"/>
         <v>3.7816159107652998E-8</v>
       </c>
-      <c r="GP26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,GP2:GP25)</f>
+      <c r="GP26" s="11">
+        <f t="shared" si="7"/>
         <v>3.7164024843495555E-8</v>
       </c>
-      <c r="GQ26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,GQ2:GQ25)</f>
+      <c r="GQ26" s="11">
+        <f t="shared" si="7"/>
         <v>3.3016675732172821E-8</v>
       </c>
-      <c r="GR26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,GR2:GR25)</f>
+      <c r="GR26" s="11">
+        <f t="shared" si="7"/>
         <v>2.6098055126801597E-8</v>
       </c>
-      <c r="GS26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,GS2:GS25)</f>
+      <c r="GS26" s="11">
+        <f t="shared" si="7"/>
         <v>2.1274387048085445E-8</v>
       </c>
-      <c r="GT26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,GT2:GT25)</f>
+      <c r="GT26" s="11">
+        <f t="shared" si="7"/>
         <v>1.0581131786074032E-8</v>
       </c>
-      <c r="GU26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,GU2:GU25)</f>
+      <c r="GU26" s="11">
+        <f t="shared" si="7"/>
         <v>4.5146911752002032E-9</v>
       </c>
-      <c r="GV26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,GV2:GV25)</f>
+      <c r="GV26" s="11">
+        <f t="shared" si="7"/>
         <v>3.8022325754954258E-9</v>
       </c>
-      <c r="GW26" s="12">
-        <f>+_xlfn.AGGREGATE(1,6,GW2:GW25)</f>
+      <c r="GW26" s="11">
+        <f t="shared" si="7"/>
         <v>1.9758802134074968E-9</v>
       </c>
+    </row>
+    <row r="31" spans="1:205" x14ac:dyDescent="0.25">
+      <c r="B31" s="11"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" columnSort="1" ref="B1:GW26">
@@ -18129,12 +18266,12 @@
       <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="5"/>
+    <col min="1" max="1" width="12.85546875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -18232,7 +18369,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
@@ -18327,7 +18464,7 @@
         <v>121663035.8</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>40</v>
       </c>
@@ -18422,7 +18559,7 @@
         <v>110656862.29000001</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>41</v>
       </c>
@@ -18520,7 +18657,7 @@
         <v>240175397.19</v>
       </c>
     </row>
-    <row r="5" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>42</v>
       </c>
@@ -18618,7 +18755,7 @@
         <v>227645680</v>
       </c>
     </row>
-    <row r="6" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
@@ -18716,7 +18853,7 @@
         <v>94638672</v>
       </c>
     </row>
-    <row r="7" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>44</v>
       </c>
@@ -18814,7 +18951,7 @@
         <v>419814629</v>
       </c>
     </row>
-    <row r="8" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
@@ -18912,7 +19049,7 @@
         <v>215494042.88</v>
       </c>
     </row>
-    <row r="9" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>46</v>
       </c>
@@ -19010,7 +19147,7 @@
         <v>280973107</v>
       </c>
     </row>
-    <row r="10" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>47</v>
       </c>
@@ -19108,7 +19245,7 @@
         <v>226357870</v>
       </c>
     </row>
-    <row r="11" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>48</v>
       </c>
@@ -19206,7 +19343,7 @@
         <v>385705579</v>
       </c>
     </row>
-    <row r="12" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>49</v>
       </c>
@@ -19304,7 +19441,7 @@
         <v>581299946</v>
       </c>
     </row>
-    <row r="13" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>50</v>
       </c>
@@ -19402,7 +19539,7 @@
         <v>517420345</v>
       </c>
     </row>
-    <row r="14" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>51</v>
       </c>
@@ -19500,7 +19637,7 @@
         <v>508973689</v>
       </c>
     </row>
-    <row r="15" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>52</v>
       </c>
@@ -19598,7 +19735,7 @@
         <v>482742329</v>
       </c>
     </row>
-    <row r="16" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>53</v>
       </c>
@@ -19696,7 +19833,7 @@
         <v>709411755</v>
       </c>
     </row>
-    <row r="17" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>54</v>
       </c>
@@ -19794,7 +19931,7 @@
         <v>338559342.82999903</v>
       </c>
     </row>
-    <row r="18" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>55</v>
       </c>
@@ -19892,7 +20029,7 @@
         <v>333939865.85000002</v>
       </c>
     </row>
-    <row r="19" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>56</v>
       </c>
@@ -19990,7 +20127,7 @@
         <v>142004300.18000001</v>
       </c>
     </row>
-    <row r="20" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>57</v>
       </c>
@@ -20088,7 +20225,7 @@
         <v>1418.69</v>
       </c>
     </row>
-    <row r="21" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>58</v>
       </c>
@@ -20186,7 +20323,7 @@
         <v>46067.01</v>
       </c>
     </row>
-    <row r="22" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>59</v>
       </c>
@@ -20281,7 +20418,7 @@
         <v>106078762</v>
       </c>
     </row>
-    <row r="23" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>60</v>
       </c>
@@ -20379,7 +20516,7 @@
         <v>11233759</v>
       </c>
     </row>
-    <row r="24" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>61</v>
       </c>
@@ -20477,7 +20614,7 @@
         <v>105966932</v>
       </c>
     </row>
-    <row r="25" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:42" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>62</v>
       </c>
@@ -20583,28 +20720,28 @@
       <c r="AO25"/>
       <c r="AP25"/>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26"/>
       <c r="W26" s="1"/>
       <c r="AE26" s="1"/>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="W27" s="1"/>
       <c r="AE27" s="1"/>
     </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29"/>
     </row>
-    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31"/>
     </row>
-    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32"/>
     </row>
-    <row r="33" spans="31:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="31:31" x14ac:dyDescent="0.25">
       <c r="AE33" s="1"/>
     </row>
   </sheetData>
@@ -20623,12 +20760,12 @@
       <selection pane="bottomRight" activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" style="6"/>
+    <col min="1" max="1" width="12.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -20726,7 +20863,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
@@ -20854,7 +20991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>40</v>
       </c>
@@ -20982,7 +21119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>41</v>
       </c>
@@ -21110,7 +21247,7 @@
         <v>1.2511322087821908E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>42</v>
       </c>
@@ -21238,7 +21375,7 @@
         <v>1.2703200442560647E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>43</v>
       </c>
@@ -21366,7 +21503,7 @@
         <v>8.3175504456432566E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:32" s="1" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>44</v>
       </c>
@@ -21494,7 +21631,7 @@
         <v>2.9405844669230921E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>45</v>
       </c>
@@ -21622,7 +21759,7 @@
         <v>1.577598269039298E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>46</v>
       </c>
@@ -21750,7 +21887,7 @@
         <v>2.0418473588154799E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>47</v>
       </c>
@@ -21878,7 +22015,7 @@
         <v>1.6367896364429355E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>48</v>
       </c>
@@ -22006,7 +22143,7 @@
         <v>2.9205017843660249E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>49</v>
       </c>
@@ -22134,7 +22271,7 @@
         <v>3.6152626972611533E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>50</v>
       </c>
@@ -22262,7 +22399,7 @@
         <v>3.0808633071317704E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>51</v>
       </c>
@@ -22390,7 +22527,7 @@
         <v>2.8384275181019832E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>52</v>
       </c>
@@ -22518,7 +22655,7 @@
         <v>2.5606063088027271E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>53</v>
       </c>
@@ -22646,7 +22783,7 @@
         <v>4.5922394607008137E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>54</v>
       </c>
@@ -22774,7 +22911,7 @@
         <v>2.7553848552166874E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>55</v>
       </c>
@@ -22902,7 +23039,7 @@
         <v>2.1906536388605839E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>56</v>
       </c>
@@ -23030,7 +23167,7 @@
         <v>1.1299582854963736E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>57</v>
       </c>
@@ -23158,7 +23295,7 @@
         <v>1.5885136926972813E-7</v>
       </c>
     </row>
-    <row r="21" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>58</v>
       </c>
@@ -23286,7 +23423,7 @@
         <v>5.9668961148372866E-6</v>
       </c>
     </row>
-    <row r="22" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>59</v>
       </c>
@@ -23414,7 +23551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>60</v>
       </c>
@@ -23542,7 +23679,7 @@
         <v>1.7928759062402105E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>61</v>
       </c>
@@ -23670,7 +23807,7 @@
         <v>2.1678064611950109E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>62</v>
       </c>
@@ -23798,7 +23935,7 @@
         <v>2.475185018622976E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="C26">
         <f>COUNTIF(C2:C25,"&gt;0.8")</f>
         <v>20</v>
@@ -23920,60 +24057,60 @@
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44"/>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48"/>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:AF25">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
       <formula>0.02</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23992,14 +24129,14 @@
       <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" style="5"/>
-    <col min="3" max="36" width="12.77734375" style="1"/>
-    <col min="47" max="16384" width="12.77734375" style="1"/>
+    <col min="1" max="1" width="12.7109375" style="5"/>
+    <col min="3" max="36" width="12.7109375" style="1"/>
+    <col min="47" max="16384" width="12.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -24103,7 +24240,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>38</v>
       </c>
@@ -24214,7 +24351,7 @@
       <c r="AS2" s="1"/>
       <c r="AT2" s="1"/>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>40</v>
       </c>
@@ -24325,7 +24462,7 @@
       <c r="AS3" s="1"/>
       <c r="AT3" s="1"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>41</v>
       </c>
@@ -24439,7 +24576,7 @@
       <c r="AS4" s="1"/>
       <c r="AT4" s="1"/>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>42</v>
       </c>
@@ -24553,7 +24690,7 @@
       <c r="AS5" s="1"/>
       <c r="AT5" s="1"/>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
@@ -24667,7 +24804,7 @@
       <c r="AS6" s="1"/>
       <c r="AT6" s="1"/>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>44</v>
       </c>
@@ -24781,7 +24918,7 @@
       <c r="AS7" s="1"/>
       <c r="AT7" s="1"/>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
@@ -24895,7 +25032,7 @@
       <c r="AS8" s="1"/>
       <c r="AT8" s="1"/>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>46</v>
       </c>
@@ -25009,7 +25146,7 @@
       <c r="AS9" s="1"/>
       <c r="AT9" s="1"/>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>47</v>
       </c>
@@ -25123,7 +25260,7 @@
       <c r="AS10" s="1"/>
       <c r="AT10" s="1"/>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>48</v>
       </c>
@@ -25237,7 +25374,7 @@
       <c r="AS11" s="1"/>
       <c r="AT11" s="1"/>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>49</v>
       </c>
@@ -25351,7 +25488,7 @@
       <c r="AS12" s="1"/>
       <c r="AT12" s="1"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>50</v>
       </c>
@@ -25465,7 +25602,7 @@
       <c r="AS13" s="1"/>
       <c r="AT13" s="1"/>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>51</v>
       </c>
@@ -25579,7 +25716,7 @@
       <c r="AS14" s="1"/>
       <c r="AT14" s="1"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>52</v>
       </c>
@@ -25693,7 +25830,7 @@
       <c r="AS15" s="1"/>
       <c r="AT15" s="1"/>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>53</v>
       </c>
@@ -25807,7 +25944,7 @@
       <c r="AS16" s="1"/>
       <c r="AT16" s="1"/>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>54</v>
       </c>
@@ -25921,7 +26058,7 @@
       <c r="AS17" s="1"/>
       <c r="AT17" s="1"/>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>55</v>
       </c>
@@ -26035,7 +26172,7 @@
       <c r="AS18" s="1"/>
       <c r="AT18" s="1"/>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>56</v>
       </c>
@@ -26149,7 +26286,7 @@
       <c r="AS19" s="1"/>
       <c r="AT19" s="1"/>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>57</v>
       </c>
@@ -26263,7 +26400,7 @@
       <c r="AS20" s="1"/>
       <c r="AT20" s="1"/>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>58</v>
       </c>
@@ -26377,7 +26514,7 @@
       <c r="AS21" s="1"/>
       <c r="AT21" s="1"/>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>59</v>
       </c>
@@ -26488,7 +26625,7 @@
       <c r="AS22" s="1"/>
       <c r="AT22" s="1"/>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>60</v>
       </c>
@@ -26602,7 +26739,7 @@
       <c r="AS23" s="1"/>
       <c r="AT23" s="1"/>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>61</v>
       </c>
@@ -26716,7 +26853,7 @@
       <c r="AS24" s="1"/>
       <c r="AT24" s="1"/>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>2001</v>
       </c>
@@ -26830,7 +26967,7 @@
       <c r="AS25" s="1"/>
       <c r="AT25" s="1"/>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="AK26" s="1"/>
       <c r="AL26" s="1"/>
       <c r="AM26" s="1"/>
@@ -26842,7 +26979,7 @@
       <c r="AS26" s="1"/>
       <c r="AT26" s="1"/>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="AK27" s="1"/>
       <c r="AL27" s="1"/>
       <c r="AM27" s="1"/>
@@ -26871,12 +27008,12 @@
       <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" style="6"/>
+    <col min="1" max="1" width="12.7109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -26980,7 +27117,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>38</v>
       </c>
@@ -27116,7 +27253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:34" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:34" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>40</v>
       </c>
@@ -27252,7 +27389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>41</v>
       </c>
@@ -27388,7 +27525,7 @@
         <v>7.2865639771097744E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>42</v>
       </c>
@@ -27524,7 +27661,7 @@
         <v>1.0208101393233061E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>43</v>
       </c>
@@ -27660,7 +27797,7 @@
         <v>9.3223758733670045E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>44</v>
       </c>
@@ -27796,7 +27933,7 @@
         <v>2.8566773766060392E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>45</v>
       </c>
@@ -27932,7 +28069,7 @@
         <v>1.639993057385912E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>46</v>
       </c>
@@ -28068,7 +28205,7 @@
         <v>2.03722053167926E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>47</v>
       </c>
@@ -28204,7 +28341,7 @@
         <v>1.9223667228466763E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>48</v>
       </c>
@@ -28340,7 +28477,7 @@
         <v>2.809927168916624E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>49</v>
       </c>
@@ -28476,7 +28613,7 @@
         <v>4.3731838299279895E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>50</v>
       </c>
@@ -28612,7 +28749,7 @@
         <v>2.9056381162225232E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>51</v>
       </c>
@@ -28748,7 +28885,7 @@
         <v>2.5370146935679627E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>52</v>
       </c>
@@ -28884,7 +29021,7 @@
         <v>2.9960103611673203E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>53</v>
       </c>
@@ -29020,7 +29157,7 @@
         <v>5.8061719780091989E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>54</v>
       </c>
@@ -29156,7 +29293,7 @@
         <v>3.6036549870564663E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>55</v>
       </c>
@@ -29292,7 +29429,7 @@
         <v>2.7977651234334107E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>56</v>
       </c>
@@ -29428,7 +29565,7 @@
         <v>8.531359497272191E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>57</v>
       </c>
@@ -29564,7 +29701,7 @@
         <v>1.6498950999233874E-7</v>
       </c>
     </row>
-    <row r="21" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>58</v>
       </c>
@@ -29700,7 +29837,7 @@
         <v>3.6809735033270675E-7</v>
       </c>
     </row>
-    <row r="22" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>59</v>
       </c>
@@ -29836,7 +29973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>60</v>
       </c>
@@ -29972,7 +30109,7 @@
         <v>1.3774316767987136E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>61</v>
       </c>
@@ -30108,7 +30245,7 @@
         <v>2.4345431998552967E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>2001</v>
       </c>
@@ -30244,7 +30381,7 @@
         <v>2.8854770645820906E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C26" s="7">
         <f t="shared" si="0"/>
         <v>395</v>
@@ -30374,66 +30511,66 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31"/>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38"/>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40"/>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42"/>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43"/>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44"/>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46"/>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47"/>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D2">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0.02</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:AH25">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.02</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Archivos de trabajo/Datos/socios_expo.xlsx
+++ b/Archivos de trabajo/Datos/socios_expo.xlsx
@@ -8,24 +8,49 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd03ae9016654ccc/Escritorio/Paper-ITCRM.SF/Archivos de trabajo/Datos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{AEFDB262-F85A-4503-9F9C-FB96FD9C40B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE0593AA-A8AC-4301-8AFE-8B06EF27E661}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{AEFDB262-F85A-4503-9F9C-FB96FD9C40B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C97CD1A-4E82-4E3D-972A-B43E0EE19AB2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SOCIOS COM" sheetId="6" r:id="rId1"/>
-    <sheet name="top fob" sheetId="7" r:id="rId2"/>
-    <sheet name="VALOR FOB" sheetId="1" r:id="rId3"/>
-    <sheet name="Part_fob" sheetId="3" r:id="rId4"/>
-    <sheet name="PESO NETO" sheetId="4" r:id="rId5"/>
-    <sheet name="Part_peso" sheetId="5" r:id="rId6"/>
+    <sheet name="top fob" sheetId="7" r:id="rId1"/>
+    <sheet name="VALOR FOB" sheetId="1" r:id="rId2"/>
+    <sheet name="Part_fob" sheetId="3" r:id="rId3"/>
+    <sheet name="PESO NETO" sheetId="4" r:id="rId4"/>
+    <sheet name="Part_peso" sheetId="5" r:id="rId5"/>
+    <sheet name="SOCIOS COM" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Yamila Sonder</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{DFEA9842-0719-4BE6-B4E5-67DC2AD7A95D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Yamila Sonder:
+En cada fila se puede leer la participacion en ese anio del pais indicado en la columna. Si un pais no tiene dato implica que ese anio no estuvo en el top de paises a los que santa fe les exporto, motivo por el cual no entro en el 80% </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="85">
   <si>
     <t>anio</t>
   </si>
@@ -286,7 +311,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +354,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -430,7 +462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -470,6 +502,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -485,8 +518,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -822,679 +853,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA5121E-4C95-407A-A5D1-7B0917DADC02}">
-  <dimension ref="A1:O34"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="2" width="28.88671875" customWidth="1"/>
-    <col min="3" max="3" width="1.6640625" customWidth="1"/>
-    <col min="4" max="5" width="28.88671875" customWidth="1"/>
-    <col min="6" max="7" width="2.44140625" customWidth="1"/>
-    <col min="8" max="9" width="28.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H1" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" s="22"/>
-    </row>
-    <row r="2" spans="1:15" s="8" customFormat="1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="23"/>
-      <c r="D3" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="24"/>
-      <c r="H3" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>19</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6">
-        <v>24</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>17</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>16</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>21</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>7</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14">
-        <v>9</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15">
-        <v>10</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16">
-        <v>24</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>24</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17">
-        <v>13</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18">
-        <v>22</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>24</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19">
-        <v>20</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>15</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21">
-        <v>21</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21">
-        <v>23</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22">
-        <v>7</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22">
-        <v>10</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23">
-        <v>14</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23">
-        <v>17</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25">
-        <v>7</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>11</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26">
-        <v>23</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26">
-        <v>24</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27">
-        <v>22</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="H27" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28">
-        <v>23</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28">
-        <v>24</v>
-      </c>
-      <c r="H28" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29">
-        <v>16</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29">
-        <v>24</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30">
-        <v>3</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30">
-        <v>20</v>
-      </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31">
-        <v>11</v>
-      </c>
-      <c r="H31" s="17"/>
-      <c r="I31" s="18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32">
-        <v>12</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D33" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E34">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I3:I31">
-    <sortCondition ref="I3:I31"/>
-  </sortState>
-  <mergeCells count="4">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="M2:O2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4CFBD1-5C0C-4064-A11B-DE329AC70872}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D4CFBD1-5C0C-4064-A11B-DE329AC70872}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:HR30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AS2" sqref="AS2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5316,1627 +4681,1627 @@
       <c r="HH15" s="4"/>
       <c r="HI15" s="4"/>
     </row>
-    <row r="16" spans="1:226" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
+    <row r="16" spans="1:226" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="21">
         <v>3.1102379464113157E-2</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27">
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21">
         <v>9.7839610497260421E-2</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="21">
         <v>2.153652208714691E-2</v>
       </c>
-      <c r="I16" s="27">
+      <c r="I16" s="21">
         <v>7.4680958422441213E-2</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="21">
         <v>2.1787621955505532E-2</v>
       </c>
-      <c r="K16" s="27">
+      <c r="K16" s="21">
         <v>1.5051163763903551E-2</v>
       </c>
-      <c r="L16" s="27">
+      <c r="L16" s="21">
         <v>1.3552494224292135E-2</v>
       </c>
-      <c r="M16" s="27"/>
-      <c r="N16" s="27">
+      <c r="M16" s="21"/>
+      <c r="N16" s="21">
         <v>2.5432837606136734E-2</v>
       </c>
-      <c r="O16" s="27">
+      <c r="O16" s="21">
         <v>6.2846803957076494E-2</v>
       </c>
-      <c r="P16" s="27">
+      <c r="P16" s="21">
         <v>1.3151497378778554E-2</v>
       </c>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27">
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21">
         <v>1.2422169073624201E-2</v>
       </c>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27">
+      <c r="S16" s="21"/>
+      <c r="T16" s="21">
         <v>5.4032793704757179E-2</v>
       </c>
-      <c r="U16" s="27">
+      <c r="U16" s="21">
         <v>3.0435844688253746E-2</v>
       </c>
-      <c r="V16" s="27">
+      <c r="V16" s="21">
         <v>4.5922394607008137E-2</v>
       </c>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27">
+      <c r="W16" s="21"/>
+      <c r="X16" s="21">
         <v>4.9456494469097036E-2</v>
       </c>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27">
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21">
         <v>2.5825445500040255E-2</v>
       </c>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="27">
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21">
         <v>7.5733323670154562E-2</v>
       </c>
-      <c r="AF16" s="27"/>
-      <c r="AG16" s="27"/>
-      <c r="AH16" s="27">
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21"/>
+      <c r="AH16" s="21">
         <v>2.2965918900627078E-2</v>
       </c>
-      <c r="AI16" s="27">
+      <c r="AI16" s="21">
         <v>2.0746058519528276E-2</v>
       </c>
-      <c r="AJ16" s="27">
+      <c r="AJ16" s="21">
         <v>1.9853638503139658E-2</v>
       </c>
-      <c r="AK16" s="27"/>
-      <c r="AL16" s="27"/>
-      <c r="AM16" s="27"/>
-      <c r="AN16" s="27">
+      <c r="AK16" s="21"/>
+      <c r="AL16" s="21"/>
+      <c r="AM16" s="21"/>
+      <c r="AN16" s="21">
         <v>1.6975801898412052E-2</v>
       </c>
-      <c r="AO16" s="27">
+      <c r="AO16" s="21">
         <v>1.4010634503313257E-2</v>
       </c>
-      <c r="AP16" s="27"/>
-      <c r="AQ16" s="27"/>
-      <c r="AR16" s="27"/>
-      <c r="AS16" s="27">
+      <c r="AP16" s="21"/>
+      <c r="AQ16" s="21"/>
+      <c r="AR16" s="21"/>
+      <c r="AS16" s="21">
         <v>2.0040307743083609E-2</v>
       </c>
-      <c r="AT16" s="27">
+      <c r="AT16" s="21">
         <v>1.9808019625997379E-2</v>
       </c>
-      <c r="AU16" s="27">
+      <c r="AU16" s="21">
         <f t="shared" si="0"/>
         <v>0.80521073476369132</v>
       </c>
-      <c r="AV16" s="27"/>
-      <c r="AW16" s="27"/>
-      <c r="AX16" s="27"/>
-      <c r="AY16" s="27"/>
-      <c r="AZ16" s="27"/>
-      <c r="BA16" s="27"/>
-      <c r="BB16" s="27"/>
-      <c r="BC16" s="27"/>
-      <c r="BD16" s="27"/>
-      <c r="BE16" s="27"/>
-      <c r="BF16" s="27"/>
-      <c r="BG16" s="27"/>
-      <c r="BH16" s="27"/>
-      <c r="BI16" s="27"/>
-      <c r="BJ16" s="27"/>
-      <c r="BK16" s="27"/>
-      <c r="BL16" s="27"/>
-      <c r="BM16" s="27"/>
-      <c r="BN16" s="27"/>
-      <c r="BO16" s="27"/>
-      <c r="BP16" s="27"/>
-      <c r="BQ16" s="27"/>
-      <c r="BR16" s="27"/>
-      <c r="BS16" s="27"/>
-      <c r="BT16" s="27"/>
-      <c r="BU16" s="27"/>
-      <c r="BV16" s="27"/>
-      <c r="BW16" s="27"/>
-      <c r="BX16" s="27"/>
-      <c r="BY16" s="27"/>
-      <c r="BZ16" s="27"/>
-      <c r="CA16" s="27"/>
-      <c r="CB16" s="27"/>
-      <c r="CC16" s="27"/>
-      <c r="CD16" s="27"/>
-      <c r="CE16" s="27"/>
-      <c r="CF16" s="27"/>
-      <c r="CG16" s="27"/>
-      <c r="CH16" s="27"/>
-      <c r="CI16" s="27"/>
-      <c r="CJ16" s="27"/>
-      <c r="CK16" s="27"/>
-      <c r="CL16" s="27"/>
-      <c r="CM16" s="27"/>
-      <c r="CN16" s="27"/>
-      <c r="CO16" s="27"/>
-      <c r="CP16" s="27"/>
-      <c r="CQ16" s="27"/>
-      <c r="CR16" s="27"/>
-      <c r="CS16" s="27"/>
-      <c r="CT16" s="27"/>
-      <c r="CU16" s="27"/>
-      <c r="CV16" s="27"/>
-      <c r="CW16" s="27"/>
-      <c r="CX16" s="27"/>
-      <c r="CY16" s="27"/>
-      <c r="CZ16" s="27"/>
-      <c r="DA16" s="27"/>
-      <c r="DB16" s="27"/>
-      <c r="DC16" s="27"/>
-      <c r="DD16" s="27"/>
-      <c r="DE16" s="27"/>
-      <c r="DF16" s="27"/>
-      <c r="DG16" s="27"/>
-      <c r="DH16" s="27"/>
-      <c r="DI16" s="27"/>
-      <c r="DJ16" s="27"/>
-      <c r="DK16" s="27"/>
-      <c r="DL16" s="27"/>
-      <c r="DM16" s="27"/>
-      <c r="DN16" s="27"/>
-      <c r="DO16" s="27"/>
-      <c r="DP16" s="27"/>
-      <c r="DQ16" s="27"/>
-      <c r="DR16" s="27"/>
-      <c r="DS16" s="27"/>
-      <c r="DT16" s="27"/>
-      <c r="DU16" s="27"/>
-      <c r="DV16" s="27"/>
-      <c r="DW16" s="27"/>
-      <c r="DX16" s="27"/>
-      <c r="DY16" s="27"/>
-      <c r="DZ16" s="27"/>
-      <c r="EA16" s="27"/>
-      <c r="EB16" s="27"/>
-      <c r="EC16" s="27"/>
-      <c r="ED16" s="27"/>
-      <c r="EE16" s="27"/>
-      <c r="EF16" s="27"/>
-      <c r="EG16" s="27"/>
-      <c r="EH16" s="27"/>
-      <c r="EI16" s="27"/>
-      <c r="EJ16" s="27"/>
-      <c r="EK16" s="27"/>
-      <c r="EL16" s="27"/>
-      <c r="EM16" s="27"/>
-      <c r="EN16" s="27"/>
-      <c r="EO16" s="27"/>
-      <c r="EP16" s="27"/>
-      <c r="EQ16" s="27"/>
-      <c r="ER16" s="27"/>
-      <c r="ES16" s="27"/>
-      <c r="ET16" s="27"/>
-      <c r="EU16" s="27"/>
-      <c r="EV16" s="27"/>
-      <c r="EW16" s="27"/>
-      <c r="EX16" s="27"/>
-      <c r="EY16" s="27"/>
-      <c r="EZ16" s="27"/>
-      <c r="FA16" s="27"/>
-      <c r="FB16" s="27"/>
-      <c r="FC16" s="27"/>
-      <c r="FD16" s="27"/>
-      <c r="FE16" s="27"/>
-      <c r="FF16" s="27"/>
-      <c r="FG16" s="27"/>
-      <c r="FH16" s="27"/>
-      <c r="FI16" s="27"/>
-      <c r="FJ16" s="27"/>
-      <c r="FK16" s="27"/>
-      <c r="FL16" s="27"/>
-      <c r="FM16" s="27"/>
-      <c r="FN16" s="27"/>
-      <c r="FO16" s="27"/>
-      <c r="FP16" s="27"/>
-      <c r="FQ16" s="27"/>
-      <c r="FR16" s="27"/>
-      <c r="FS16" s="27"/>
-      <c r="FT16" s="27"/>
-      <c r="FU16" s="27"/>
-      <c r="FV16" s="27"/>
-      <c r="FW16" s="27"/>
-      <c r="FX16" s="27"/>
-      <c r="FY16" s="27"/>
-      <c r="FZ16" s="27"/>
-      <c r="GA16" s="27"/>
-      <c r="GB16" s="27"/>
-      <c r="GC16" s="27"/>
-      <c r="GD16" s="27"/>
-      <c r="GE16" s="27"/>
-      <c r="GF16" s="27"/>
-      <c r="GG16" s="27"/>
-      <c r="GH16" s="27"/>
-      <c r="GI16" s="27"/>
-      <c r="GJ16" s="27"/>
-      <c r="GK16" s="27"/>
-      <c r="GL16" s="27"/>
-      <c r="GM16" s="27"/>
-      <c r="GN16" s="27"/>
-      <c r="GO16" s="27"/>
-      <c r="GP16" s="27"/>
-      <c r="GQ16" s="27"/>
-      <c r="GR16" s="27"/>
-      <c r="GS16" s="27"/>
-      <c r="GT16" s="27"/>
-      <c r="GU16" s="27"/>
-      <c r="GV16" s="27"/>
-      <c r="GW16" s="27"/>
-      <c r="GX16" s="27"/>
-      <c r="GY16" s="27"/>
-      <c r="GZ16" s="27"/>
-      <c r="HA16" s="27"/>
-      <c r="HB16" s="27"/>
-      <c r="HC16" s="27"/>
-      <c r="HD16" s="27"/>
-      <c r="HE16" s="27"/>
-      <c r="HF16" s="27"/>
-      <c r="HG16" s="27"/>
-      <c r="HH16" s="27"/>
+      <c r="AV16" s="21"/>
+      <c r="AW16" s="21"/>
+      <c r="AX16" s="21"/>
+      <c r="AY16" s="21"/>
+      <c r="AZ16" s="21"/>
+      <c r="BA16" s="21"/>
+      <c r="BB16" s="21"/>
+      <c r="BC16" s="21"/>
+      <c r="BD16" s="21"/>
+      <c r="BE16" s="21"/>
+      <c r="BF16" s="21"/>
+      <c r="BG16" s="21"/>
+      <c r="BH16" s="21"/>
+      <c r="BI16" s="21"/>
+      <c r="BJ16" s="21"/>
+      <c r="BK16" s="21"/>
+      <c r="BL16" s="21"/>
+      <c r="BM16" s="21"/>
+      <c r="BN16" s="21"/>
+      <c r="BO16" s="21"/>
+      <c r="BP16" s="21"/>
+      <c r="BQ16" s="21"/>
+      <c r="BR16" s="21"/>
+      <c r="BS16" s="21"/>
+      <c r="BT16" s="21"/>
+      <c r="BU16" s="21"/>
+      <c r="BV16" s="21"/>
+      <c r="BW16" s="21"/>
+      <c r="BX16" s="21"/>
+      <c r="BY16" s="21"/>
+      <c r="BZ16" s="21"/>
+      <c r="CA16" s="21"/>
+      <c r="CB16" s="21"/>
+      <c r="CC16" s="21"/>
+      <c r="CD16" s="21"/>
+      <c r="CE16" s="21"/>
+      <c r="CF16" s="21"/>
+      <c r="CG16" s="21"/>
+      <c r="CH16" s="21"/>
+      <c r="CI16" s="21"/>
+      <c r="CJ16" s="21"/>
+      <c r="CK16" s="21"/>
+      <c r="CL16" s="21"/>
+      <c r="CM16" s="21"/>
+      <c r="CN16" s="21"/>
+      <c r="CO16" s="21"/>
+      <c r="CP16" s="21"/>
+      <c r="CQ16" s="21"/>
+      <c r="CR16" s="21"/>
+      <c r="CS16" s="21"/>
+      <c r="CT16" s="21"/>
+      <c r="CU16" s="21"/>
+      <c r="CV16" s="21"/>
+      <c r="CW16" s="21"/>
+      <c r="CX16" s="21"/>
+      <c r="CY16" s="21"/>
+      <c r="CZ16" s="21"/>
+      <c r="DA16" s="21"/>
+      <c r="DB16" s="21"/>
+      <c r="DC16" s="21"/>
+      <c r="DD16" s="21"/>
+      <c r="DE16" s="21"/>
+      <c r="DF16" s="21"/>
+      <c r="DG16" s="21"/>
+      <c r="DH16" s="21"/>
+      <c r="DI16" s="21"/>
+      <c r="DJ16" s="21"/>
+      <c r="DK16" s="21"/>
+      <c r="DL16" s="21"/>
+      <c r="DM16" s="21"/>
+      <c r="DN16" s="21"/>
+      <c r="DO16" s="21"/>
+      <c r="DP16" s="21"/>
+      <c r="DQ16" s="21"/>
+      <c r="DR16" s="21"/>
+      <c r="DS16" s="21"/>
+      <c r="DT16" s="21"/>
+      <c r="DU16" s="21"/>
+      <c r="DV16" s="21"/>
+      <c r="DW16" s="21"/>
+      <c r="DX16" s="21"/>
+      <c r="DY16" s="21"/>
+      <c r="DZ16" s="21"/>
+      <c r="EA16" s="21"/>
+      <c r="EB16" s="21"/>
+      <c r="EC16" s="21"/>
+      <c r="ED16" s="21"/>
+      <c r="EE16" s="21"/>
+      <c r="EF16" s="21"/>
+      <c r="EG16" s="21"/>
+      <c r="EH16" s="21"/>
+      <c r="EI16" s="21"/>
+      <c r="EJ16" s="21"/>
+      <c r="EK16" s="21"/>
+      <c r="EL16" s="21"/>
+      <c r="EM16" s="21"/>
+      <c r="EN16" s="21"/>
+      <c r="EO16" s="21"/>
+      <c r="EP16" s="21"/>
+      <c r="EQ16" s="21"/>
+      <c r="ER16" s="21"/>
+      <c r="ES16" s="21"/>
+      <c r="ET16" s="21"/>
+      <c r="EU16" s="21"/>
+      <c r="EV16" s="21"/>
+      <c r="EW16" s="21"/>
+      <c r="EX16" s="21"/>
+      <c r="EY16" s="21"/>
+      <c r="EZ16" s="21"/>
+      <c r="FA16" s="21"/>
+      <c r="FB16" s="21"/>
+      <c r="FC16" s="21"/>
+      <c r="FD16" s="21"/>
+      <c r="FE16" s="21"/>
+      <c r="FF16" s="21"/>
+      <c r="FG16" s="21"/>
+      <c r="FH16" s="21"/>
+      <c r="FI16" s="21"/>
+      <c r="FJ16" s="21"/>
+      <c r="FK16" s="21"/>
+      <c r="FL16" s="21"/>
+      <c r="FM16" s="21"/>
+      <c r="FN16" s="21"/>
+      <c r="FO16" s="21"/>
+      <c r="FP16" s="21"/>
+      <c r="FQ16" s="21"/>
+      <c r="FR16" s="21"/>
+      <c r="FS16" s="21"/>
+      <c r="FT16" s="21"/>
+      <c r="FU16" s="21"/>
+      <c r="FV16" s="21"/>
+      <c r="FW16" s="21"/>
+      <c r="FX16" s="21"/>
+      <c r="FY16" s="21"/>
+      <c r="FZ16" s="21"/>
+      <c r="GA16" s="21"/>
+      <c r="GB16" s="21"/>
+      <c r="GC16" s="21"/>
+      <c r="GD16" s="21"/>
+      <c r="GE16" s="21"/>
+      <c r="GF16" s="21"/>
+      <c r="GG16" s="21"/>
+      <c r="GH16" s="21"/>
+      <c r="GI16" s="21"/>
+      <c r="GJ16" s="21"/>
+      <c r="GK16" s="21"/>
+      <c r="GL16" s="21"/>
+      <c r="GM16" s="21"/>
+      <c r="GN16" s="21"/>
+      <c r="GO16" s="21"/>
+      <c r="GP16" s="21"/>
+      <c r="GQ16" s="21"/>
+      <c r="GR16" s="21"/>
+      <c r="GS16" s="21"/>
+      <c r="GT16" s="21"/>
+      <c r="GU16" s="21"/>
+      <c r="GV16" s="21"/>
+      <c r="GW16" s="21"/>
+      <c r="GX16" s="21"/>
+      <c r="GY16" s="21"/>
+      <c r="GZ16" s="21"/>
+      <c r="HA16" s="21"/>
+      <c r="HB16" s="21"/>
+      <c r="HC16" s="21"/>
+      <c r="HD16" s="21"/>
+      <c r="HE16" s="21"/>
+      <c r="HF16" s="21"/>
+      <c r="HG16" s="21"/>
+      <c r="HH16" s="21"/>
     </row>
-    <row r="17" spans="1:219" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
+    <row r="17" spans="1:219" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="21">
         <v>2.2373570127420053E-2</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27">
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21">
         <v>7.7764189672404588E-2</v>
       </c>
-      <c r="H17" s="27">
+      <c r="H17" s="21">
         <v>2.0388003269557899E-2</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I17" s="21">
         <v>0.1088268721999975</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="21">
         <v>1.796137419948917E-2</v>
       </c>
-      <c r="K17" s="27">
+      <c r="K17" s="21">
         <v>1.3529694465179156E-2</v>
       </c>
-      <c r="L17" s="27">
+      <c r="L17" s="21">
         <v>2.7924268958900551E-2</v>
       </c>
-      <c r="M17" s="27"/>
-      <c r="N17" s="27">
+      <c r="M17" s="21"/>
+      <c r="N17" s="21">
         <v>1.9169536680593589E-2</v>
       </c>
-      <c r="O17" s="27">
+      <c r="O17" s="21">
         <v>5.9397134509632361E-2</v>
       </c>
-      <c r="P17" s="27">
+      <c r="P17" s="21">
         <v>1.3740411977976834E-2</v>
       </c>
-      <c r="Q17" s="27">
+      <c r="Q17" s="21">
         <v>1.8060759133442836E-2</v>
       </c>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27">
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21">
         <v>3.1346856298397348E-2</v>
       </c>
-      <c r="U17" s="27">
+      <c r="U17" s="21">
         <v>2.4460338252502368E-2</v>
       </c>
-      <c r="V17" s="27">
+      <c r="V17" s="21">
         <v>2.7553848552166874E-2</v>
       </c>
-      <c r="W17" s="27"/>
-      <c r="X17" s="27">
+      <c r="W17" s="21"/>
+      <c r="X17" s="21">
         <v>6.0514329895119651E-2</v>
       </c>
-      <c r="Y17" s="27"/>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="27">
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21">
         <v>2.4408252463491105E-2</v>
       </c>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27"/>
-      <c r="AD17" s="27"/>
-      <c r="AE17" s="27">
+      <c r="AB17" s="21"/>
+      <c r="AC17" s="21"/>
+      <c r="AD17" s="21"/>
+      <c r="AE17" s="21">
         <v>7.3415794795686412E-2</v>
       </c>
-      <c r="AF17" s="27"/>
-      <c r="AG17" s="27"/>
-      <c r="AH17" s="27">
+      <c r="AF17" s="21"/>
+      <c r="AG17" s="21"/>
+      <c r="AH17" s="21">
         <v>1.724618580105924E-2</v>
       </c>
-      <c r="AI17" s="27">
+      <c r="AI17" s="21">
         <v>2.7771271577550841E-2</v>
       </c>
-      <c r="AJ17" s="27">
+      <c r="AJ17" s="21">
         <v>2.1834776186083107E-2</v>
       </c>
-      <c r="AK17" s="27"/>
-      <c r="AL17" s="27">
+      <c r="AK17" s="21"/>
+      <c r="AL17" s="21">
         <v>1.5707045027513938E-2</v>
       </c>
-      <c r="AM17" s="27"/>
-      <c r="AN17" s="27">
+      <c r="AM17" s="21"/>
+      <c r="AN17" s="21">
         <v>1.8225473993123416E-2</v>
       </c>
-      <c r="AO17" s="27">
+      <c r="AO17" s="21">
         <v>1.9890933354199589E-2</v>
       </c>
-      <c r="AP17" s="27"/>
-      <c r="AQ17" s="27"/>
-      <c r="AR17" s="27"/>
-      <c r="AS17" s="27">
+      <c r="AP17" s="21"/>
+      <c r="AQ17" s="21"/>
+      <c r="AR17" s="21"/>
+      <c r="AS17" s="21">
         <v>1.4865476985277007E-2</v>
       </c>
-      <c r="AT17" s="27">
+      <c r="AT17" s="21">
         <v>2.3036937834089145E-2</v>
       </c>
-      <c r="AU17" s="27">
+      <c r="AU17" s="21">
         <f t="shared" si="0"/>
         <v>0.79941333621085442</v>
       </c>
-      <c r="AV17" s="27"/>
-      <c r="AW17" s="27"/>
-      <c r="AX17" s="27"/>
-      <c r="AY17" s="27"/>
-      <c r="AZ17" s="27"/>
-      <c r="BA17" s="27"/>
-      <c r="BB17" s="27"/>
-      <c r="BC17" s="27"/>
-      <c r="BD17" s="27"/>
-      <c r="BE17" s="27"/>
-      <c r="BF17" s="27"/>
-      <c r="BG17" s="27"/>
-      <c r="BH17" s="27"/>
-      <c r="BI17" s="27"/>
-      <c r="BJ17" s="27"/>
-      <c r="BK17" s="27"/>
-      <c r="BL17" s="27"/>
-      <c r="BM17" s="27"/>
-      <c r="BN17" s="27"/>
-      <c r="BO17" s="27"/>
-      <c r="BP17" s="27"/>
-      <c r="BQ17" s="27"/>
-      <c r="BR17" s="27"/>
-      <c r="BS17" s="27"/>
-      <c r="BT17" s="27"/>
-      <c r="BU17" s="27"/>
-      <c r="BV17" s="27"/>
-      <c r="BW17" s="27"/>
-      <c r="BX17" s="27"/>
-      <c r="BY17" s="27"/>
-      <c r="BZ17" s="27"/>
-      <c r="CA17" s="27"/>
-      <c r="CB17" s="27"/>
-      <c r="CC17" s="27"/>
-      <c r="CD17" s="27"/>
-      <c r="CE17" s="27"/>
-      <c r="CF17" s="27"/>
-      <c r="CG17" s="27"/>
-      <c r="CH17" s="27"/>
-      <c r="CI17" s="27"/>
-      <c r="CJ17" s="27"/>
-      <c r="CK17" s="27"/>
-      <c r="CL17" s="27"/>
-      <c r="CM17" s="27"/>
-      <c r="CN17" s="27"/>
-      <c r="CO17" s="27"/>
-      <c r="CP17" s="27"/>
-      <c r="CQ17" s="27"/>
-      <c r="CR17" s="27"/>
-      <c r="CS17" s="27"/>
-      <c r="CT17" s="27"/>
-      <c r="CU17" s="27"/>
-      <c r="CV17" s="27"/>
-      <c r="CW17" s="27"/>
-      <c r="CX17" s="27"/>
-      <c r="CY17" s="27"/>
-      <c r="CZ17" s="27"/>
-      <c r="DA17" s="27"/>
-      <c r="DB17" s="27"/>
-      <c r="DC17" s="27"/>
-      <c r="DD17" s="27"/>
-      <c r="DE17" s="27"/>
-      <c r="DF17" s="27"/>
-      <c r="DG17" s="27"/>
-      <c r="DH17" s="27"/>
-      <c r="DI17" s="27"/>
-      <c r="DJ17" s="27"/>
-      <c r="DK17" s="27"/>
-      <c r="DL17" s="27"/>
-      <c r="DM17" s="27"/>
-      <c r="DN17" s="27"/>
-      <c r="DO17" s="27"/>
-      <c r="DP17" s="27"/>
-      <c r="DQ17" s="27"/>
-      <c r="DR17" s="27"/>
-      <c r="DS17" s="27"/>
-      <c r="DT17" s="27"/>
-      <c r="DU17" s="27"/>
-      <c r="DV17" s="27"/>
-      <c r="DW17" s="27"/>
-      <c r="DX17" s="27"/>
-      <c r="DY17" s="27"/>
-      <c r="DZ17" s="27"/>
-      <c r="EA17" s="27"/>
-      <c r="EB17" s="27"/>
-      <c r="EC17" s="27"/>
-      <c r="ED17" s="27"/>
-      <c r="EE17" s="27"/>
-      <c r="EF17" s="27"/>
-      <c r="EG17" s="27"/>
-      <c r="EH17" s="27"/>
-      <c r="EI17" s="27"/>
-      <c r="EJ17" s="27"/>
-      <c r="EK17" s="27"/>
-      <c r="EL17" s="27"/>
-      <c r="EM17" s="27"/>
-      <c r="EN17" s="27"/>
-      <c r="EO17" s="27"/>
-      <c r="EP17" s="27"/>
-      <c r="EQ17" s="27"/>
-      <c r="ER17" s="27"/>
-      <c r="ES17" s="27"/>
-      <c r="ET17" s="27"/>
-      <c r="EU17" s="27"/>
-      <c r="EV17" s="27"/>
-      <c r="EW17" s="27"/>
-      <c r="EX17" s="27"/>
-      <c r="EY17" s="27"/>
-      <c r="EZ17" s="27"/>
-      <c r="FA17" s="27"/>
-      <c r="FB17" s="27"/>
-      <c r="FC17" s="27"/>
-      <c r="FD17" s="27"/>
-      <c r="FE17" s="27"/>
-      <c r="FF17" s="27"/>
-      <c r="FG17" s="27"/>
-      <c r="FH17" s="27"/>
-      <c r="FI17" s="27"/>
-      <c r="FJ17" s="27"/>
-      <c r="FK17" s="27"/>
-      <c r="FL17" s="27"/>
-      <c r="FM17" s="27"/>
-      <c r="FN17" s="27"/>
-      <c r="FO17" s="27"/>
-      <c r="FP17" s="27"/>
-      <c r="FQ17" s="27"/>
-      <c r="FR17" s="27"/>
-      <c r="FS17" s="27"/>
-      <c r="FT17" s="27"/>
-      <c r="FU17" s="27"/>
-      <c r="FV17" s="27"/>
-      <c r="FW17" s="27"/>
-      <c r="FX17" s="27"/>
-      <c r="FY17" s="27"/>
-      <c r="FZ17" s="27"/>
-      <c r="GA17" s="27"/>
-      <c r="GB17" s="27"/>
-      <c r="GC17" s="27"/>
-      <c r="GD17" s="27"/>
-      <c r="GE17" s="27"/>
-      <c r="GF17" s="27"/>
-      <c r="GG17" s="27"/>
-      <c r="GH17" s="27"/>
-      <c r="GI17" s="27"/>
-      <c r="GJ17" s="27"/>
-      <c r="GK17" s="27"/>
-      <c r="GL17" s="27"/>
-      <c r="GM17" s="27"/>
-      <c r="GN17" s="27"/>
-      <c r="GO17" s="27"/>
-      <c r="GP17" s="27"/>
-      <c r="GQ17" s="27"/>
-      <c r="GR17" s="27"/>
-      <c r="GS17" s="27"/>
-      <c r="GT17" s="27"/>
-      <c r="GU17" s="27"/>
-      <c r="GV17" s="27"/>
-      <c r="GW17" s="27"/>
-      <c r="GX17" s="27"/>
-      <c r="GY17" s="27"/>
-      <c r="GZ17" s="27"/>
-      <c r="HA17" s="27"/>
-      <c r="HB17" s="27"/>
-      <c r="HC17" s="27"/>
-      <c r="HD17" s="27"/>
-      <c r="HE17" s="27"/>
-      <c r="HF17" s="27"/>
-      <c r="HG17" s="27"/>
-      <c r="HH17" s="27"/>
+      <c r="AV17" s="21"/>
+      <c r="AW17" s="21"/>
+      <c r="AX17" s="21"/>
+      <c r="AY17" s="21"/>
+      <c r="AZ17" s="21"/>
+      <c r="BA17" s="21"/>
+      <c r="BB17" s="21"/>
+      <c r="BC17" s="21"/>
+      <c r="BD17" s="21"/>
+      <c r="BE17" s="21"/>
+      <c r="BF17" s="21"/>
+      <c r="BG17" s="21"/>
+      <c r="BH17" s="21"/>
+      <c r="BI17" s="21"/>
+      <c r="BJ17" s="21"/>
+      <c r="BK17" s="21"/>
+      <c r="BL17" s="21"/>
+      <c r="BM17" s="21"/>
+      <c r="BN17" s="21"/>
+      <c r="BO17" s="21"/>
+      <c r="BP17" s="21"/>
+      <c r="BQ17" s="21"/>
+      <c r="BR17" s="21"/>
+      <c r="BS17" s="21"/>
+      <c r="BT17" s="21"/>
+      <c r="BU17" s="21"/>
+      <c r="BV17" s="21"/>
+      <c r="BW17" s="21"/>
+      <c r="BX17" s="21"/>
+      <c r="BY17" s="21"/>
+      <c r="BZ17" s="21"/>
+      <c r="CA17" s="21"/>
+      <c r="CB17" s="21"/>
+      <c r="CC17" s="21"/>
+      <c r="CD17" s="21"/>
+      <c r="CE17" s="21"/>
+      <c r="CF17" s="21"/>
+      <c r="CG17" s="21"/>
+      <c r="CH17" s="21"/>
+      <c r="CI17" s="21"/>
+      <c r="CJ17" s="21"/>
+      <c r="CK17" s="21"/>
+      <c r="CL17" s="21"/>
+      <c r="CM17" s="21"/>
+      <c r="CN17" s="21"/>
+      <c r="CO17" s="21"/>
+      <c r="CP17" s="21"/>
+      <c r="CQ17" s="21"/>
+      <c r="CR17" s="21"/>
+      <c r="CS17" s="21"/>
+      <c r="CT17" s="21"/>
+      <c r="CU17" s="21"/>
+      <c r="CV17" s="21"/>
+      <c r="CW17" s="21"/>
+      <c r="CX17" s="21"/>
+      <c r="CY17" s="21"/>
+      <c r="CZ17" s="21"/>
+      <c r="DA17" s="21"/>
+      <c r="DB17" s="21"/>
+      <c r="DC17" s="21"/>
+      <c r="DD17" s="21"/>
+      <c r="DE17" s="21"/>
+      <c r="DF17" s="21"/>
+      <c r="DG17" s="21"/>
+      <c r="DH17" s="21"/>
+      <c r="DI17" s="21"/>
+      <c r="DJ17" s="21"/>
+      <c r="DK17" s="21"/>
+      <c r="DL17" s="21"/>
+      <c r="DM17" s="21"/>
+      <c r="DN17" s="21"/>
+      <c r="DO17" s="21"/>
+      <c r="DP17" s="21"/>
+      <c r="DQ17" s="21"/>
+      <c r="DR17" s="21"/>
+      <c r="DS17" s="21"/>
+      <c r="DT17" s="21"/>
+      <c r="DU17" s="21"/>
+      <c r="DV17" s="21"/>
+      <c r="DW17" s="21"/>
+      <c r="DX17" s="21"/>
+      <c r="DY17" s="21"/>
+      <c r="DZ17" s="21"/>
+      <c r="EA17" s="21"/>
+      <c r="EB17" s="21"/>
+      <c r="EC17" s="21"/>
+      <c r="ED17" s="21"/>
+      <c r="EE17" s="21"/>
+      <c r="EF17" s="21"/>
+      <c r="EG17" s="21"/>
+      <c r="EH17" s="21"/>
+      <c r="EI17" s="21"/>
+      <c r="EJ17" s="21"/>
+      <c r="EK17" s="21"/>
+      <c r="EL17" s="21"/>
+      <c r="EM17" s="21"/>
+      <c r="EN17" s="21"/>
+      <c r="EO17" s="21"/>
+      <c r="EP17" s="21"/>
+      <c r="EQ17" s="21"/>
+      <c r="ER17" s="21"/>
+      <c r="ES17" s="21"/>
+      <c r="ET17" s="21"/>
+      <c r="EU17" s="21"/>
+      <c r="EV17" s="21"/>
+      <c r="EW17" s="21"/>
+      <c r="EX17" s="21"/>
+      <c r="EY17" s="21"/>
+      <c r="EZ17" s="21"/>
+      <c r="FA17" s="21"/>
+      <c r="FB17" s="21"/>
+      <c r="FC17" s="21"/>
+      <c r="FD17" s="21"/>
+      <c r="FE17" s="21"/>
+      <c r="FF17" s="21"/>
+      <c r="FG17" s="21"/>
+      <c r="FH17" s="21"/>
+      <c r="FI17" s="21"/>
+      <c r="FJ17" s="21"/>
+      <c r="FK17" s="21"/>
+      <c r="FL17" s="21"/>
+      <c r="FM17" s="21"/>
+      <c r="FN17" s="21"/>
+      <c r="FO17" s="21"/>
+      <c r="FP17" s="21"/>
+      <c r="FQ17" s="21"/>
+      <c r="FR17" s="21"/>
+      <c r="FS17" s="21"/>
+      <c r="FT17" s="21"/>
+      <c r="FU17" s="21"/>
+      <c r="FV17" s="21"/>
+      <c r="FW17" s="21"/>
+      <c r="FX17" s="21"/>
+      <c r="FY17" s="21"/>
+      <c r="FZ17" s="21"/>
+      <c r="GA17" s="21"/>
+      <c r="GB17" s="21"/>
+      <c r="GC17" s="21"/>
+      <c r="GD17" s="21"/>
+      <c r="GE17" s="21"/>
+      <c r="GF17" s="21"/>
+      <c r="GG17" s="21"/>
+      <c r="GH17" s="21"/>
+      <c r="GI17" s="21"/>
+      <c r="GJ17" s="21"/>
+      <c r="GK17" s="21"/>
+      <c r="GL17" s="21"/>
+      <c r="GM17" s="21"/>
+      <c r="GN17" s="21"/>
+      <c r="GO17" s="21"/>
+      <c r="GP17" s="21"/>
+      <c r="GQ17" s="21"/>
+      <c r="GR17" s="21"/>
+      <c r="GS17" s="21"/>
+      <c r="GT17" s="21"/>
+      <c r="GU17" s="21"/>
+      <c r="GV17" s="21"/>
+      <c r="GW17" s="21"/>
+      <c r="GX17" s="21"/>
+      <c r="GY17" s="21"/>
+      <c r="GZ17" s="21"/>
+      <c r="HA17" s="21"/>
+      <c r="HB17" s="21"/>
+      <c r="HC17" s="21"/>
+      <c r="HD17" s="21"/>
+      <c r="HE17" s="21"/>
+      <c r="HF17" s="21"/>
+      <c r="HG17" s="21"/>
+      <c r="HH17" s="21"/>
     </row>
-    <row r="18" spans="1:219" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+    <row r="18" spans="1:219" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="21">
         <v>2.056625102383915E-2</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27">
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21">
         <v>0.1003001669171386</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="21">
         <v>2.5775141053791702E-2</v>
       </c>
-      <c r="I18" s="27">
+      <c r="I18" s="21">
         <v>0.13385564700705044</v>
       </c>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27">
+      <c r="J18" s="21"/>
+      <c r="K18" s="21">
         <v>1.5808061523513033E-2</v>
       </c>
-      <c r="L18" s="27">
+      <c r="L18" s="21">
         <v>1.6917419644381392E-2</v>
       </c>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27">
+      <c r="M18" s="21"/>
+      <c r="N18" s="21">
         <v>2.8186898059717896E-2</v>
       </c>
-      <c r="O18" s="27">
+      <c r="O18" s="21">
         <v>6.3408523648290679E-2</v>
       </c>
-      <c r="P18" s="27">
+      <c r="P18" s="21">
         <v>2.3645967192312229E-2</v>
       </c>
-      <c r="Q18" s="27">
+      <c r="Q18" s="21">
         <v>1.492278217861751E-2</v>
       </c>
-      <c r="R18" s="27">
+      <c r="R18" s="21">
         <v>1.5515317239903599E-2</v>
       </c>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27">
+      <c r="S18" s="21"/>
+      <c r="T18" s="21">
         <v>3.4421497153419113E-2</v>
       </c>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27">
+      <c r="U18" s="21"/>
+      <c r="V18" s="21">
         <v>2.1906536388605839E-2</v>
       </c>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27">
+      <c r="W18" s="21"/>
+      <c r="X18" s="21">
         <v>4.3507923914029113E-2</v>
       </c>
-      <c r="Y18" s="27"/>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="27">
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21">
         <v>1.5720780371172246E-2</v>
       </c>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="27"/>
-      <c r="AD18" s="27"/>
-      <c r="AE18" s="27">
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="21"/>
+      <c r="AD18" s="21"/>
+      <c r="AE18" s="21">
         <v>5.925684907239008E-2</v>
       </c>
-      <c r="AF18" s="27"/>
-      <c r="AG18" s="27"/>
-      <c r="AH18" s="27">
+      <c r="AF18" s="21"/>
+      <c r="AG18" s="21"/>
+      <c r="AH18" s="21">
         <v>2.7302787844979411E-2</v>
       </c>
-      <c r="AI18" s="27">
+      <c r="AI18" s="21">
         <v>2.0548178557019865E-2</v>
       </c>
-      <c r="AJ18" s="27">
+      <c r="AJ18" s="21">
         <v>1.848956233788538E-2</v>
       </c>
-      <c r="AK18" s="27"/>
-      <c r="AL18" s="27">
+      <c r="AK18" s="21"/>
+      <c r="AL18" s="21">
         <v>1.4448936093642227E-2</v>
       </c>
-      <c r="AM18" s="27"/>
-      <c r="AN18" s="27">
+      <c r="AM18" s="21"/>
+      <c r="AN18" s="21">
         <v>1.8465646201408725E-2</v>
       </c>
-      <c r="AO18" s="27">
+      <c r="AO18" s="21">
         <v>1.6533712607986681E-2</v>
       </c>
-      <c r="AP18" s="27">
+      <c r="AP18" s="21">
         <v>1.3058699739941892E-2</v>
       </c>
-      <c r="AQ18" s="27"/>
-      <c r="AR18" s="27">
+      <c r="AQ18" s="21"/>
+      <c r="AR18" s="21">
         <v>1.2739730165057734E-2</v>
       </c>
-      <c r="AS18" s="27">
+      <c r="AS18" s="21">
         <v>2.7367867914255654E-2</v>
       </c>
-      <c r="AT18" s="27"/>
-      <c r="AU18" s="27">
+      <c r="AT18" s="21"/>
+      <c r="AU18" s="21">
         <f t="shared" si="0"/>
         <v>0.80267088385035001</v>
       </c>
-      <c r="AV18" s="27"/>
-      <c r="AW18" s="27"/>
-      <c r="AX18" s="27"/>
-      <c r="AY18" s="27"/>
-      <c r="AZ18" s="27"/>
-      <c r="BA18" s="27"/>
-      <c r="BB18" s="27"/>
-      <c r="BC18" s="27"/>
-      <c r="BD18" s="27"/>
-      <c r="BE18" s="27"/>
-      <c r="BF18" s="27"/>
-      <c r="BG18" s="27"/>
-      <c r="BH18" s="27"/>
-      <c r="BI18" s="27"/>
-      <c r="BJ18" s="27"/>
-      <c r="BK18" s="27"/>
-      <c r="BL18" s="27"/>
-      <c r="BM18" s="27"/>
-      <c r="BN18" s="27"/>
-      <c r="BO18" s="27"/>
-      <c r="BP18" s="27"/>
-      <c r="BQ18" s="27"/>
-      <c r="BR18" s="27"/>
-      <c r="BS18" s="27"/>
-      <c r="BT18" s="27"/>
-      <c r="BU18" s="27"/>
-      <c r="BV18" s="27"/>
-      <c r="BW18" s="27"/>
-      <c r="BX18" s="27"/>
-      <c r="BY18" s="27"/>
-      <c r="BZ18" s="27"/>
-      <c r="CA18" s="27"/>
-      <c r="CB18" s="27"/>
-      <c r="CC18" s="27"/>
-      <c r="CD18" s="27"/>
-      <c r="CE18" s="27"/>
-      <c r="CF18" s="27"/>
-      <c r="CG18" s="27"/>
-      <c r="CH18" s="27"/>
-      <c r="CI18" s="27"/>
-      <c r="CJ18" s="27"/>
-      <c r="CK18" s="27"/>
-      <c r="CL18" s="27"/>
-      <c r="CM18" s="27"/>
-      <c r="CN18" s="27"/>
-      <c r="CO18" s="27"/>
-      <c r="CP18" s="27"/>
-      <c r="CQ18" s="27"/>
-      <c r="CR18" s="27"/>
-      <c r="CS18" s="27"/>
-      <c r="CT18" s="27"/>
-      <c r="CU18" s="27"/>
-      <c r="CV18" s="27"/>
-      <c r="CW18" s="27"/>
-      <c r="CX18" s="27"/>
-      <c r="CY18" s="27"/>
-      <c r="CZ18" s="27"/>
-      <c r="DA18" s="27"/>
-      <c r="DB18" s="27"/>
-      <c r="DC18" s="27"/>
-      <c r="DD18" s="27"/>
-      <c r="DE18" s="27"/>
-      <c r="DF18" s="27"/>
-      <c r="DG18" s="27"/>
-      <c r="DH18" s="27"/>
-      <c r="DI18" s="27"/>
-      <c r="DJ18" s="27"/>
-      <c r="DK18" s="27"/>
-      <c r="DL18" s="27"/>
-      <c r="DM18" s="27"/>
-      <c r="DN18" s="27"/>
-      <c r="DO18" s="27"/>
-      <c r="DP18" s="27"/>
-      <c r="DQ18" s="27"/>
-      <c r="DR18" s="27"/>
-      <c r="DS18" s="27"/>
-      <c r="DT18" s="27"/>
-      <c r="DU18" s="27"/>
-      <c r="DV18" s="27"/>
-      <c r="DW18" s="27"/>
-      <c r="DX18" s="27"/>
-      <c r="DY18" s="27"/>
-      <c r="DZ18" s="27"/>
-      <c r="EA18" s="27"/>
-      <c r="EB18" s="27"/>
-      <c r="EC18" s="27"/>
-      <c r="ED18" s="27"/>
-      <c r="EE18" s="27"/>
-      <c r="EF18" s="27"/>
-      <c r="EG18" s="27"/>
-      <c r="EH18" s="27"/>
-      <c r="EI18" s="27"/>
-      <c r="EJ18" s="27"/>
-      <c r="EK18" s="27"/>
-      <c r="EL18" s="27"/>
-      <c r="EM18" s="27"/>
-      <c r="EN18" s="27"/>
-      <c r="EO18" s="27"/>
-      <c r="EP18" s="27"/>
-      <c r="EQ18" s="27"/>
-      <c r="ER18" s="27"/>
-      <c r="ES18" s="27"/>
-      <c r="ET18" s="27"/>
-      <c r="EU18" s="27"/>
-      <c r="EV18" s="27"/>
-      <c r="EW18" s="27"/>
-      <c r="EX18" s="27"/>
-      <c r="EY18" s="27"/>
-      <c r="EZ18" s="27"/>
-      <c r="FA18" s="27"/>
-      <c r="FB18" s="27"/>
-      <c r="FC18" s="27"/>
-      <c r="FD18" s="27"/>
-      <c r="FE18" s="27"/>
-      <c r="FF18" s="27"/>
-      <c r="FG18" s="27"/>
-      <c r="FH18" s="27"/>
-      <c r="FI18" s="27"/>
-      <c r="FJ18" s="27"/>
-      <c r="FK18" s="27"/>
-      <c r="FL18" s="27"/>
-      <c r="FM18" s="27"/>
-      <c r="FN18" s="27"/>
-      <c r="FO18" s="27"/>
-      <c r="FP18" s="27"/>
-      <c r="FQ18" s="27"/>
-      <c r="FR18" s="27"/>
-      <c r="FS18" s="27"/>
-      <c r="FT18" s="27"/>
-      <c r="FU18" s="27"/>
-      <c r="FV18" s="27"/>
-      <c r="FW18" s="27"/>
-      <c r="FX18" s="27"/>
-      <c r="FY18" s="27"/>
-      <c r="FZ18" s="27"/>
-      <c r="GA18" s="27"/>
-      <c r="GB18" s="27"/>
-      <c r="GC18" s="27"/>
-      <c r="GD18" s="27"/>
-      <c r="GE18" s="27"/>
-      <c r="GF18" s="27"/>
-      <c r="GG18" s="27"/>
-      <c r="GH18" s="27"/>
-      <c r="GI18" s="27"/>
-      <c r="GJ18" s="27"/>
-      <c r="GK18" s="27"/>
-      <c r="GL18" s="27"/>
-      <c r="GM18" s="27"/>
-      <c r="GN18" s="27"/>
-      <c r="GO18" s="27"/>
-      <c r="GP18" s="27"/>
-      <c r="GQ18" s="27"/>
-      <c r="GR18" s="27"/>
-      <c r="GS18" s="27"/>
-      <c r="GT18" s="27"/>
-      <c r="GU18" s="27"/>
-      <c r="GV18" s="27"/>
-      <c r="GW18" s="27"/>
-      <c r="GX18" s="27"/>
-      <c r="GY18" s="27"/>
-      <c r="GZ18" s="27"/>
-      <c r="HA18" s="27"/>
-      <c r="HB18" s="27"/>
-      <c r="HC18" s="27"/>
-      <c r="HD18" s="27"/>
-      <c r="HE18" s="27"/>
-      <c r="HF18" s="27"/>
+      <c r="AV18" s="21"/>
+      <c r="AW18" s="21"/>
+      <c r="AX18" s="21"/>
+      <c r="AY18" s="21"/>
+      <c r="AZ18" s="21"/>
+      <c r="BA18" s="21"/>
+      <c r="BB18" s="21"/>
+      <c r="BC18" s="21"/>
+      <c r="BD18" s="21"/>
+      <c r="BE18" s="21"/>
+      <c r="BF18" s="21"/>
+      <c r="BG18" s="21"/>
+      <c r="BH18" s="21"/>
+      <c r="BI18" s="21"/>
+      <c r="BJ18" s="21"/>
+      <c r="BK18" s="21"/>
+      <c r="BL18" s="21"/>
+      <c r="BM18" s="21"/>
+      <c r="BN18" s="21"/>
+      <c r="BO18" s="21"/>
+      <c r="BP18" s="21"/>
+      <c r="BQ18" s="21"/>
+      <c r="BR18" s="21"/>
+      <c r="BS18" s="21"/>
+      <c r="BT18" s="21"/>
+      <c r="BU18" s="21"/>
+      <c r="BV18" s="21"/>
+      <c r="BW18" s="21"/>
+      <c r="BX18" s="21"/>
+      <c r="BY18" s="21"/>
+      <c r="BZ18" s="21"/>
+      <c r="CA18" s="21"/>
+      <c r="CB18" s="21"/>
+      <c r="CC18" s="21"/>
+      <c r="CD18" s="21"/>
+      <c r="CE18" s="21"/>
+      <c r="CF18" s="21"/>
+      <c r="CG18" s="21"/>
+      <c r="CH18" s="21"/>
+      <c r="CI18" s="21"/>
+      <c r="CJ18" s="21"/>
+      <c r="CK18" s="21"/>
+      <c r="CL18" s="21"/>
+      <c r="CM18" s="21"/>
+      <c r="CN18" s="21"/>
+      <c r="CO18" s="21"/>
+      <c r="CP18" s="21"/>
+      <c r="CQ18" s="21"/>
+      <c r="CR18" s="21"/>
+      <c r="CS18" s="21"/>
+      <c r="CT18" s="21"/>
+      <c r="CU18" s="21"/>
+      <c r="CV18" s="21"/>
+      <c r="CW18" s="21"/>
+      <c r="CX18" s="21"/>
+      <c r="CY18" s="21"/>
+      <c r="CZ18" s="21"/>
+      <c r="DA18" s="21"/>
+      <c r="DB18" s="21"/>
+      <c r="DC18" s="21"/>
+      <c r="DD18" s="21"/>
+      <c r="DE18" s="21"/>
+      <c r="DF18" s="21"/>
+      <c r="DG18" s="21"/>
+      <c r="DH18" s="21"/>
+      <c r="DI18" s="21"/>
+      <c r="DJ18" s="21"/>
+      <c r="DK18" s="21"/>
+      <c r="DL18" s="21"/>
+      <c r="DM18" s="21"/>
+      <c r="DN18" s="21"/>
+      <c r="DO18" s="21"/>
+      <c r="DP18" s="21"/>
+      <c r="DQ18" s="21"/>
+      <c r="DR18" s="21"/>
+      <c r="DS18" s="21"/>
+      <c r="DT18" s="21"/>
+      <c r="DU18" s="21"/>
+      <c r="DV18" s="21"/>
+      <c r="DW18" s="21"/>
+      <c r="DX18" s="21"/>
+      <c r="DY18" s="21"/>
+      <c r="DZ18" s="21"/>
+      <c r="EA18" s="21"/>
+      <c r="EB18" s="21"/>
+      <c r="EC18" s="21"/>
+      <c r="ED18" s="21"/>
+      <c r="EE18" s="21"/>
+      <c r="EF18" s="21"/>
+      <c r="EG18" s="21"/>
+      <c r="EH18" s="21"/>
+      <c r="EI18" s="21"/>
+      <c r="EJ18" s="21"/>
+      <c r="EK18" s="21"/>
+      <c r="EL18" s="21"/>
+      <c r="EM18" s="21"/>
+      <c r="EN18" s="21"/>
+      <c r="EO18" s="21"/>
+      <c r="EP18" s="21"/>
+      <c r="EQ18" s="21"/>
+      <c r="ER18" s="21"/>
+      <c r="ES18" s="21"/>
+      <c r="ET18" s="21"/>
+      <c r="EU18" s="21"/>
+      <c r="EV18" s="21"/>
+      <c r="EW18" s="21"/>
+      <c r="EX18" s="21"/>
+      <c r="EY18" s="21"/>
+      <c r="EZ18" s="21"/>
+      <c r="FA18" s="21"/>
+      <c r="FB18" s="21"/>
+      <c r="FC18" s="21"/>
+      <c r="FD18" s="21"/>
+      <c r="FE18" s="21"/>
+      <c r="FF18" s="21"/>
+      <c r="FG18" s="21"/>
+      <c r="FH18" s="21"/>
+      <c r="FI18" s="21"/>
+      <c r="FJ18" s="21"/>
+      <c r="FK18" s="21"/>
+      <c r="FL18" s="21"/>
+      <c r="FM18" s="21"/>
+      <c r="FN18" s="21"/>
+      <c r="FO18" s="21"/>
+      <c r="FP18" s="21"/>
+      <c r="FQ18" s="21"/>
+      <c r="FR18" s="21"/>
+      <c r="FS18" s="21"/>
+      <c r="FT18" s="21"/>
+      <c r="FU18" s="21"/>
+      <c r="FV18" s="21"/>
+      <c r="FW18" s="21"/>
+      <c r="FX18" s="21"/>
+      <c r="FY18" s="21"/>
+      <c r="FZ18" s="21"/>
+      <c r="GA18" s="21"/>
+      <c r="GB18" s="21"/>
+      <c r="GC18" s="21"/>
+      <c r="GD18" s="21"/>
+      <c r="GE18" s="21"/>
+      <c r="GF18" s="21"/>
+      <c r="GG18" s="21"/>
+      <c r="GH18" s="21"/>
+      <c r="GI18" s="21"/>
+      <c r="GJ18" s="21"/>
+      <c r="GK18" s="21"/>
+      <c r="GL18" s="21"/>
+      <c r="GM18" s="21"/>
+      <c r="GN18" s="21"/>
+      <c r="GO18" s="21"/>
+      <c r="GP18" s="21"/>
+      <c r="GQ18" s="21"/>
+      <c r="GR18" s="21"/>
+      <c r="GS18" s="21"/>
+      <c r="GT18" s="21"/>
+      <c r="GU18" s="21"/>
+      <c r="GV18" s="21"/>
+      <c r="GW18" s="21"/>
+      <c r="GX18" s="21"/>
+      <c r="GY18" s="21"/>
+      <c r="GZ18" s="21"/>
+      <c r="HA18" s="21"/>
+      <c r="HB18" s="21"/>
+      <c r="HC18" s="21"/>
+      <c r="HD18" s="21"/>
+      <c r="HE18" s="21"/>
+      <c r="HF18" s="21"/>
     </row>
-    <row r="19" spans="1:219" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
+    <row r="19" spans="1:219" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="21">
         <v>2.3711526819143666E-2</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27">
+      <c r="D19" s="21"/>
+      <c r="E19" s="21">
         <v>1.2857730134456532E-2</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27">
+      <c r="F19" s="21"/>
+      <c r="G19" s="21">
         <v>0.11125890723677065</v>
       </c>
-      <c r="H19" s="27">
+      <c r="H19" s="21">
         <v>2.8273347926607299E-2</v>
       </c>
-      <c r="I19" s="27">
+      <c r="I19" s="21">
         <v>0.15034091737253111</v>
       </c>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27">
+      <c r="J19" s="21"/>
+      <c r="K19" s="21">
         <v>1.8586915016131609E-2</v>
       </c>
-      <c r="L19" s="27">
+      <c r="L19" s="21">
         <v>1.9766849305409541E-2</v>
       </c>
-      <c r="M19" s="27"/>
-      <c r="N19" s="27">
+      <c r="M19" s="21"/>
+      <c r="N19" s="21">
         <v>1.2701178658297618E-2</v>
       </c>
-      <c r="O19" s="27">
+      <c r="O19" s="21">
         <v>6.2338052047173305E-2</v>
       </c>
-      <c r="P19" s="27">
+      <c r="P19" s="21">
         <v>2.7620841825017551E-2</v>
       </c>
-      <c r="Q19" s="27">
+      <c r="Q19" s="21">
         <v>1.6436092129792589E-2</v>
       </c>
-      <c r="R19" s="27">
+      <c r="R19" s="21">
         <v>1.40207471019182E-2</v>
       </c>
-      <c r="S19" s="27"/>
-      <c r="T19" s="27">
+      <c r="S19" s="21"/>
+      <c r="T19" s="21">
         <v>4.2922877039882089E-2</v>
       </c>
-      <c r="U19" s="27">
+      <c r="U19" s="21">
         <v>1.6042912895048767E-2</v>
       </c>
-      <c r="V19" s="27"/>
-      <c r="W19" s="27"/>
-      <c r="X19" s="27">
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21">
         <v>3.5911251718458694E-2</v>
       </c>
-      <c r="Y19" s="27"/>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="27">
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21">
         <v>2.0729356822785473E-2</v>
       </c>
-      <c r="AB19" s="27"/>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="27"/>
-      <c r="AE19" s="27">
+      <c r="AB19" s="21"/>
+      <c r="AC19" s="21"/>
+      <c r="AD19" s="21"/>
+      <c r="AE19" s="21">
         <v>4.2769437976171887E-2</v>
       </c>
-      <c r="AF19" s="27"/>
-      <c r="AG19" s="27"/>
-      <c r="AH19" s="27">
+      <c r="AF19" s="21"/>
+      <c r="AG19" s="21"/>
+      <c r="AH19" s="21">
         <v>2.2331037817567959E-2</v>
       </c>
-      <c r="AI19" s="27">
+      <c r="AI19" s="21">
         <v>2.2973003132050689E-2</v>
       </c>
-      <c r="AJ19" s="27">
+      <c r="AJ19" s="21">
         <v>1.7464180877724996E-2</v>
       </c>
-      <c r="AK19" s="27"/>
-      <c r="AL19" s="27">
+      <c r="AK19" s="21"/>
+      <c r="AL19" s="21">
         <v>1.2881486768094329E-2</v>
       </c>
-      <c r="AM19" s="27"/>
-      <c r="AN19" s="27">
+      <c r="AM19" s="21"/>
+      <c r="AN19" s="21">
         <v>2.4598040842148592E-2</v>
       </c>
-      <c r="AO19" s="27">
+      <c r="AO19" s="21">
         <v>1.8944860485131367E-2</v>
       </c>
-      <c r="AP19" s="27"/>
-      <c r="AQ19" s="27"/>
-      <c r="AR19" s="27"/>
-      <c r="AS19" s="27">
+      <c r="AP19" s="21"/>
+      <c r="AQ19" s="21"/>
+      <c r="AR19" s="21"/>
+      <c r="AS19" s="21">
         <v>1.702190681064299E-2</v>
       </c>
-      <c r="AT19" s="27">
+      <c r="AT19" s="21">
         <v>1.3445577084004194E-2</v>
       </c>
-      <c r="AU19" s="27">
+      <c r="AU19" s="21">
         <f t="shared" si="0"/>
         <v>0.80594903584296151</v>
       </c>
-      <c r="AV19" s="27"/>
-      <c r="AW19" s="27"/>
-      <c r="AX19" s="27"/>
-      <c r="AY19" s="27"/>
-      <c r="AZ19" s="27"/>
-      <c r="BA19" s="27"/>
-      <c r="BB19" s="27"/>
-      <c r="BC19" s="27"/>
-      <c r="BD19" s="27"/>
-      <c r="BE19" s="27"/>
-      <c r="BF19" s="27"/>
-      <c r="BG19" s="27"/>
-      <c r="BH19" s="27"/>
-      <c r="BI19" s="27"/>
-      <c r="BJ19" s="27"/>
-      <c r="BK19" s="27"/>
-      <c r="BL19" s="27"/>
-      <c r="BM19" s="27"/>
-      <c r="BN19" s="27"/>
-      <c r="BO19" s="27"/>
-      <c r="BP19" s="27"/>
-      <c r="BQ19" s="27"/>
-      <c r="BR19" s="27"/>
-      <c r="BS19" s="27"/>
-      <c r="BT19" s="27"/>
-      <c r="BU19" s="27"/>
-      <c r="BV19" s="27"/>
-      <c r="BW19" s="27"/>
-      <c r="BX19" s="27"/>
-      <c r="BY19" s="27"/>
-      <c r="BZ19" s="27"/>
-      <c r="CA19" s="27"/>
-      <c r="CB19" s="27"/>
-      <c r="CC19" s="27"/>
-      <c r="CD19" s="27"/>
-      <c r="CE19" s="27"/>
-      <c r="CF19" s="27"/>
-      <c r="CG19" s="27"/>
-      <c r="CH19" s="27"/>
-      <c r="CI19" s="27"/>
-      <c r="CJ19" s="27"/>
-      <c r="CK19" s="27"/>
-      <c r="CL19" s="27"/>
-      <c r="CM19" s="27"/>
-      <c r="CN19" s="27"/>
-      <c r="CO19" s="27"/>
-      <c r="CP19" s="27"/>
-      <c r="CQ19" s="27"/>
-      <c r="CR19" s="27"/>
-      <c r="CS19" s="27"/>
-      <c r="CT19" s="27"/>
-      <c r="CU19" s="27"/>
-      <c r="CV19" s="27"/>
-      <c r="CW19" s="27"/>
-      <c r="CX19" s="27"/>
-      <c r="CY19" s="27"/>
-      <c r="CZ19" s="27"/>
-      <c r="DA19" s="27"/>
-      <c r="DB19" s="27"/>
-      <c r="DC19" s="27"/>
-      <c r="DD19" s="27"/>
-      <c r="DE19" s="27"/>
-      <c r="DF19" s="27"/>
-      <c r="DG19" s="27"/>
-      <c r="DH19" s="27"/>
-      <c r="DI19" s="27"/>
-      <c r="DJ19" s="27"/>
-      <c r="DK19" s="27"/>
-      <c r="DL19" s="27"/>
-      <c r="DM19" s="27"/>
-      <c r="DN19" s="27"/>
-      <c r="DO19" s="27"/>
-      <c r="DP19" s="27"/>
-      <c r="DQ19" s="27"/>
-      <c r="DR19" s="27"/>
-      <c r="DS19" s="27"/>
-      <c r="DT19" s="27"/>
-      <c r="DU19" s="27"/>
-      <c r="DV19" s="27"/>
-      <c r="DW19" s="27"/>
-      <c r="DX19" s="27"/>
-      <c r="DY19" s="27"/>
-      <c r="DZ19" s="27"/>
-      <c r="EA19" s="27"/>
-      <c r="EB19" s="27"/>
-      <c r="EC19" s="27"/>
-      <c r="ED19" s="27"/>
-      <c r="EE19" s="27"/>
-      <c r="EF19" s="27"/>
-      <c r="EG19" s="27"/>
-      <c r="EH19" s="27"/>
-      <c r="EI19" s="27"/>
-      <c r="EJ19" s="27"/>
-      <c r="EK19" s="27"/>
-      <c r="EL19" s="27"/>
-      <c r="EM19" s="27"/>
-      <c r="EN19" s="27"/>
-      <c r="EO19" s="27"/>
-      <c r="EP19" s="27"/>
-      <c r="EQ19" s="27"/>
-      <c r="ER19" s="27"/>
-      <c r="ES19" s="27"/>
-      <c r="ET19" s="27"/>
-      <c r="EU19" s="27"/>
-      <c r="EV19" s="27"/>
-      <c r="EW19" s="27"/>
-      <c r="EX19" s="27"/>
-      <c r="EY19" s="27"/>
-      <c r="EZ19" s="27"/>
-      <c r="FA19" s="27"/>
-      <c r="FB19" s="27"/>
-      <c r="FC19" s="27"/>
-      <c r="FD19" s="27"/>
-      <c r="FE19" s="27"/>
-      <c r="FF19" s="27"/>
-      <c r="FG19" s="27"/>
-      <c r="FH19" s="27"/>
-      <c r="FI19" s="27"/>
-      <c r="FJ19" s="27"/>
-      <c r="FK19" s="27"/>
-      <c r="FL19" s="27"/>
-      <c r="FM19" s="27"/>
-      <c r="FN19" s="27"/>
-      <c r="FO19" s="27"/>
-      <c r="FP19" s="27"/>
-      <c r="FQ19" s="27"/>
-      <c r="FR19" s="27"/>
-      <c r="FS19" s="27"/>
-      <c r="FT19" s="27"/>
-      <c r="FU19" s="27"/>
-      <c r="FV19" s="27"/>
-      <c r="FW19" s="27"/>
-      <c r="FX19" s="27"/>
-      <c r="FY19" s="27"/>
-      <c r="FZ19" s="27"/>
-      <c r="GA19" s="27"/>
-      <c r="GB19" s="27"/>
-      <c r="GC19" s="27"/>
-      <c r="GD19" s="27"/>
-      <c r="GE19" s="27"/>
-      <c r="GF19" s="27"/>
-      <c r="GG19" s="27"/>
-      <c r="GH19" s="27"/>
-      <c r="GI19" s="27"/>
-      <c r="GJ19" s="27"/>
-      <c r="GK19" s="27"/>
-      <c r="GL19" s="27"/>
-      <c r="GM19" s="27"/>
-      <c r="GN19" s="27"/>
-      <c r="GO19" s="27"/>
-      <c r="GP19" s="27"/>
-      <c r="GQ19" s="27"/>
-      <c r="GR19" s="27"/>
-      <c r="GS19" s="27"/>
-      <c r="GT19" s="27"/>
-      <c r="GU19" s="27"/>
-      <c r="GV19" s="27"/>
-      <c r="GW19" s="27"/>
-      <c r="GX19" s="27"/>
-      <c r="GY19" s="27"/>
-      <c r="GZ19" s="27"/>
-      <c r="HA19" s="27"/>
-      <c r="HB19" s="27"/>
-      <c r="HC19" s="27"/>
-      <c r="HD19" s="27"/>
-      <c r="HE19" s="27"/>
-      <c r="HF19" s="27"/>
-      <c r="HG19" s="27"/>
-      <c r="HH19" s="27"/>
+      <c r="AV19" s="21"/>
+      <c r="AW19" s="21"/>
+      <c r="AX19" s="21"/>
+      <c r="AY19" s="21"/>
+      <c r="AZ19" s="21"/>
+      <c r="BA19" s="21"/>
+      <c r="BB19" s="21"/>
+      <c r="BC19" s="21"/>
+      <c r="BD19" s="21"/>
+      <c r="BE19" s="21"/>
+      <c r="BF19" s="21"/>
+      <c r="BG19" s="21"/>
+      <c r="BH19" s="21"/>
+      <c r="BI19" s="21"/>
+      <c r="BJ19" s="21"/>
+      <c r="BK19" s="21"/>
+      <c r="BL19" s="21"/>
+      <c r="BM19" s="21"/>
+      <c r="BN19" s="21"/>
+      <c r="BO19" s="21"/>
+      <c r="BP19" s="21"/>
+      <c r="BQ19" s="21"/>
+      <c r="BR19" s="21"/>
+      <c r="BS19" s="21"/>
+      <c r="BT19" s="21"/>
+      <c r="BU19" s="21"/>
+      <c r="BV19" s="21"/>
+      <c r="BW19" s="21"/>
+      <c r="BX19" s="21"/>
+      <c r="BY19" s="21"/>
+      <c r="BZ19" s="21"/>
+      <c r="CA19" s="21"/>
+      <c r="CB19" s="21"/>
+      <c r="CC19" s="21"/>
+      <c r="CD19" s="21"/>
+      <c r="CE19" s="21"/>
+      <c r="CF19" s="21"/>
+      <c r="CG19" s="21"/>
+      <c r="CH19" s="21"/>
+      <c r="CI19" s="21"/>
+      <c r="CJ19" s="21"/>
+      <c r="CK19" s="21"/>
+      <c r="CL19" s="21"/>
+      <c r="CM19" s="21"/>
+      <c r="CN19" s="21"/>
+      <c r="CO19" s="21"/>
+      <c r="CP19" s="21"/>
+      <c r="CQ19" s="21"/>
+      <c r="CR19" s="21"/>
+      <c r="CS19" s="21"/>
+      <c r="CT19" s="21"/>
+      <c r="CU19" s="21"/>
+      <c r="CV19" s="21"/>
+      <c r="CW19" s="21"/>
+      <c r="CX19" s="21"/>
+      <c r="CY19" s="21"/>
+      <c r="CZ19" s="21"/>
+      <c r="DA19" s="21"/>
+      <c r="DB19" s="21"/>
+      <c r="DC19" s="21"/>
+      <c r="DD19" s="21"/>
+      <c r="DE19" s="21"/>
+      <c r="DF19" s="21"/>
+      <c r="DG19" s="21"/>
+      <c r="DH19" s="21"/>
+      <c r="DI19" s="21"/>
+      <c r="DJ19" s="21"/>
+      <c r="DK19" s="21"/>
+      <c r="DL19" s="21"/>
+      <c r="DM19" s="21"/>
+      <c r="DN19" s="21"/>
+      <c r="DO19" s="21"/>
+      <c r="DP19" s="21"/>
+      <c r="DQ19" s="21"/>
+      <c r="DR19" s="21"/>
+      <c r="DS19" s="21"/>
+      <c r="DT19" s="21"/>
+      <c r="DU19" s="21"/>
+      <c r="DV19" s="21"/>
+      <c r="DW19" s="21"/>
+      <c r="DX19" s="21"/>
+      <c r="DY19" s="21"/>
+      <c r="DZ19" s="21"/>
+      <c r="EA19" s="21"/>
+      <c r="EB19" s="21"/>
+      <c r="EC19" s="21"/>
+      <c r="ED19" s="21"/>
+      <c r="EE19" s="21"/>
+      <c r="EF19" s="21"/>
+      <c r="EG19" s="21"/>
+      <c r="EH19" s="21"/>
+      <c r="EI19" s="21"/>
+      <c r="EJ19" s="21"/>
+      <c r="EK19" s="21"/>
+      <c r="EL19" s="21"/>
+      <c r="EM19" s="21"/>
+      <c r="EN19" s="21"/>
+      <c r="EO19" s="21"/>
+      <c r="EP19" s="21"/>
+      <c r="EQ19" s="21"/>
+      <c r="ER19" s="21"/>
+      <c r="ES19" s="21"/>
+      <c r="ET19" s="21"/>
+      <c r="EU19" s="21"/>
+      <c r="EV19" s="21"/>
+      <c r="EW19" s="21"/>
+      <c r="EX19" s="21"/>
+      <c r="EY19" s="21"/>
+      <c r="EZ19" s="21"/>
+      <c r="FA19" s="21"/>
+      <c r="FB19" s="21"/>
+      <c r="FC19" s="21"/>
+      <c r="FD19" s="21"/>
+      <c r="FE19" s="21"/>
+      <c r="FF19" s="21"/>
+      <c r="FG19" s="21"/>
+      <c r="FH19" s="21"/>
+      <c r="FI19" s="21"/>
+      <c r="FJ19" s="21"/>
+      <c r="FK19" s="21"/>
+      <c r="FL19" s="21"/>
+      <c r="FM19" s="21"/>
+      <c r="FN19" s="21"/>
+      <c r="FO19" s="21"/>
+      <c r="FP19" s="21"/>
+      <c r="FQ19" s="21"/>
+      <c r="FR19" s="21"/>
+      <c r="FS19" s="21"/>
+      <c r="FT19" s="21"/>
+      <c r="FU19" s="21"/>
+      <c r="FV19" s="21"/>
+      <c r="FW19" s="21"/>
+      <c r="FX19" s="21"/>
+      <c r="FY19" s="21"/>
+      <c r="FZ19" s="21"/>
+      <c r="GA19" s="21"/>
+      <c r="GB19" s="21"/>
+      <c r="GC19" s="21"/>
+      <c r="GD19" s="21"/>
+      <c r="GE19" s="21"/>
+      <c r="GF19" s="21"/>
+      <c r="GG19" s="21"/>
+      <c r="GH19" s="21"/>
+      <c r="GI19" s="21"/>
+      <c r="GJ19" s="21"/>
+      <c r="GK19" s="21"/>
+      <c r="GL19" s="21"/>
+      <c r="GM19" s="21"/>
+      <c r="GN19" s="21"/>
+      <c r="GO19" s="21"/>
+      <c r="GP19" s="21"/>
+      <c r="GQ19" s="21"/>
+      <c r="GR19" s="21"/>
+      <c r="GS19" s="21"/>
+      <c r="GT19" s="21"/>
+      <c r="GU19" s="21"/>
+      <c r="GV19" s="21"/>
+      <c r="GW19" s="21"/>
+      <c r="GX19" s="21"/>
+      <c r="GY19" s="21"/>
+      <c r="GZ19" s="21"/>
+      <c r="HA19" s="21"/>
+      <c r="HB19" s="21"/>
+      <c r="HC19" s="21"/>
+      <c r="HD19" s="21"/>
+      <c r="HE19" s="21"/>
+      <c r="HF19" s="21"/>
+      <c r="HG19" s="21"/>
+      <c r="HH19" s="21"/>
     </row>
-    <row r="20" spans="1:219" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
+    <row r="20" spans="1:219" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="27">
+      <c r="C20" s="21">
         <v>2.8700064505293683E-2</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27">
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21">
         <v>8.9178306761759571E-2</v>
       </c>
-      <c r="H20" s="27">
+      <c r="H20" s="21">
         <v>3.5660721732279348E-2</v>
       </c>
-      <c r="I20" s="27">
+      <c r="I20" s="21">
         <v>0.10228634950139119</v>
       </c>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27">
+      <c r="J20" s="21"/>
+      <c r="K20" s="21">
         <v>2.0054532383737396E-2</v>
       </c>
-      <c r="L20" s="27">
+      <c r="L20" s="21">
         <v>2.223966257832663E-2</v>
       </c>
-      <c r="M20" s="27"/>
-      <c r="N20" s="27">
+      <c r="M20" s="21"/>
+      <c r="N20" s="21">
         <v>1.5927611752419198E-2</v>
       </c>
-      <c r="O20" s="27">
+      <c r="O20" s="21">
         <v>6.7674774138395455E-2</v>
       </c>
-      <c r="P20" s="27">
+      <c r="P20" s="21">
         <v>3.03197029173655E-2</v>
       </c>
-      <c r="Q20" s="27">
+      <c r="Q20" s="21">
         <v>1.8535255398775197E-2</v>
       </c>
-      <c r="R20" s="27">
+      <c r="R20" s="21">
         <v>1.30336714686598E-2</v>
       </c>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27">
+      <c r="S20" s="21"/>
+      <c r="T20" s="21">
         <v>5.5031312721586248E-2</v>
       </c>
-      <c r="U20" s="27">
+      <c r="U20" s="21">
         <v>1.3586507482226324E-2</v>
       </c>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="27">
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21">
         <v>3.9360503752594776E-2</v>
       </c>
-      <c r="Y20" s="27"/>
-      <c r="Z20" s="27"/>
-      <c r="AA20" s="27">
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21">
         <v>2.3233733868166087E-2</v>
       </c>
-      <c r="AB20" s="27"/>
-      <c r="AC20" s="27">
+      <c r="AB20" s="21"/>
+      <c r="AC20" s="21">
         <v>1.2484075581191006E-2</v>
       </c>
-      <c r="AD20" s="27">
+      <c r="AD20" s="21">
         <v>1.7960345710481582E-2</v>
       </c>
-      <c r="AE20" s="27">
+      <c r="AE20" s="21">
         <v>5.6881817133906477E-2</v>
       </c>
-      <c r="AF20" s="27"/>
-      <c r="AG20" s="27"/>
-      <c r="AH20" s="27">
+      <c r="AF20" s="21"/>
+      <c r="AG20" s="21"/>
+      <c r="AH20" s="21">
         <v>2.3093456555989045E-2</v>
       </c>
-      <c r="AI20" s="27">
+      <c r="AI20" s="21">
         <v>2.1713967426740075E-2</v>
       </c>
-      <c r="AJ20" s="27">
+      <c r="AJ20" s="21">
         <v>1.4868907879310396E-2</v>
       </c>
-      <c r="AK20" s="27"/>
-      <c r="AL20" s="27">
+      <c r="AK20" s="21"/>
+      <c r="AL20" s="21">
         <v>1.2408555085746032E-2</v>
       </c>
-      <c r="AM20" s="27"/>
-      <c r="AN20" s="27">
+      <c r="AM20" s="21"/>
+      <c r="AN20" s="21">
         <v>2.7277874202317181E-2</v>
       </c>
-      <c r="AO20" s="27">
+      <c r="AO20" s="21">
         <v>1.7096892199272989E-2</v>
       </c>
-      <c r="AP20" s="27"/>
-      <c r="AQ20" s="27">
+      <c r="AP20" s="21"/>
+      <c r="AQ20" s="21">
         <v>1.3111677894146532E-2</v>
       </c>
-      <c r="AR20" s="27"/>
-      <c r="AS20" s="27">
+      <c r="AR20" s="21"/>
+      <c r="AS20" s="21">
         <v>1.593219355557399E-2</v>
       </c>
-      <c r="AT20" s="27"/>
-      <c r="AU20" s="27">
+      <c r="AT20" s="21"/>
+      <c r="AU20" s="21">
         <f t="shared" si="0"/>
         <v>0.80765247418765174</v>
       </c>
-      <c r="AV20" s="27"/>
-      <c r="AW20" s="27"/>
-      <c r="AX20" s="27"/>
-      <c r="AY20" s="27"/>
-      <c r="AZ20" s="27"/>
-      <c r="BA20" s="27"/>
-      <c r="BB20" s="27"/>
-      <c r="BC20" s="27"/>
-      <c r="BD20" s="27"/>
-      <c r="BE20" s="27"/>
-      <c r="BF20" s="27"/>
-      <c r="BG20" s="27"/>
-      <c r="BH20" s="27"/>
-      <c r="BI20" s="27"/>
-      <c r="BJ20" s="27"/>
-      <c r="BK20" s="27"/>
-      <c r="BL20" s="27"/>
-      <c r="BM20" s="27"/>
-      <c r="BN20" s="27"/>
-      <c r="BO20" s="27"/>
-      <c r="BP20" s="27"/>
-      <c r="BQ20" s="27"/>
-      <c r="BR20" s="27"/>
-      <c r="BS20" s="27"/>
-      <c r="BT20" s="27"/>
-      <c r="BU20" s="27"/>
-      <c r="BV20" s="27"/>
-      <c r="BW20" s="27"/>
-      <c r="BX20" s="27"/>
-      <c r="BY20" s="27"/>
-      <c r="BZ20" s="27"/>
-      <c r="CA20" s="27"/>
-      <c r="CB20" s="27"/>
-      <c r="CC20" s="27"/>
-      <c r="CD20" s="27"/>
-      <c r="CE20" s="27"/>
-      <c r="CF20" s="27"/>
-      <c r="CG20" s="27"/>
-      <c r="CH20" s="27"/>
-      <c r="CI20" s="27"/>
-      <c r="CJ20" s="27"/>
-      <c r="CK20" s="27"/>
-      <c r="CL20" s="27"/>
-      <c r="CM20" s="27"/>
-      <c r="CN20" s="27"/>
-      <c r="CO20" s="27"/>
-      <c r="CP20" s="27"/>
-      <c r="CQ20" s="27"/>
-      <c r="CR20" s="27"/>
-      <c r="CS20" s="27"/>
-      <c r="CT20" s="27"/>
-      <c r="CU20" s="27"/>
-      <c r="CV20" s="27"/>
-      <c r="CW20" s="27"/>
-      <c r="CX20" s="27"/>
-      <c r="CY20" s="27"/>
-      <c r="CZ20" s="27"/>
-      <c r="DA20" s="27"/>
-      <c r="DB20" s="27"/>
-      <c r="DC20" s="27"/>
-      <c r="DD20" s="27"/>
-      <c r="DE20" s="27"/>
-      <c r="DF20" s="27"/>
-      <c r="DG20" s="27"/>
-      <c r="DH20" s="27"/>
-      <c r="DI20" s="27"/>
-      <c r="DJ20" s="27"/>
-      <c r="DK20" s="27"/>
-      <c r="DL20" s="27"/>
-      <c r="DM20" s="27"/>
-      <c r="DN20" s="27"/>
-      <c r="DO20" s="27"/>
-      <c r="DP20" s="27"/>
-      <c r="DQ20" s="27"/>
-      <c r="DR20" s="27"/>
-      <c r="DS20" s="27"/>
-      <c r="DT20" s="27"/>
-      <c r="DU20" s="27"/>
-      <c r="DV20" s="27"/>
-      <c r="DW20" s="27"/>
-      <c r="DX20" s="27"/>
-      <c r="DY20" s="27"/>
-      <c r="DZ20" s="27"/>
-      <c r="EA20" s="27"/>
-      <c r="EB20" s="27"/>
-      <c r="EC20" s="27"/>
-      <c r="ED20" s="27"/>
-      <c r="EE20" s="27"/>
-      <c r="EF20" s="27"/>
-      <c r="EG20" s="27"/>
-      <c r="EH20" s="27"/>
-      <c r="EI20" s="27"/>
-      <c r="EJ20" s="27"/>
-      <c r="EK20" s="27"/>
-      <c r="EL20" s="27"/>
-      <c r="EM20" s="27"/>
-      <c r="EN20" s="27"/>
-      <c r="EO20" s="27"/>
-      <c r="EP20" s="27"/>
-      <c r="EQ20" s="27"/>
-      <c r="ER20" s="27"/>
-      <c r="ES20" s="27"/>
-      <c r="ET20" s="27"/>
-      <c r="EU20" s="27"/>
-      <c r="EV20" s="27"/>
-      <c r="EW20" s="27"/>
-      <c r="EX20" s="27"/>
-      <c r="EY20" s="27"/>
-      <c r="EZ20" s="27"/>
-      <c r="FA20" s="27"/>
-      <c r="FB20" s="27"/>
-      <c r="FC20" s="27"/>
-      <c r="FD20" s="27"/>
-      <c r="FE20" s="27"/>
-      <c r="FF20" s="27"/>
-      <c r="FG20" s="27"/>
-      <c r="FH20" s="27"/>
-      <c r="FI20" s="27"/>
-      <c r="FJ20" s="27"/>
-      <c r="FK20" s="27"/>
-      <c r="FL20" s="27"/>
-      <c r="FM20" s="27"/>
-      <c r="FN20" s="27"/>
-      <c r="FO20" s="27"/>
-      <c r="FP20" s="27"/>
-      <c r="FQ20" s="27"/>
-      <c r="FR20" s="27"/>
-      <c r="FS20" s="27"/>
-      <c r="FT20" s="27"/>
-      <c r="FU20" s="27"/>
-      <c r="FV20" s="27"/>
-      <c r="FW20" s="27"/>
-      <c r="FX20" s="27"/>
-      <c r="FY20" s="27"/>
-      <c r="FZ20" s="27"/>
-      <c r="GA20" s="27"/>
-      <c r="GB20" s="27"/>
-      <c r="GC20" s="27"/>
-      <c r="GD20" s="27"/>
-      <c r="GE20" s="27"/>
-      <c r="GF20" s="27"/>
-      <c r="GG20" s="27"/>
-      <c r="GH20" s="27"/>
-      <c r="GI20" s="27"/>
-      <c r="GJ20" s="27"/>
-      <c r="GK20" s="27"/>
-      <c r="GL20" s="27"/>
-      <c r="GM20" s="27"/>
-      <c r="GN20" s="27"/>
-      <c r="GO20" s="27"/>
-      <c r="GP20" s="27"/>
-      <c r="GQ20" s="27"/>
-      <c r="GR20" s="27"/>
-      <c r="GS20" s="27"/>
-      <c r="GT20" s="27"/>
-      <c r="GU20" s="27"/>
-      <c r="GV20" s="27"/>
-      <c r="GW20" s="27"/>
-      <c r="GX20" s="27"/>
-      <c r="GY20" s="27"/>
-      <c r="GZ20" s="27"/>
-      <c r="HA20" s="27"/>
-      <c r="HB20" s="27"/>
-      <c r="HC20" s="27"/>
-      <c r="HD20" s="27"/>
-      <c r="HE20" s="27"/>
+      <c r="AV20" s="21"/>
+      <c r="AW20" s="21"/>
+      <c r="AX20" s="21"/>
+      <c r="AY20" s="21"/>
+      <c r="AZ20" s="21"/>
+      <c r="BA20" s="21"/>
+      <c r="BB20" s="21"/>
+      <c r="BC20" s="21"/>
+      <c r="BD20" s="21"/>
+      <c r="BE20" s="21"/>
+      <c r="BF20" s="21"/>
+      <c r="BG20" s="21"/>
+      <c r="BH20" s="21"/>
+      <c r="BI20" s="21"/>
+      <c r="BJ20" s="21"/>
+      <c r="BK20" s="21"/>
+      <c r="BL20" s="21"/>
+      <c r="BM20" s="21"/>
+      <c r="BN20" s="21"/>
+      <c r="BO20" s="21"/>
+      <c r="BP20" s="21"/>
+      <c r="BQ20" s="21"/>
+      <c r="BR20" s="21"/>
+      <c r="BS20" s="21"/>
+      <c r="BT20" s="21"/>
+      <c r="BU20" s="21"/>
+      <c r="BV20" s="21"/>
+      <c r="BW20" s="21"/>
+      <c r="BX20" s="21"/>
+      <c r="BY20" s="21"/>
+      <c r="BZ20" s="21"/>
+      <c r="CA20" s="21"/>
+      <c r="CB20" s="21"/>
+      <c r="CC20" s="21"/>
+      <c r="CD20" s="21"/>
+      <c r="CE20" s="21"/>
+      <c r="CF20" s="21"/>
+      <c r="CG20" s="21"/>
+      <c r="CH20" s="21"/>
+      <c r="CI20" s="21"/>
+      <c r="CJ20" s="21"/>
+      <c r="CK20" s="21"/>
+      <c r="CL20" s="21"/>
+      <c r="CM20" s="21"/>
+      <c r="CN20" s="21"/>
+      <c r="CO20" s="21"/>
+      <c r="CP20" s="21"/>
+      <c r="CQ20" s="21"/>
+      <c r="CR20" s="21"/>
+      <c r="CS20" s="21"/>
+      <c r="CT20" s="21"/>
+      <c r="CU20" s="21"/>
+      <c r="CV20" s="21"/>
+      <c r="CW20" s="21"/>
+      <c r="CX20" s="21"/>
+      <c r="CY20" s="21"/>
+      <c r="CZ20" s="21"/>
+      <c r="DA20" s="21"/>
+      <c r="DB20" s="21"/>
+      <c r="DC20" s="21"/>
+      <c r="DD20" s="21"/>
+      <c r="DE20" s="21"/>
+      <c r="DF20" s="21"/>
+      <c r="DG20" s="21"/>
+      <c r="DH20" s="21"/>
+      <c r="DI20" s="21"/>
+      <c r="DJ20" s="21"/>
+      <c r="DK20" s="21"/>
+      <c r="DL20" s="21"/>
+      <c r="DM20" s="21"/>
+      <c r="DN20" s="21"/>
+      <c r="DO20" s="21"/>
+      <c r="DP20" s="21"/>
+      <c r="DQ20" s="21"/>
+      <c r="DR20" s="21"/>
+      <c r="DS20" s="21"/>
+      <c r="DT20" s="21"/>
+      <c r="DU20" s="21"/>
+      <c r="DV20" s="21"/>
+      <c r="DW20" s="21"/>
+      <c r="DX20" s="21"/>
+      <c r="DY20" s="21"/>
+      <c r="DZ20" s="21"/>
+      <c r="EA20" s="21"/>
+      <c r="EB20" s="21"/>
+      <c r="EC20" s="21"/>
+      <c r="ED20" s="21"/>
+      <c r="EE20" s="21"/>
+      <c r="EF20" s="21"/>
+      <c r="EG20" s="21"/>
+      <c r="EH20" s="21"/>
+      <c r="EI20" s="21"/>
+      <c r="EJ20" s="21"/>
+      <c r="EK20" s="21"/>
+      <c r="EL20" s="21"/>
+      <c r="EM20" s="21"/>
+      <c r="EN20" s="21"/>
+      <c r="EO20" s="21"/>
+      <c r="EP20" s="21"/>
+      <c r="EQ20" s="21"/>
+      <c r="ER20" s="21"/>
+      <c r="ES20" s="21"/>
+      <c r="ET20" s="21"/>
+      <c r="EU20" s="21"/>
+      <c r="EV20" s="21"/>
+      <c r="EW20" s="21"/>
+      <c r="EX20" s="21"/>
+      <c r="EY20" s="21"/>
+      <c r="EZ20" s="21"/>
+      <c r="FA20" s="21"/>
+      <c r="FB20" s="21"/>
+      <c r="FC20" s="21"/>
+      <c r="FD20" s="21"/>
+      <c r="FE20" s="21"/>
+      <c r="FF20" s="21"/>
+      <c r="FG20" s="21"/>
+      <c r="FH20" s="21"/>
+      <c r="FI20" s="21"/>
+      <c r="FJ20" s="21"/>
+      <c r="FK20" s="21"/>
+      <c r="FL20" s="21"/>
+      <c r="FM20" s="21"/>
+      <c r="FN20" s="21"/>
+      <c r="FO20" s="21"/>
+      <c r="FP20" s="21"/>
+      <c r="FQ20" s="21"/>
+      <c r="FR20" s="21"/>
+      <c r="FS20" s="21"/>
+      <c r="FT20" s="21"/>
+      <c r="FU20" s="21"/>
+      <c r="FV20" s="21"/>
+      <c r="FW20" s="21"/>
+      <c r="FX20" s="21"/>
+      <c r="FY20" s="21"/>
+      <c r="FZ20" s="21"/>
+      <c r="GA20" s="21"/>
+      <c r="GB20" s="21"/>
+      <c r="GC20" s="21"/>
+      <c r="GD20" s="21"/>
+      <c r="GE20" s="21"/>
+      <c r="GF20" s="21"/>
+      <c r="GG20" s="21"/>
+      <c r="GH20" s="21"/>
+      <c r="GI20" s="21"/>
+      <c r="GJ20" s="21"/>
+      <c r="GK20" s="21"/>
+      <c r="GL20" s="21"/>
+      <c r="GM20" s="21"/>
+      <c r="GN20" s="21"/>
+      <c r="GO20" s="21"/>
+      <c r="GP20" s="21"/>
+      <c r="GQ20" s="21"/>
+      <c r="GR20" s="21"/>
+      <c r="GS20" s="21"/>
+      <c r="GT20" s="21"/>
+      <c r="GU20" s="21"/>
+      <c r="GV20" s="21"/>
+      <c r="GW20" s="21"/>
+      <c r="GX20" s="21"/>
+      <c r="GY20" s="21"/>
+      <c r="GZ20" s="21"/>
+      <c r="HA20" s="21"/>
+      <c r="HB20" s="21"/>
+      <c r="HC20" s="21"/>
+      <c r="HD20" s="21"/>
+      <c r="HE20" s="21"/>
     </row>
-    <row r="21" spans="1:219" s="26" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="26" t="s">
+    <row r="21" spans="1:219" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="27">
+      <c r="C21" s="21">
         <v>2.7484733958080657E-2</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27">
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21">
         <v>7.2600632375516991E-2</v>
       </c>
-      <c r="H21" s="27">
+      <c r="H21" s="21">
         <v>4.1092402750698122E-2</v>
       </c>
-      <c r="I21" s="27">
+      <c r="I21" s="21">
         <v>0.1390575938042915</v>
       </c>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27">
+      <c r="J21" s="21"/>
+      <c r="K21" s="21">
         <v>2.1796051841635404E-2</v>
       </c>
-      <c r="L21" s="27">
+      <c r="L21" s="21">
         <v>2.0138372426143341E-2</v>
       </c>
-      <c r="M21" s="27"/>
-      <c r="N21" s="27">
+      <c r="M21" s="21"/>
+      <c r="N21" s="21">
         <v>2.0377045517004446E-2</v>
       </c>
-      <c r="O21" s="27">
+      <c r="O21" s="21">
         <v>7.028778238064709E-2</v>
       </c>
-      <c r="P21" s="27">
+      <c r="P21" s="21">
         <v>4.5222235188705266E-2</v>
       </c>
-      <c r="Q21" s="27">
+      <c r="Q21" s="21">
         <v>1.7776370245618501E-2</v>
       </c>
-      <c r="R21" s="27"/>
-      <c r="S21" s="27"/>
-      <c r="T21" s="27">
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21">
         <v>5.2631717727389046E-2</v>
       </c>
-      <c r="U21" s="27">
+      <c r="U21" s="21">
         <v>1.6921100521356199E-2</v>
       </c>
-      <c r="V21" s="27"/>
-      <c r="W21" s="27"/>
-      <c r="X21" s="27">
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21">
         <v>3.7678301105267743E-2</v>
       </c>
-      <c r="Y21" s="27"/>
-      <c r="Z21" s="27"/>
-      <c r="AA21" s="27">
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21">
         <v>2.132671024406757E-2</v>
       </c>
-      <c r="AB21" s="27"/>
-      <c r="AC21" s="27">
+      <c r="AB21" s="21"/>
+      <c r="AC21" s="21">
         <v>1.0640013510149914E-2</v>
       </c>
-      <c r="AD21" s="27">
+      <c r="AD21" s="21">
         <v>1.9310952187069182E-2</v>
       </c>
-      <c r="AE21" s="27">
+      <c r="AE21" s="21">
         <v>5.6675007801865941E-2</v>
       </c>
-      <c r="AF21" s="27"/>
-      <c r="AG21" s="27"/>
-      <c r="AH21" s="27">
+      <c r="AF21" s="21"/>
+      <c r="AG21" s="21"/>
+      <c r="AH21" s="21">
         <v>2.2984574568924398E-2</v>
       </c>
-      <c r="AI21" s="27">
+      <c r="AI21" s="21">
         <v>2.3555906528887137E-2</v>
       </c>
-      <c r="AJ21" s="27"/>
-      <c r="AK21" s="27"/>
-      <c r="AL21" s="27">
+      <c r="AJ21" s="21"/>
+      <c r="AK21" s="21"/>
+      <c r="AL21" s="21">
         <v>1.1664163850352774E-2</v>
       </c>
-      <c r="AM21" s="27">
+      <c r="AM21" s="21">
         <v>1.2133751475634506E-2</v>
       </c>
-      <c r="AN21" s="27">
+      <c r="AN21" s="21">
         <v>2.039024779799407E-2</v>
       </c>
-      <c r="AO21" s="27">
+      <c r="AO21" s="21">
         <v>2.0507696795965438E-2</v>
       </c>
-      <c r="AP21" s="27"/>
-      <c r="AQ21" s="27"/>
-      <c r="AR21" s="27"/>
-      <c r="AS21" s="27"/>
-      <c r="AT21" s="27"/>
-      <c r="AU21" s="27">
+      <c r="AP21" s="21"/>
+      <c r="AQ21" s="21"/>
+      <c r="AR21" s="21"/>
+      <c r="AS21" s="21"/>
+      <c r="AT21" s="21"/>
+      <c r="AU21" s="21">
         <f t="shared" si="0"/>
         <v>0.80225336460326513</v>
       </c>
-      <c r="AV21" s="27"/>
-      <c r="AW21" s="27"/>
-      <c r="AX21" s="27"/>
-      <c r="AY21" s="27"/>
-      <c r="AZ21" s="27"/>
-      <c r="BA21" s="27"/>
-      <c r="BB21" s="27"/>
-      <c r="BC21" s="27"/>
-      <c r="BD21" s="27"/>
-      <c r="BE21" s="27"/>
-      <c r="BF21" s="27"/>
-      <c r="BG21" s="27"/>
-      <c r="BH21" s="27"/>
-      <c r="BI21" s="27"/>
-      <c r="BJ21" s="27"/>
-      <c r="BK21" s="27"/>
-      <c r="BL21" s="27"/>
-      <c r="BM21" s="27"/>
-      <c r="BN21" s="27"/>
-      <c r="BO21" s="27"/>
-      <c r="BP21" s="27"/>
-      <c r="BQ21" s="27"/>
-      <c r="BR21" s="27"/>
-      <c r="BS21" s="27"/>
-      <c r="BT21" s="27"/>
-      <c r="BU21" s="27"/>
-      <c r="BV21" s="27"/>
-      <c r="BW21" s="27"/>
-      <c r="BX21" s="27"/>
-      <c r="BY21" s="27"/>
-      <c r="BZ21" s="27"/>
-      <c r="CA21" s="27"/>
-      <c r="CB21" s="27"/>
-      <c r="CC21" s="27"/>
-      <c r="CD21" s="27"/>
-      <c r="CE21" s="27"/>
-      <c r="CF21" s="27"/>
-      <c r="CG21" s="27"/>
-      <c r="CH21" s="27"/>
-      <c r="CI21" s="27"/>
-      <c r="CJ21" s="27"/>
-      <c r="CK21" s="27"/>
-      <c r="CL21" s="27"/>
-      <c r="CM21" s="27"/>
-      <c r="CN21" s="27"/>
-      <c r="CO21" s="27"/>
-      <c r="CP21" s="27"/>
-      <c r="CQ21" s="27"/>
-      <c r="CR21" s="27"/>
-      <c r="CS21" s="27"/>
-      <c r="CT21" s="27"/>
-      <c r="CU21" s="27"/>
-      <c r="CV21" s="27"/>
-      <c r="CW21" s="27"/>
-      <c r="CX21" s="27"/>
-      <c r="CY21" s="27"/>
-      <c r="CZ21" s="27"/>
-      <c r="DA21" s="27"/>
-      <c r="DB21" s="27"/>
-      <c r="DC21" s="27"/>
-      <c r="DD21" s="27"/>
-      <c r="DE21" s="27"/>
-      <c r="DF21" s="27"/>
-      <c r="DG21" s="27"/>
-      <c r="DH21" s="27"/>
-      <c r="DI21" s="27"/>
-      <c r="DJ21" s="27"/>
-      <c r="DK21" s="27"/>
-      <c r="DL21" s="27"/>
-      <c r="DM21" s="27"/>
-      <c r="DN21" s="27"/>
-      <c r="DO21" s="27"/>
-      <c r="DP21" s="27"/>
-      <c r="DQ21" s="27"/>
-      <c r="DR21" s="27"/>
-      <c r="DS21" s="27"/>
-      <c r="DT21" s="27"/>
-      <c r="DU21" s="27"/>
-      <c r="DV21" s="27"/>
-      <c r="DW21" s="27"/>
-      <c r="DX21" s="27"/>
-      <c r="DY21" s="27"/>
-      <c r="DZ21" s="27"/>
-      <c r="EA21" s="27"/>
-      <c r="EB21" s="27"/>
-      <c r="EC21" s="27"/>
-      <c r="ED21" s="27"/>
-      <c r="EE21" s="27"/>
-      <c r="EF21" s="27"/>
-      <c r="EG21" s="27"/>
-      <c r="EH21" s="27"/>
-      <c r="EI21" s="27"/>
-      <c r="EJ21" s="27"/>
-      <c r="EK21" s="27"/>
-      <c r="EL21" s="27"/>
-      <c r="EM21" s="27"/>
-      <c r="EN21" s="27"/>
-      <c r="EO21" s="27"/>
-      <c r="EP21" s="27"/>
-      <c r="EQ21" s="27"/>
-      <c r="ER21" s="27"/>
-      <c r="ES21" s="27"/>
-      <c r="ET21" s="27"/>
-      <c r="EU21" s="27"/>
-      <c r="EV21" s="27"/>
-      <c r="EW21" s="27"/>
-      <c r="EX21" s="27"/>
-      <c r="EY21" s="27"/>
-      <c r="EZ21" s="27"/>
-      <c r="FA21" s="27"/>
-      <c r="FB21" s="27"/>
-      <c r="FC21" s="27"/>
-      <c r="FD21" s="27"/>
-      <c r="FE21" s="27"/>
-      <c r="FF21" s="27"/>
-      <c r="FG21" s="27"/>
-      <c r="FH21" s="27"/>
-      <c r="FI21" s="27"/>
-      <c r="FJ21" s="27"/>
-      <c r="FK21" s="27"/>
-      <c r="FL21" s="27"/>
-      <c r="FM21" s="27"/>
-      <c r="FN21" s="27"/>
-      <c r="FO21" s="27"/>
-      <c r="FP21" s="27"/>
-      <c r="FQ21" s="27"/>
-      <c r="FR21" s="27"/>
-      <c r="FS21" s="27"/>
-      <c r="FT21" s="27"/>
-      <c r="FU21" s="27"/>
-      <c r="FV21" s="27"/>
-      <c r="FW21" s="27"/>
-      <c r="FX21" s="27"/>
-      <c r="FY21" s="27"/>
-      <c r="FZ21" s="27"/>
-      <c r="GA21" s="27"/>
-      <c r="GB21" s="27"/>
-      <c r="GC21" s="27"/>
-      <c r="GD21" s="27"/>
-      <c r="GE21" s="27"/>
-      <c r="GF21" s="27"/>
-      <c r="GG21" s="27"/>
-      <c r="GH21" s="27"/>
-      <c r="GI21" s="27"/>
-      <c r="GJ21" s="27"/>
-      <c r="GK21" s="27"/>
-      <c r="GL21" s="27"/>
-      <c r="GM21" s="27"/>
-      <c r="GN21" s="27"/>
-      <c r="GO21" s="27"/>
-      <c r="GP21" s="27"/>
-      <c r="GQ21" s="27"/>
-      <c r="GR21" s="27"/>
-      <c r="GS21" s="27"/>
-      <c r="GT21" s="27"/>
-      <c r="GU21" s="27"/>
-      <c r="GV21" s="27"/>
-      <c r="GW21" s="27"/>
-      <c r="GX21" s="27"/>
-      <c r="GY21" s="27"/>
-      <c r="GZ21" s="27"/>
-      <c r="HA21" s="27"/>
-      <c r="HB21" s="27"/>
-      <c r="HC21" s="27"/>
-      <c r="HD21" s="27"/>
-      <c r="HE21" s="27"/>
-      <c r="HF21" s="27"/>
-      <c r="HG21" s="27"/>
+      <c r="AV21" s="21"/>
+      <c r="AW21" s="21"/>
+      <c r="AX21" s="21"/>
+      <c r="AY21" s="21"/>
+      <c r="AZ21" s="21"/>
+      <c r="BA21" s="21"/>
+      <c r="BB21" s="21"/>
+      <c r="BC21" s="21"/>
+      <c r="BD21" s="21"/>
+      <c r="BE21" s="21"/>
+      <c r="BF21" s="21"/>
+      <c r="BG21" s="21"/>
+      <c r="BH21" s="21"/>
+      <c r="BI21" s="21"/>
+      <c r="BJ21" s="21"/>
+      <c r="BK21" s="21"/>
+      <c r="BL21" s="21"/>
+      <c r="BM21" s="21"/>
+      <c r="BN21" s="21"/>
+      <c r="BO21" s="21"/>
+      <c r="BP21" s="21"/>
+      <c r="BQ21" s="21"/>
+      <c r="BR21" s="21"/>
+      <c r="BS21" s="21"/>
+      <c r="BT21" s="21"/>
+      <c r="BU21" s="21"/>
+      <c r="BV21" s="21"/>
+      <c r="BW21" s="21"/>
+      <c r="BX21" s="21"/>
+      <c r="BY21" s="21"/>
+      <c r="BZ21" s="21"/>
+      <c r="CA21" s="21"/>
+      <c r="CB21" s="21"/>
+      <c r="CC21" s="21"/>
+      <c r="CD21" s="21"/>
+      <c r="CE21" s="21"/>
+      <c r="CF21" s="21"/>
+      <c r="CG21" s="21"/>
+      <c r="CH21" s="21"/>
+      <c r="CI21" s="21"/>
+      <c r="CJ21" s="21"/>
+      <c r="CK21" s="21"/>
+      <c r="CL21" s="21"/>
+      <c r="CM21" s="21"/>
+      <c r="CN21" s="21"/>
+      <c r="CO21" s="21"/>
+      <c r="CP21" s="21"/>
+      <c r="CQ21" s="21"/>
+      <c r="CR21" s="21"/>
+      <c r="CS21" s="21"/>
+      <c r="CT21" s="21"/>
+      <c r="CU21" s="21"/>
+      <c r="CV21" s="21"/>
+      <c r="CW21" s="21"/>
+      <c r="CX21" s="21"/>
+      <c r="CY21" s="21"/>
+      <c r="CZ21" s="21"/>
+      <c r="DA21" s="21"/>
+      <c r="DB21" s="21"/>
+      <c r="DC21" s="21"/>
+      <c r="DD21" s="21"/>
+      <c r="DE21" s="21"/>
+      <c r="DF21" s="21"/>
+      <c r="DG21" s="21"/>
+      <c r="DH21" s="21"/>
+      <c r="DI21" s="21"/>
+      <c r="DJ21" s="21"/>
+      <c r="DK21" s="21"/>
+      <c r="DL21" s="21"/>
+      <c r="DM21" s="21"/>
+      <c r="DN21" s="21"/>
+      <c r="DO21" s="21"/>
+      <c r="DP21" s="21"/>
+      <c r="DQ21" s="21"/>
+      <c r="DR21" s="21"/>
+      <c r="DS21" s="21"/>
+      <c r="DT21" s="21"/>
+      <c r="DU21" s="21"/>
+      <c r="DV21" s="21"/>
+      <c r="DW21" s="21"/>
+      <c r="DX21" s="21"/>
+      <c r="DY21" s="21"/>
+      <c r="DZ21" s="21"/>
+      <c r="EA21" s="21"/>
+      <c r="EB21" s="21"/>
+      <c r="EC21" s="21"/>
+      <c r="ED21" s="21"/>
+      <c r="EE21" s="21"/>
+      <c r="EF21" s="21"/>
+      <c r="EG21" s="21"/>
+      <c r="EH21" s="21"/>
+      <c r="EI21" s="21"/>
+      <c r="EJ21" s="21"/>
+      <c r="EK21" s="21"/>
+      <c r="EL21" s="21"/>
+      <c r="EM21" s="21"/>
+      <c r="EN21" s="21"/>
+      <c r="EO21" s="21"/>
+      <c r="EP21" s="21"/>
+      <c r="EQ21" s="21"/>
+      <c r="ER21" s="21"/>
+      <c r="ES21" s="21"/>
+      <c r="ET21" s="21"/>
+      <c r="EU21" s="21"/>
+      <c r="EV21" s="21"/>
+      <c r="EW21" s="21"/>
+      <c r="EX21" s="21"/>
+      <c r="EY21" s="21"/>
+      <c r="EZ21" s="21"/>
+      <c r="FA21" s="21"/>
+      <c r="FB21" s="21"/>
+      <c r="FC21" s="21"/>
+      <c r="FD21" s="21"/>
+      <c r="FE21" s="21"/>
+      <c r="FF21" s="21"/>
+      <c r="FG21" s="21"/>
+      <c r="FH21" s="21"/>
+      <c r="FI21" s="21"/>
+      <c r="FJ21" s="21"/>
+      <c r="FK21" s="21"/>
+      <c r="FL21" s="21"/>
+      <c r="FM21" s="21"/>
+      <c r="FN21" s="21"/>
+      <c r="FO21" s="21"/>
+      <c r="FP21" s="21"/>
+      <c r="FQ21" s="21"/>
+      <c r="FR21" s="21"/>
+      <c r="FS21" s="21"/>
+      <c r="FT21" s="21"/>
+      <c r="FU21" s="21"/>
+      <c r="FV21" s="21"/>
+      <c r="FW21" s="21"/>
+      <c r="FX21" s="21"/>
+      <c r="FY21" s="21"/>
+      <c r="FZ21" s="21"/>
+      <c r="GA21" s="21"/>
+      <c r="GB21" s="21"/>
+      <c r="GC21" s="21"/>
+      <c r="GD21" s="21"/>
+      <c r="GE21" s="21"/>
+      <c r="GF21" s="21"/>
+      <c r="GG21" s="21"/>
+      <c r="GH21" s="21"/>
+      <c r="GI21" s="21"/>
+      <c r="GJ21" s="21"/>
+      <c r="GK21" s="21"/>
+      <c r="GL21" s="21"/>
+      <c r="GM21" s="21"/>
+      <c r="GN21" s="21"/>
+      <c r="GO21" s="21"/>
+      <c r="GP21" s="21"/>
+      <c r="GQ21" s="21"/>
+      <c r="GR21" s="21"/>
+      <c r="GS21" s="21"/>
+      <c r="GT21" s="21"/>
+      <c r="GU21" s="21"/>
+      <c r="GV21" s="21"/>
+      <c r="GW21" s="21"/>
+      <c r="GX21" s="21"/>
+      <c r="GY21" s="21"/>
+      <c r="GZ21" s="21"/>
+      <c r="HA21" s="21"/>
+      <c r="HB21" s="21"/>
+      <c r="HC21" s="21"/>
+      <c r="HD21" s="21"/>
+      <c r="HE21" s="21"/>
+      <c r="HF21" s="21"/>
+      <c r="HG21" s="21"/>
     </row>
     <row r="22" spans="1:219" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -8018,10 +7383,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP33"/>
   <sheetViews>
@@ -10515,15 +9881,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E75D22-2A8E-4DC4-A225-847B4DC2CF92}">
   <dimension ref="A1:AG52"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K38" sqref="K38"/>
+      <selection pane="bottomRight" activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13823,2530 +13189,790 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" t="s">
-        <v>6</v>
-      </c>
-      <c r="H28" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28" t="s">
-        <v>8</v>
-      </c>
-      <c r="J28" t="s">
-        <v>9</v>
-      </c>
-      <c r="K28" t="s">
-        <v>10</v>
-      </c>
-      <c r="L28" t="s">
-        <v>11</v>
-      </c>
-      <c r="M28" t="s">
-        <v>12</v>
-      </c>
-      <c r="N28" t="s">
-        <v>14</v>
-      </c>
-      <c r="O28" t="s">
-        <v>15</v>
-      </c>
-      <c r="P28" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>17</v>
-      </c>
-      <c r="R28" t="s">
-        <v>18</v>
-      </c>
-      <c r="S28" t="s">
-        <v>19</v>
-      </c>
-      <c r="T28" t="s">
-        <v>20</v>
-      </c>
-      <c r="U28" t="s">
-        <v>22</v>
-      </c>
-      <c r="V28" t="s">
-        <v>23</v>
-      </c>
-      <c r="W28" t="s">
-        <v>24</v>
-      </c>
-      <c r="X28" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z28" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF28" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG28" t="s">
-        <v>37</v>
-      </c>
-    </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29">
-        <v>0.77087622753295992</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1.6368677440258259E-2</v>
-      </c>
-      <c r="E29" s="4">
-        <v>1.0491981983683358E-2</v>
-      </c>
-      <c r="F29" s="4">
-        <v>4.9924076173700977E-3</v>
-      </c>
-      <c r="G29" s="4">
-        <v>9.3504800989227074E-2</v>
-      </c>
-      <c r="H29" s="4">
-        <v>6.8198351347001059E-3</v>
-      </c>
-      <c r="I29" s="4">
-        <v>4.3427355341230982E-2</v>
-      </c>
-      <c r="J29" s="4">
-        <v>2.5966872877970462E-2</v>
-      </c>
-      <c r="K29" s="4">
-        <v>1.3810116471567315E-2</v>
-      </c>
-      <c r="L29" s="4">
-        <v>9.4796589532267599E-3</v>
-      </c>
-      <c r="M29" s="4">
-        <v>3.6228960438544025E-2</v>
-      </c>
-      <c r="N29" s="4">
-        <v>6.0021340723086505E-3</v>
-      </c>
-      <c r="O29" s="4">
-        <v>2.9076765792041367E-2</v>
-      </c>
-      <c r="P29" s="4">
-        <v>1.0041989867683549E-2</v>
-      </c>
-      <c r="Q29" s="4">
-        <v>7.3594496844822485E-2</v>
-      </c>
-      <c r="R29" s="4">
-        <v>9.5920187289605923E-3</v>
-      </c>
-      <c r="S29" s="4">
-        <v>0.11667180103260902</v>
-      </c>
-      <c r="T29" s="4">
-        <v>1.9568390777638354E-2</v>
-      </c>
-      <c r="U29" s="4">
-        <v>2.9420163417660437E-2</v>
-      </c>
-      <c r="V29" s="4">
-        <v>5.37493811191842E-3</v>
-      </c>
-      <c r="W29" s="4">
-        <v>7.9613667315148046E-2</v>
-      </c>
-      <c r="X29" s="4">
-        <v>1.8916479067764117E-2</v>
-      </c>
-      <c r="Y29" s="4">
-        <v>6.078067772336363E-4</v>
-      </c>
-      <c r="Z29" s="4">
-        <v>2.4466305833594573E-2</v>
-      </c>
-      <c r="AA29" s="4">
-        <v>2.3155533789739825E-2</v>
-      </c>
-      <c r="AB29" s="4">
-        <v>2.769945299208491E-2</v>
-      </c>
-      <c r="AC29" s="4">
-        <v>1.944716761092664E-2</v>
-      </c>
-      <c r="AD29" s="4">
-        <v>8.2831766020444349E-3</v>
-      </c>
-      <c r="AE29" s="4">
-        <v>8.2532716510023384E-3</v>
-      </c>
-      <c r="AF29" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG29" s="4">
-        <v>0</v>
-      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+      <c r="AF29" s="4"/>
+      <c r="AG29" s="4"/>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30">
-        <v>0.78334929518237717</v>
-      </c>
-      <c r="D30" s="4">
-        <v>1.9389552114477768E-2</v>
-      </c>
-      <c r="E30" s="4">
-        <v>3.0193431780526046E-2</v>
-      </c>
-      <c r="F30" s="4">
-        <v>4.9729527496025624E-3</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0.11397980595340118</v>
-      </c>
-      <c r="H30" s="4">
-        <v>1.2438971868728796E-2</v>
-      </c>
-      <c r="I30" s="4">
-        <v>5.1940204726568677E-2</v>
-      </c>
-      <c r="J30" s="4">
-        <v>1.3360237931919584E-2</v>
-      </c>
-      <c r="K30" s="4">
-        <v>1.3061929993842295E-2</v>
-      </c>
-      <c r="L30" s="4">
-        <v>1.6476782251790039E-2</v>
-      </c>
-      <c r="M30" s="4">
-        <v>4.1062765925100213E-2</v>
-      </c>
-      <c r="N30" s="4">
-        <v>8.4908998967203747E-3</v>
-      </c>
-      <c r="O30" s="4">
-        <v>1.7359600990048945E-2</v>
-      </c>
-      <c r="P30" s="4">
-        <v>1.5067549201889709E-2</v>
-      </c>
-      <c r="Q30" s="4">
-        <v>8.5082943668413583E-2</v>
-      </c>
-      <c r="R30" s="4">
-        <v>1.3207409174932077E-2</v>
-      </c>
-      <c r="S30" s="4">
-        <v>7.16651947525868E-2</v>
-      </c>
-      <c r="T30" s="4">
-        <v>4.1583357418911691E-2</v>
-      </c>
-      <c r="U30" s="4">
-        <v>3.9279625925257931E-2</v>
-      </c>
-      <c r="V30" s="4">
-        <v>6.4976120991378566E-3</v>
-      </c>
-      <c r="W30" s="4">
-        <v>6.0782249608037214E-2</v>
-      </c>
-      <c r="X30" s="4">
-        <v>1.7461374010378786E-2</v>
-      </c>
-      <c r="Y30" s="4">
-        <v>2.1243322921098854E-5</v>
-      </c>
-      <c r="Z30" s="4">
-        <v>1.9266401571340283E-2</v>
-      </c>
-      <c r="AA30" s="4">
-        <v>1.6742485269503313E-2</v>
-      </c>
-      <c r="AB30" s="4">
-        <v>3.2691521479961544E-2</v>
-      </c>
-      <c r="AC30" s="4">
-        <v>5.8770870930235017E-3</v>
-      </c>
-      <c r="AD30" s="4">
-        <v>5.8836753461294399E-3</v>
-      </c>
-      <c r="AE30" s="4">
-        <v>9.5124290572257547E-3</v>
-      </c>
-      <c r="AF30" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG30" s="4">
-        <v>0</v>
-      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+      <c r="AF30" s="4"/>
+      <c r="AG30" s="4"/>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31">
-        <v>0.79767620097452685</v>
-      </c>
-      <c r="D31" s="4">
-        <v>2.0786634634740942E-2</v>
-      </c>
-      <c r="E31" s="4">
-        <v>1.0419481544966611E-2</v>
-      </c>
-      <c r="F31" s="4">
-        <v>8.8428954697498726E-3</v>
-      </c>
-      <c r="G31" s="4">
-        <v>8.078146991905702E-2</v>
-      </c>
-      <c r="H31" s="4">
-        <v>1.0481568540200652E-2</v>
-      </c>
-      <c r="I31" s="4">
-        <v>3.8167873088233002E-2</v>
-      </c>
-      <c r="J31" s="4">
-        <v>1.7429427298154773E-2</v>
-      </c>
-      <c r="K31" s="4">
-        <v>1.2896726157204667E-2</v>
-      </c>
-      <c r="L31" s="4">
-        <v>1.0858972557631772E-2</v>
-      </c>
-      <c r="M31" s="4">
-        <v>2.8576636612932266E-2</v>
-      </c>
-      <c r="N31" s="4">
-        <v>4.4600066083221902E-3</v>
-      </c>
-      <c r="O31" s="4">
-        <v>1.429222377945698E-2</v>
-      </c>
-      <c r="P31" s="4">
-        <v>1.4332551960593846E-2</v>
-      </c>
-      <c r="Q31" s="4">
-        <v>7.4132592374365786E-2</v>
-      </c>
-      <c r="R31" s="4">
-        <v>1.5544403207269115E-2</v>
-      </c>
-      <c r="S31" s="4">
-        <v>9.8710155786890699E-2</v>
-      </c>
-      <c r="T31" s="4">
-        <v>4.353867335975322E-2</v>
-      </c>
-      <c r="U31" s="4">
-        <v>2.6256639940290649E-2</v>
-      </c>
-      <c r="V31" s="4">
-        <v>5.1721461290293496E-3</v>
-      </c>
-      <c r="W31" s="4">
-        <v>5.6390874873687859E-2</v>
-      </c>
-      <c r="X31" s="4">
-        <v>1.9449837538728296E-2</v>
-      </c>
-      <c r="Y31" s="4">
-        <v>3.8178307403162323E-3</v>
-      </c>
-      <c r="Z31" s="4">
-        <v>3.0858023150562679E-2</v>
-      </c>
-      <c r="AA31" s="4">
-        <v>2.2608341348671058E-2</v>
-      </c>
-      <c r="AB31" s="4">
-        <v>7.8572213601878368E-2</v>
-      </c>
-      <c r="AC31" s="4">
-        <v>2.385185516705492E-2</v>
-      </c>
-      <c r="AD31" s="4">
-        <v>6.5616441776336814E-3</v>
-      </c>
-      <c r="AE31" s="4">
-        <v>7.3731793193282996E-3</v>
-      </c>
-      <c r="AF31" s="4">
-        <v>1.2511322087821908E-2</v>
-      </c>
-      <c r="AG31" s="4">
-        <v>1.2511322087821908E-2</v>
-      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="4"/>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32">
-        <v>0.81888041929179622</v>
-      </c>
-      <c r="D32" s="4">
-        <v>2.5307932891189086E-2</v>
-      </c>
-      <c r="E32" s="4">
-        <v>2.274444128402028E-2</v>
-      </c>
-      <c r="F32" s="4">
-        <v>1.2942524184788648E-2</v>
-      </c>
-      <c r="G32" s="4">
-        <v>6.8175634156485129E-2</v>
-      </c>
-      <c r="H32" s="4">
-        <v>1.1272634784286861E-2</v>
-      </c>
-      <c r="I32" s="4">
-        <v>3.9605240246507328E-2</v>
-      </c>
-      <c r="J32" s="4">
-        <v>1.2801245732476017E-2</v>
-      </c>
-      <c r="K32" s="4">
-        <v>1.1236603326483841E-2</v>
-      </c>
-      <c r="L32" s="4">
-        <v>5.0153469439837475E-3</v>
-      </c>
-      <c r="M32" s="4">
-        <v>2.6103354096235265E-2</v>
-      </c>
-      <c r="N32" s="4">
-        <v>4.1615104991206686E-3</v>
-      </c>
-      <c r="O32" s="4">
-        <v>1.4388868839936616E-2</v>
-      </c>
-      <c r="P32" s="4">
-        <v>1.6085400479434089E-2</v>
-      </c>
-      <c r="Q32" s="4">
-        <v>7.7495901093974667E-2</v>
-      </c>
-      <c r="R32" s="4">
-        <v>1.1368144631336334E-2</v>
-      </c>
-      <c r="S32" s="4">
-        <v>0.10890370785404063</v>
-      </c>
-      <c r="T32" s="4">
-        <v>4.8354006944830129E-2</v>
-      </c>
-      <c r="U32" s="4">
-        <v>2.6595313046354794E-2</v>
-      </c>
-      <c r="V32" s="4">
-        <v>8.8495718129986776E-3</v>
-      </c>
-      <c r="W32" s="4">
-        <v>6.7888732189381809E-2</v>
-      </c>
-      <c r="X32" s="4">
-        <v>2.1646885923796738E-2</v>
-      </c>
-      <c r="Y32" s="4">
-        <v>6.7390308574226373E-3</v>
-      </c>
-      <c r="Z32" s="4">
-        <v>3.5540225457388677E-2</v>
-      </c>
-      <c r="AA32" s="4">
-        <v>1.7152560379609976E-2</v>
-      </c>
-      <c r="AB32" s="4">
-        <v>6.8082317069084727E-2</v>
-      </c>
-      <c r="AC32" s="4">
-        <v>1.9786751702856448E-2</v>
-      </c>
-      <c r="AD32" s="4">
-        <v>1.2230077853061658E-2</v>
-      </c>
-      <c r="AE32" s="4">
-        <v>5.7032545681498801E-3</v>
-      </c>
-      <c r="AF32" s="4">
-        <v>1.2703200442560647E-2</v>
-      </c>
-      <c r="AG32" s="4">
-        <v>1.2703200442560647E-2</v>
-      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4"/>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33">
-        <v>0.80846726061496665</v>
-      </c>
-      <c r="D33" s="4">
-        <v>2.8971341629317606E-2</v>
-      </c>
-      <c r="E33" s="4">
-        <v>2.2343898261549242E-2</v>
-      </c>
-      <c r="F33" s="4">
-        <v>1.3572474145933437E-2</v>
-      </c>
-      <c r="G33" s="4">
-        <v>8.0838819514195359E-2</v>
-      </c>
-      <c r="H33" s="4">
-        <v>5.283909241101916E-3</v>
-      </c>
-      <c r="I33" s="4">
-        <v>3.9361059996978129E-2</v>
-      </c>
-      <c r="J33" s="4">
-        <v>5.209407235434815E-3</v>
-      </c>
-      <c r="K33" s="4">
-        <v>1.3798686129272379E-2</v>
-      </c>
-      <c r="L33" s="4">
-        <v>3.3728348627682877E-3</v>
-      </c>
-      <c r="M33" s="4">
-        <v>3.0536484371080027E-2</v>
-      </c>
-      <c r="N33" s="4">
-        <v>1.8174386621378157E-3</v>
-      </c>
-      <c r="O33" s="4">
-        <v>1.7567635037566278E-2</v>
-      </c>
-      <c r="P33" s="4">
-        <v>5.8089881710437098E-3</v>
-      </c>
-      <c r="Q33" s="4">
-        <v>9.669933949682806E-2</v>
-      </c>
-      <c r="R33" s="4">
-        <v>8.5249512653520279E-3</v>
-      </c>
-      <c r="S33" s="4">
-        <v>9.8026004508588324E-2</v>
-      </c>
-      <c r="T33" s="4">
-        <v>4.4332892985276449E-2</v>
-      </c>
-      <c r="U33" s="4">
-        <v>2.9865939865957192E-2</v>
-      </c>
-      <c r="V33" s="4">
-        <v>1.1663558370971753E-2</v>
-      </c>
-      <c r="W33" s="4">
-        <v>8.1653684157515949E-2</v>
-      </c>
-      <c r="X33" s="4">
-        <v>1.6433096623951322E-2</v>
-      </c>
-      <c r="Y33" s="4">
-        <v>1.1445580122289401E-2</v>
-      </c>
-      <c r="Z33" s="4">
-        <v>2.4804975216900758E-2</v>
-      </c>
-      <c r="AA33" s="4">
-        <v>2.6025588566169953E-2</v>
-      </c>
-      <c r="AB33" s="4">
-        <v>4.2802453389511434E-2</v>
-      </c>
-      <c r="AC33" s="4">
-        <v>2.18429249224079E-2</v>
-      </c>
-      <c r="AD33" s="4">
-        <v>8.883343143487394E-3</v>
-      </c>
-      <c r="AE33" s="4">
-        <v>8.662400275736502E-3</v>
-      </c>
-      <c r="AF33" s="4">
-        <v>8.3175504456432566E-3</v>
-      </c>
-      <c r="AG33" s="4">
-        <v>8.3175504456432566E-3</v>
-      </c>
+      <c r="A33"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+      <c r="R33" s="4"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4"/>
+      <c r="AF33" s="4"/>
+      <c r="AG33" s="4"/>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B34" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34">
-        <v>0.83024715428109319</v>
-      </c>
-      <c r="D34" s="4">
-        <v>4.0150222579441647E-2</v>
-      </c>
-      <c r="E34" s="4">
-        <v>2.1628691453503053E-2</v>
-      </c>
-      <c r="F34" s="4">
-        <v>1.2254708157724826E-2</v>
-      </c>
-      <c r="G34" s="4">
-        <v>7.8095627348105157E-2</v>
-      </c>
-      <c r="H34" s="4">
-        <v>5.4872059995287135E-3</v>
-      </c>
-      <c r="I34" s="4">
-        <v>2.871033199986766E-2</v>
-      </c>
-      <c r="J34" s="4">
-        <v>5.567864163218389E-3</v>
-      </c>
-      <c r="K34" s="4">
-        <v>1.1182067254767026E-2</v>
-      </c>
-      <c r="L34" s="4">
-        <v>3.4459484022856461E-3</v>
-      </c>
-      <c r="M34" s="4">
-        <v>2.7253084947220497E-2</v>
-      </c>
-      <c r="N34" s="4">
-        <v>2.522601542077633E-3</v>
-      </c>
-      <c r="O34" s="4">
-        <v>1.699026749041644E-2</v>
-      </c>
-      <c r="P34" s="4">
-        <v>9.9903473376010792E-3</v>
-      </c>
-      <c r="Q34" s="4">
-        <v>0.10371965816089573</v>
-      </c>
-      <c r="R34" s="4">
-        <v>1.4393816772609511E-2</v>
-      </c>
-      <c r="S34" s="4">
-        <v>7.9599131866944312E-2</v>
-      </c>
-      <c r="T34" s="4">
-        <v>5.0627782217804417E-2</v>
-      </c>
-      <c r="U34" s="4">
-        <v>2.1525546867816114E-2</v>
-      </c>
-      <c r="V34" s="4">
-        <v>1.8812332887953184E-2</v>
-      </c>
-      <c r="W34" s="4">
-        <v>5.9051627206029585E-2</v>
-      </c>
-      <c r="X34" s="4">
-        <v>2.4093438556971946E-2</v>
-      </c>
-      <c r="Y34" s="4">
-        <v>1.0488331622761983E-2</v>
-      </c>
-      <c r="Z34" s="4">
-        <v>3.5687813851484541E-2</v>
-      </c>
-      <c r="AA34" s="4">
-        <v>2.5999465012151429E-2</v>
-      </c>
-      <c r="AB34" s="4">
-        <v>4.7920065916623851E-2</v>
-      </c>
-      <c r="AC34" s="4">
-        <v>2.2677812633119149E-2</v>
-      </c>
-      <c r="AD34" s="4">
-        <v>1.4827217202129121E-2</v>
-      </c>
-      <c r="AE34" s="4">
-        <v>8.1383001608093704E-3</v>
-      </c>
-      <c r="AF34" s="4">
-        <v>2.9405844669230921E-2</v>
-      </c>
-      <c r="AG34" s="4">
-        <v>2.9405844669230921E-2</v>
-      </c>
+      <c r="A34"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4"/>
+      <c r="AF34" s="4"/>
+      <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35">
-        <v>0.78791200288216234</v>
-      </c>
-      <c r="D35" s="4">
-        <v>5.0777641429969295E-2</v>
-      </c>
-      <c r="E35" s="4">
-        <v>2.7490700801652394E-2</v>
-      </c>
-      <c r="F35" s="4">
-        <v>1.2731653296746626E-2</v>
-      </c>
-      <c r="G35" s="4">
-        <v>9.3431538749776527E-2</v>
-      </c>
-      <c r="H35" s="4">
-        <v>3.8366207988674065E-3</v>
-      </c>
-      <c r="I35" s="4">
-        <v>2.9277413354121064E-2</v>
-      </c>
-      <c r="J35" s="4">
-        <v>8.1439429841996969E-3</v>
-      </c>
-      <c r="K35" s="4">
-        <v>1.1000083747584028E-2</v>
-      </c>
-      <c r="L35" s="4">
-        <v>5.1363303560422492E-3</v>
-      </c>
-      <c r="M35" s="4">
-        <v>2.3446985101108663E-2</v>
-      </c>
-      <c r="N35" s="4">
-        <v>1.3006798307971006E-2</v>
-      </c>
-      <c r="O35" s="4">
-        <v>1.4091964879548875E-2</v>
-      </c>
-      <c r="P35" s="4">
-        <v>9.1250148572094212E-4</v>
-      </c>
-      <c r="Q35" s="4">
-        <v>5.291270501111079E-2</v>
-      </c>
-      <c r="R35" s="4">
-        <v>1.6149858344584361E-2</v>
-      </c>
-      <c r="S35" s="4">
-        <v>7.2564163528456058E-2</v>
-      </c>
-      <c r="T35" s="4">
-        <v>4.4257380172357634E-2</v>
-      </c>
-      <c r="U35" s="4">
-        <v>2.7947436585201317E-2</v>
-      </c>
-      <c r="V35" s="4">
-        <v>1.5091156427837435E-2</v>
-      </c>
-      <c r="W35" s="4">
-        <v>5.2579251738170248E-2</v>
-      </c>
-      <c r="X35" s="4">
-        <v>1.9933160076448287E-2</v>
-      </c>
-      <c r="Y35" s="4">
-        <v>1.3268265972315209E-2</v>
-      </c>
-      <c r="Z35" s="4">
-        <v>3.181536117241645E-2</v>
-      </c>
-      <c r="AA35" s="4">
-        <v>2.8024882344261131E-2</v>
-      </c>
-      <c r="AB35" s="4">
-        <v>4.4720254052395714E-2</v>
-      </c>
-      <c r="AC35" s="4">
-        <v>2.7957910302931425E-2</v>
-      </c>
-      <c r="AD35" s="4">
-        <v>2.3465060774454542E-2</v>
-      </c>
-      <c r="AE35" s="4">
-        <v>8.1649983955199568E-3</v>
-      </c>
-      <c r="AF35" s="4">
-        <v>1.577598269039298E-2</v>
-      </c>
-      <c r="AG35" s="4">
-        <v>1.577598269039298E-2</v>
-      </c>
+      <c r="A35"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+      <c r="AF35" s="4"/>
+      <c r="AG35" s="4"/>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36">
-        <v>0.82703587897279573</v>
-      </c>
-      <c r="D36" s="4">
-        <v>3.7251595444799362E-2</v>
-      </c>
-      <c r="E36" s="4">
-        <v>3.8606388226297153E-2</v>
-      </c>
-      <c r="F36" s="4">
-        <v>1.6190941838244925E-2</v>
-      </c>
-      <c r="G36" s="4">
-        <v>8.4608231069486006E-2</v>
-      </c>
-      <c r="H36" s="4">
-        <v>3.6458097148707991E-3</v>
-      </c>
-      <c r="I36" s="4">
-        <v>2.4688164946588161E-2</v>
-      </c>
-      <c r="J36" s="4">
-        <v>7.2869634268352664E-3</v>
-      </c>
-      <c r="K36" s="4">
-        <v>4.8768137387922787E-2</v>
-      </c>
-      <c r="L36" s="4">
-        <v>3.7868999743160578E-3</v>
-      </c>
-      <c r="M36" s="4">
-        <v>2.3903458044403397E-2</v>
-      </c>
-      <c r="N36" s="4">
-        <v>8.9782379879022704E-3</v>
-      </c>
-      <c r="O36" s="4">
-        <v>1.2446338674473378E-2</v>
-      </c>
-      <c r="P36" s="4">
-        <v>4.4968824990937574E-3</v>
-      </c>
-      <c r="Q36" s="4">
-        <v>4.7990717599011558E-2</v>
-      </c>
-      <c r="R36" s="4">
-        <v>9.3007694176990459E-3</v>
-      </c>
-      <c r="S36" s="4">
-        <v>9.4374812685176973E-2</v>
-      </c>
-      <c r="T36" s="4">
-        <v>4.5027810814053451E-2</v>
-      </c>
-      <c r="U36" s="4">
-        <v>3.0674948827326923E-2</v>
-      </c>
-      <c r="V36" s="4">
-        <v>1.6626564504671728E-2</v>
-      </c>
-      <c r="W36" s="4">
-        <v>5.8922710622234725E-2</v>
-      </c>
-      <c r="X36" s="4">
-        <v>2.1773712348891493E-2</v>
-      </c>
-      <c r="Y36" s="4">
-        <v>1.1014613711224875E-2</v>
-      </c>
-      <c r="Z36" s="4">
-        <v>3.8227947772308347E-2</v>
-      </c>
-      <c r="AA36" s="4">
-        <v>3.2841957516225248E-2</v>
-      </c>
-      <c r="AB36" s="4">
-        <v>3.0434086173840424E-2</v>
-      </c>
-      <c r="AC36" s="4">
-        <v>2.7740233133479369E-2</v>
-      </c>
-      <c r="AD36" s="4">
-        <v>1.8523300908989654E-2</v>
-      </c>
-      <c r="AE36" s="4">
-        <v>8.4851701142736498E-3</v>
-      </c>
-      <c r="AF36" s="4">
-        <v>2.0418473588154799E-2</v>
-      </c>
-      <c r="AG36" s="4">
-        <v>2.0418473588154799E-2</v>
-      </c>
+      <c r="A36"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+      <c r="R36" s="4"/>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37">
-        <v>0.82483194385733849</v>
-      </c>
-      <c r="D37" s="4">
-        <v>3.7394556445103345E-2</v>
-      </c>
-      <c r="E37" s="4">
-        <v>5.3610160234293845E-2</v>
-      </c>
-      <c r="F37" s="4">
-        <v>1.7473395398491486E-2</v>
-      </c>
-      <c r="G37" s="4">
-        <v>6.9733725773321764E-2</v>
-      </c>
-      <c r="H37" s="4">
-        <v>3.4908420749060884E-3</v>
-      </c>
-      <c r="I37" s="4">
-        <v>1.8575838258099237E-2</v>
-      </c>
-      <c r="J37" s="4">
-        <v>4.4999845887892815E-3</v>
-      </c>
-      <c r="K37" s="4">
-        <v>6.9945937445321016E-2</v>
-      </c>
-      <c r="L37" s="4">
-        <v>3.9453450015825165E-3</v>
-      </c>
-      <c r="M37" s="4">
-        <v>2.4812429462156765E-2</v>
-      </c>
-      <c r="N37" s="4">
-        <v>1.3971805915347968E-2</v>
-      </c>
-      <c r="O37" s="4">
-        <v>9.8449480857248171E-3</v>
-      </c>
-      <c r="P37" s="4">
-        <v>2.2136407316538913E-2</v>
-      </c>
-      <c r="Q37" s="4">
-        <v>4.0802480417941808E-2</v>
-      </c>
-      <c r="R37" s="4">
-        <v>1.5096084098363162E-2</v>
-      </c>
-      <c r="S37" s="4">
-        <v>9.2702227039241983E-2</v>
-      </c>
-      <c r="T37" s="4">
-        <v>3.7842003524366785E-2</v>
-      </c>
-      <c r="U37" s="4">
-        <v>3.3643954871256078E-2</v>
-      </c>
-      <c r="V37" s="4">
-        <v>1.6357985580785259E-2</v>
-      </c>
-      <c r="W37" s="4">
-        <v>6.5271177640395417E-2</v>
-      </c>
-      <c r="X37" s="4">
-        <v>1.9059009930596171E-2</v>
-      </c>
-      <c r="Y37" s="4">
-        <v>9.9676469279523297E-3</v>
-      </c>
-      <c r="Z37" s="4">
-        <v>3.6684887139120007E-2</v>
-      </c>
-      <c r="AA37" s="4">
-        <v>2.442886687775862E-2</v>
-      </c>
-      <c r="AB37" s="4">
-        <v>1.6449580861003264E-2</v>
-      </c>
-      <c r="AC37" s="4">
-        <v>2.5874692720648979E-2</v>
-      </c>
-      <c r="AD37" s="4">
-        <v>1.2213646997299614E-2</v>
-      </c>
-      <c r="AE37" s="4">
-        <v>1.2634426866502572E-2</v>
-      </c>
-      <c r="AF37" s="4">
-        <v>1.6367896364429355E-2</v>
-      </c>
-      <c r="AG37" s="4">
-        <v>1.6367896364429355E-2</v>
-      </c>
+      <c r="A37"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="4"/>
+      <c r="AE37" s="4"/>
+      <c r="AF37" s="4"/>
+      <c r="AG37" s="4"/>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>48</v>
-      </c>
-      <c r="B38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38">
-        <v>0.82379330232239834</v>
-      </c>
-      <c r="D38" s="4">
-        <v>4.2095963511355382E-2</v>
-      </c>
-      <c r="E38" s="4">
-        <v>3.2840774023337987E-2</v>
-      </c>
-      <c r="F38" s="4">
-        <v>1.6717250436804394E-2</v>
-      </c>
-      <c r="G38" s="4">
-        <v>5.9549689635192728E-2</v>
-      </c>
-      <c r="H38" s="4">
-        <v>1.8085553348341171E-3</v>
-      </c>
-      <c r="I38" s="4">
-        <v>2.1473785703244271E-2</v>
-      </c>
-      <c r="J38" s="4">
-        <v>3.2354072891177103E-3</v>
-      </c>
-      <c r="K38" s="4">
-        <v>3.0954797510510151E-2</v>
-      </c>
-      <c r="L38" s="4">
-        <v>4.6915627270711713E-3</v>
-      </c>
-      <c r="M38" s="4">
-        <v>1.9440083003176418E-2</v>
-      </c>
-      <c r="N38" s="4">
-        <v>3.7069962205750803E-2</v>
-      </c>
-      <c r="O38" s="4">
-        <v>1.0438094858660851E-2</v>
-      </c>
-      <c r="P38" s="4">
-        <v>2.2923389226131935E-2</v>
-      </c>
-      <c r="Q38" s="4">
-        <v>8.1768950538530685E-2</v>
-      </c>
-      <c r="R38" s="4">
-        <v>1.249795585058067E-2</v>
-      </c>
-      <c r="S38" s="4">
-        <v>9.1031957575039568E-2</v>
-      </c>
-      <c r="T38" s="4">
-        <v>3.5256051004046655E-2</v>
-      </c>
-      <c r="U38" s="4">
-        <v>3.2202239055255648E-2</v>
-      </c>
-      <c r="V38" s="4">
-        <v>1.5510829801551393E-2</v>
-      </c>
-      <c r="W38" s="4">
-        <v>5.2181182128542038E-2</v>
-      </c>
-      <c r="X38" s="4">
-        <v>9.3626608090414763E-3</v>
-      </c>
-      <c r="Y38" s="4">
-        <v>1.380812889655547E-2</v>
-      </c>
-      <c r="Z38" s="4">
-        <v>3.4677516373707855E-2</v>
-      </c>
-      <c r="AA38" s="4">
-        <v>3.1214428862418167E-2</v>
-      </c>
-      <c r="AB38" s="4">
-        <v>2.6910474038454216E-2</v>
-      </c>
-      <c r="AC38" s="4">
-        <v>2.6702651578229836E-2</v>
-      </c>
-      <c r="AD38" s="4">
-        <v>1.7090481834541076E-2</v>
-      </c>
-      <c r="AE38" s="4">
-        <v>1.113346066705532E-2</v>
-      </c>
-      <c r="AF38" s="4">
-        <v>2.9205017843660249E-2</v>
-      </c>
-      <c r="AG38" s="4">
-        <v>2.9205017843660249E-2</v>
-      </c>
+      <c r="A38"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+      <c r="R38" s="4"/>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="4"/>
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="4"/>
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="4"/>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39">
-        <v>0.81446998845562435</v>
-      </c>
-      <c r="D39" s="4">
-        <v>4.5725110543015562E-2</v>
-      </c>
-      <c r="E39" s="4">
-        <v>2.1308860657565151E-2</v>
-      </c>
-      <c r="F39" s="4">
-        <v>1.3339128419823806E-2</v>
-      </c>
-      <c r="G39" s="4">
-        <v>7.605362184575043E-2</v>
-      </c>
-      <c r="H39" s="4">
-        <v>9.439060214040066E-3</v>
-      </c>
-      <c r="I39" s="4">
-        <v>1.8615640453066695E-2</v>
-      </c>
-      <c r="J39" s="4">
-        <v>5.6969297461656474E-3</v>
-      </c>
-      <c r="K39" s="4">
-        <v>1.2453627361424083E-2</v>
-      </c>
-      <c r="L39" s="4">
-        <v>4.4058157039671619E-3</v>
-      </c>
-      <c r="M39" s="4">
-        <v>2.7161412644341212E-2</v>
-      </c>
-      <c r="N39" s="4">
-        <v>4.1892450356245559E-2</v>
-      </c>
-      <c r="O39" s="4">
-        <v>1.1922633846492801E-2</v>
-      </c>
-      <c r="P39" s="4">
-        <v>1.0835085793736449E-2</v>
-      </c>
-      <c r="Q39" s="4">
-        <v>5.6573709633966796E-2</v>
-      </c>
-      <c r="R39" s="4">
-        <v>2.8595549987360285E-2</v>
-      </c>
-      <c r="S39" s="4">
-        <v>6.2152395526245949E-2</v>
-      </c>
-      <c r="T39" s="4">
-        <v>4.2601587714077384E-2</v>
-      </c>
-      <c r="U39" s="4">
-        <v>3.2106288632669754E-2</v>
-      </c>
-      <c r="V39" s="4">
-        <v>2.1145302003473674E-2</v>
-      </c>
-      <c r="W39" s="4">
-        <v>4.1263297194680401E-2</v>
-      </c>
-      <c r="X39" s="4">
-        <v>1.3630576583910375E-2</v>
-      </c>
-      <c r="Y39" s="4">
-        <v>1.010511437098144E-2</v>
-      </c>
-      <c r="Z39" s="4">
-        <v>4.5599342302443023E-2</v>
-      </c>
-      <c r="AA39" s="4">
-        <v>2.5268234476501807E-2</v>
-      </c>
-      <c r="AB39" s="4">
-        <v>3.055679753163806E-2</v>
-      </c>
-      <c r="AC39" s="4">
-        <v>3.313199161897596E-2</v>
-      </c>
-      <c r="AD39" s="4">
-        <v>2.5131229876524649E-2</v>
-      </c>
-      <c r="AE39" s="4">
-        <v>1.1606566443928587E-2</v>
-      </c>
-      <c r="AF39" s="4">
-        <v>3.6152626972611533E-2</v>
-      </c>
-      <c r="AG39" s="4">
-        <v>3.6152626972611533E-2</v>
-      </c>
+      <c r="A39"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="4"/>
+      <c r="AD39" s="4"/>
+      <c r="AE39" s="4"/>
+      <c r="AF39" s="4"/>
+      <c r="AG39" s="4"/>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>50</v>
-      </c>
-      <c r="B40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40">
-        <v>0.80590431608965396</v>
-      </c>
-      <c r="D40" s="4">
-        <v>4.7941489998868839E-2</v>
-      </c>
-      <c r="E40" s="4">
-        <v>2.3960715379534054E-2</v>
-      </c>
-      <c r="F40" s="4">
-        <v>1.4080663308315491E-2</v>
-      </c>
-      <c r="G40" s="4">
-        <v>0.10024805791179317</v>
-      </c>
-      <c r="H40" s="4">
-        <v>2.1951817119740681E-2</v>
-      </c>
-      <c r="I40" s="4">
-        <v>2.1567023372534119E-2</v>
-      </c>
-      <c r="J40" s="4">
-        <v>3.8626119032337688E-3</v>
-      </c>
-      <c r="K40" s="4">
-        <v>2.8415581506195473E-2</v>
-      </c>
-      <c r="L40" s="4">
-        <v>5.1561375383136114E-3</v>
-      </c>
-      <c r="M40" s="4">
-        <v>2.926174336583778E-2</v>
-      </c>
-      <c r="N40" s="4">
-        <v>3.5305068853616596E-2</v>
-      </c>
-      <c r="O40" s="4">
-        <v>1.2952288794168203E-2</v>
-      </c>
-      <c r="P40" s="4">
-        <v>1.4010879794346296E-2</v>
-      </c>
-      <c r="Q40" s="4">
-        <v>7.141920431113967E-2</v>
-      </c>
-      <c r="R40" s="4">
-        <v>1.8807551942312813E-2</v>
-      </c>
-      <c r="S40" s="4">
-        <v>4.0085255279793952E-2</v>
-      </c>
-      <c r="T40" s="4">
-        <v>4.5373756065776871E-2</v>
-      </c>
-      <c r="U40" s="4">
-        <v>3.0770281939783751E-2</v>
-      </c>
-      <c r="V40" s="4">
-        <v>2.8779494919003543E-2</v>
-      </c>
-      <c r="W40" s="4">
-        <v>2.8944590784259032E-2</v>
-      </c>
-      <c r="X40" s="4">
-        <v>1.0646680290685429E-2</v>
-      </c>
-      <c r="Y40" s="4">
-        <v>9.7940965662387143E-3</v>
-      </c>
-      <c r="Z40" s="4">
-        <v>3.1029764028307139E-2</v>
-      </c>
-      <c r="AA40" s="4">
-        <v>2.2696862876636695E-2</v>
-      </c>
-      <c r="AB40" s="4">
-        <v>3.5257969879079025E-2</v>
-      </c>
-      <c r="AC40" s="4">
-        <v>2.2785122924423789E-2</v>
-      </c>
-      <c r="AD40" s="4">
-        <v>1.0897245077523165E-2</v>
-      </c>
-      <c r="AE40" s="4">
-        <v>9.0937272868744628E-3</v>
-      </c>
-      <c r="AF40" s="4">
-        <v>3.0808633071317704E-2</v>
-      </c>
-      <c r="AG40" s="4">
-        <v>3.0808633071317704E-2</v>
-      </c>
+      <c r="A40"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4"/>
+      <c r="AD40" s="4"/>
+      <c r="AE40" s="4"/>
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="4"/>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41">
-        <v>0.83477959986029171</v>
-      </c>
-      <c r="D41" s="4">
-        <v>3.3166702899802877E-2</v>
-      </c>
-      <c r="E41" s="4">
-        <v>1.8946431106870696E-2</v>
-      </c>
-      <c r="F41" s="4">
-        <v>1.1639856447678877E-2</v>
-      </c>
-      <c r="G41" s="4">
-        <v>0.10433595029923506</v>
-      </c>
-      <c r="H41" s="4">
-        <v>2.8740559692207918E-2</v>
-      </c>
-      <c r="I41" s="4">
-        <v>2.7732679681549858E-2</v>
-      </c>
-      <c r="J41" s="4">
-        <v>2.3122263483544791E-3</v>
-      </c>
-      <c r="K41" s="4">
-        <v>1.1056608964323603E-2</v>
-      </c>
-      <c r="L41" s="4">
-        <v>4.4770869155978856E-3</v>
-      </c>
-      <c r="M41" s="4">
-        <v>3.5013750615518542E-2</v>
-      </c>
-      <c r="N41" s="4">
-        <v>3.3261127988524757E-2</v>
-      </c>
-      <c r="O41" s="4">
-        <v>6.5345653343772611E-3</v>
-      </c>
-      <c r="P41" s="4">
-        <v>1.9346304240001302E-2</v>
-      </c>
-      <c r="Q41" s="4">
-        <v>6.6399705023171579E-2</v>
-      </c>
-      <c r="R41" s="4">
-        <v>1.2432060527357033E-2</v>
-      </c>
-      <c r="S41" s="4">
-        <v>4.5600041733622039E-2</v>
-      </c>
-      <c r="T41" s="4">
-        <v>4.3906040962786289E-2</v>
-      </c>
-      <c r="U41" s="4">
-        <v>3.0142389975159126E-2</v>
-      </c>
-      <c r="V41" s="4">
-        <v>2.2056347009928798E-2</v>
-      </c>
-      <c r="W41" s="4">
-        <v>2.1171406263413736E-2</v>
-      </c>
-      <c r="X41" s="4">
-        <v>1.3627981861217215E-2</v>
-      </c>
-      <c r="Y41" s="4">
-        <v>1.656840108643903E-2</v>
-      </c>
-      <c r="Z41" s="4">
-        <v>7.0522925680923887E-2</v>
-      </c>
-      <c r="AA41" s="4">
-        <v>2.7081343892104929E-2</v>
-      </c>
-      <c r="AB41" s="4">
-        <v>4.8265340988991878E-2</v>
-      </c>
-      <c r="AC41" s="4">
-        <v>2.4940670375467659E-2</v>
-      </c>
-      <c r="AD41" s="4">
-        <v>1.800093353345698E-2</v>
-      </c>
-      <c r="AE41" s="4">
-        <v>9.1158852311887077E-3</v>
-      </c>
-      <c r="AF41" s="4">
-        <v>2.8384275181019832E-2</v>
-      </c>
-      <c r="AG41" s="4">
-        <v>2.8384275181019832E-2</v>
-      </c>
+      <c r="A41"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="4"/>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="4"/>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>52</v>
-      </c>
-      <c r="B42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42">
-        <v>0.83286068421280779</v>
-      </c>
-      <c r="D42" s="4">
-        <v>4.0167800324942791E-2</v>
-      </c>
-      <c r="E42" s="4">
-        <v>3.2191099767346194E-2</v>
-      </c>
-      <c r="F42" s="4">
-        <v>1.2907051867610275E-2</v>
-      </c>
-      <c r="G42" s="4">
-        <v>0.10500319459609544</v>
-      </c>
-      <c r="H42" s="4">
-        <v>2.4625544807319714E-2</v>
-      </c>
-      <c r="I42" s="4">
-        <v>1.9365755957422483E-2</v>
-      </c>
-      <c r="J42" s="4">
-        <v>4.0271206491081808E-3</v>
-      </c>
-      <c r="K42" s="4">
-        <v>1.28370707510094E-2</v>
-      </c>
-      <c r="L42" s="4">
-        <v>3.7585813152092181E-3</v>
-      </c>
-      <c r="M42" s="4">
-        <v>3.5941819591274668E-2</v>
-      </c>
-      <c r="N42" s="4">
-        <v>2.8656789331342625E-2</v>
-      </c>
-      <c r="O42" s="4">
-        <v>6.3807832966654475E-3</v>
-      </c>
-      <c r="P42" s="4">
-        <v>1.5699041373991356E-2</v>
-      </c>
-      <c r="Q42" s="4">
-        <v>6.7711718944998001E-2</v>
-      </c>
-      <c r="R42" s="4">
-        <v>1.500636776948128E-2</v>
-      </c>
-      <c r="S42" s="4">
-        <v>3.5865558670246177E-2</v>
-      </c>
-      <c r="T42" s="4">
-        <v>3.2457515315742223E-2</v>
-      </c>
-      <c r="U42" s="4">
-        <v>2.1983039481011515E-2</v>
-      </c>
-      <c r="V42" s="4">
-        <v>1.2892005235330972E-2</v>
-      </c>
-      <c r="W42" s="4">
-        <v>1.770577552551289E-2</v>
-      </c>
-      <c r="X42" s="4">
-        <v>1.6773462438989056E-2</v>
-      </c>
-      <c r="Y42" s="4">
-        <v>1.3177843987395374E-2</v>
-      </c>
-      <c r="Z42" s="4">
-        <v>7.5352881708570088E-2</v>
-      </c>
-      <c r="AA42" s="4">
-        <v>5.4429001571233419E-2</v>
-      </c>
-      <c r="AB42" s="4">
-        <v>5.5785451103128117E-2</v>
-      </c>
-      <c r="AC42" s="4">
-        <v>1.9334836814588179E-2</v>
-      </c>
-      <c r="AD42" s="4">
-        <v>1.7378515503610966E-2</v>
-      </c>
-      <c r="AE42" s="4">
-        <v>9.8389934256044725E-3</v>
-      </c>
-      <c r="AF42" s="4">
-        <v>2.5606063088027271E-2</v>
-      </c>
-      <c r="AG42" s="4">
-        <v>2.5606063088027271E-2</v>
-      </c>
+      <c r="A42"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="4"/>
+      <c r="AE42" s="4"/>
+      <c r="AF42" s="4"/>
+      <c r="AG42" s="4"/>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" t="s">
-        <v>39</v>
-      </c>
-      <c r="C43">
-        <v>0.84354883586446394</v>
-      </c>
-      <c r="D43" s="4">
-        <v>3.1102379464113157E-2</v>
-      </c>
-      <c r="E43" s="4">
-        <v>2.5432837606136734E-2</v>
-      </c>
-      <c r="F43" s="4">
-        <v>1.6975801898412052E-2</v>
-      </c>
-      <c r="G43" s="4">
-        <v>9.7839610497260421E-2</v>
-      </c>
-      <c r="H43" s="4">
-        <v>2.1787621955505532E-2</v>
-      </c>
-      <c r="I43" s="4">
-        <v>2.153652208714691E-2</v>
-      </c>
-      <c r="J43" s="4">
-        <v>7.3727826303609913E-3</v>
-      </c>
-      <c r="K43" s="4">
-        <v>1.3151497378778554E-2</v>
-      </c>
-      <c r="L43" s="4">
-        <v>3.6624923220884725E-3</v>
-      </c>
-      <c r="M43" s="4">
-        <v>2.2965918900627078E-2</v>
-      </c>
-      <c r="N43" s="4">
-        <v>2.0040307743083609E-2</v>
-      </c>
-      <c r="O43" s="4">
-        <v>5.141331406242183E-3</v>
-      </c>
-      <c r="P43" s="4">
-        <v>1.5051163763903551E-2</v>
-      </c>
-      <c r="Q43" s="4">
-        <v>7.4680958422441213E-2</v>
-      </c>
-      <c r="R43" s="4">
-        <v>1.2142097600025735E-2</v>
-      </c>
-      <c r="S43" s="4">
-        <v>5.4032793704757179E-2</v>
-      </c>
-      <c r="T43" s="4">
-        <v>3.0435844688253746E-2</v>
-      </c>
-      <c r="U43" s="4">
-        <v>2.5825445500040255E-2</v>
-      </c>
-      <c r="V43" s="4">
-        <v>1.4010634503313257E-2</v>
-      </c>
-      <c r="W43" s="4">
-        <v>1.9808019625997379E-2</v>
-      </c>
-      <c r="X43" s="4">
-        <v>1.0494275383997919E-2</v>
-      </c>
-      <c r="Y43" s="4">
-        <v>1.3552494224292135E-2</v>
-      </c>
-      <c r="Z43" s="4">
-        <v>6.2846803957076494E-2</v>
-      </c>
-      <c r="AA43" s="4">
-        <v>4.9456494469097036E-2</v>
-      </c>
-      <c r="AB43" s="4">
-        <v>7.5733323670154562E-2</v>
-      </c>
-      <c r="AC43" s="4">
-        <v>2.0746058519528276E-2</v>
-      </c>
-      <c r="AD43" s="4">
-        <v>1.9853638503139658E-2</v>
-      </c>
-      <c r="AE43" s="4">
-        <v>1.1947290831681719E-2</v>
-      </c>
-      <c r="AF43" s="4">
-        <v>4.5922394607008137E-2</v>
-      </c>
-      <c r="AG43" s="4">
-        <v>4.5922394607008137E-2</v>
-      </c>
+      <c r="A43"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="4"/>
+      <c r="AB43" s="4"/>
+      <c r="AC43" s="4"/>
+      <c r="AD43" s="4"/>
+      <c r="AE43" s="4"/>
+      <c r="AF43" s="4"/>
+      <c r="AG43" s="4"/>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>54</v>
-      </c>
-      <c r="B44" t="s">
-        <v>39</v>
-      </c>
-      <c r="C44">
-        <v>0.83484577914242863</v>
-      </c>
-      <c r="D44" s="4">
-        <v>2.2373570127420053E-2</v>
-      </c>
-      <c r="E44" s="4">
-        <v>1.9169536680593589E-2</v>
-      </c>
-      <c r="F44" s="4">
-        <v>1.8225473993123416E-2</v>
-      </c>
-      <c r="G44" s="4">
-        <v>7.7764189672404588E-2</v>
-      </c>
-      <c r="H44" s="4">
-        <v>1.796137419948917E-2</v>
-      </c>
-      <c r="I44" s="4">
-        <v>2.0388003269557899E-2</v>
-      </c>
-      <c r="J44" s="4">
-        <v>1.2565903081305058E-2</v>
-      </c>
-      <c r="K44" s="4">
-        <v>1.3740411977976834E-2</v>
-      </c>
-      <c r="L44" s="4">
-        <v>3.6761137277109336E-3</v>
-      </c>
-      <c r="M44" s="4">
-        <v>1.724618580105924E-2</v>
-      </c>
-      <c r="N44" s="4">
-        <v>1.4865476985277007E-2</v>
-      </c>
-      <c r="O44" s="4">
-        <v>5.8243775150217739E-3</v>
-      </c>
-      <c r="P44" s="4">
-        <v>1.3529694465179156E-2</v>
-      </c>
-      <c r="Q44" s="4">
-        <v>0.1088268721999975</v>
-      </c>
-      <c r="R44" s="4">
-        <v>1.8060759133442836E-2</v>
-      </c>
-      <c r="S44" s="4">
-        <v>3.1346856298397348E-2</v>
-      </c>
-      <c r="T44" s="4">
-        <v>2.4460338252502368E-2</v>
-      </c>
-      <c r="U44" s="4">
-        <v>2.4408252463491105E-2</v>
-      </c>
-      <c r="V44" s="4">
-        <v>1.9890933354199589E-2</v>
-      </c>
-      <c r="W44" s="4">
-        <v>2.3036937834089145E-2</v>
-      </c>
-      <c r="X44" s="4">
-        <v>1.3366048607536216E-2</v>
-      </c>
-      <c r="Y44" s="4">
-        <v>2.7924268958900551E-2</v>
-      </c>
-      <c r="Z44" s="4">
-        <v>5.9397134509632361E-2</v>
-      </c>
-      <c r="AA44" s="4">
-        <v>6.0514329895119651E-2</v>
-      </c>
-      <c r="AB44" s="4">
-        <v>7.3415794795686412E-2</v>
-      </c>
-      <c r="AC44" s="4">
-        <v>2.7771271577550841E-2</v>
-      </c>
-      <c r="AD44" s="4">
-        <v>2.1834776186083107E-2</v>
-      </c>
-      <c r="AE44" s="4">
-        <v>1.5707045027513938E-2</v>
-      </c>
-      <c r="AF44" s="4">
-        <v>2.7553848552166874E-2</v>
-      </c>
-      <c r="AG44" s="4">
-        <v>2.7553848552166874E-2</v>
-      </c>
+      <c r="A44"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4"/>
+      <c r="AF44" s="4"/>
+      <c r="AG44" s="4"/>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45">
-        <v>0.81734156496835597</v>
-      </c>
-      <c r="D45" s="4">
-        <v>2.056625102383915E-2</v>
-      </c>
-      <c r="E45" s="4">
-        <v>2.8186898059717896E-2</v>
-      </c>
-      <c r="F45" s="4">
-        <v>1.8465646201408725E-2</v>
-      </c>
-      <c r="G45" s="4">
-        <v>0.1003001669171386</v>
-      </c>
-      <c r="H45" s="4">
-        <v>1.152195228344173E-2</v>
-      </c>
-      <c r="I45" s="4">
-        <v>2.5775141053791716E-2</v>
-      </c>
-      <c r="J45" s="4">
-        <v>1.1438678159919644E-2</v>
-      </c>
-      <c r="K45" s="4">
-        <v>2.3645967192312229E-2</v>
-      </c>
-      <c r="L45" s="4">
-        <v>6.3128765752810696E-3</v>
-      </c>
-      <c r="M45" s="4">
-        <v>2.7302787844979411E-2</v>
-      </c>
-      <c r="N45" s="4">
-        <v>2.7367867914255654E-2</v>
-      </c>
-      <c r="O45" s="4">
-        <v>3.6312127797286354E-3</v>
-      </c>
-      <c r="P45" s="4">
-        <v>1.5808061523513033E-2</v>
-      </c>
-      <c r="Q45" s="4">
-        <v>0.13385564700705044</v>
-      </c>
-      <c r="R45" s="4">
-        <v>1.492278217861751E-2</v>
-      </c>
-      <c r="S45" s="4">
-        <v>3.4421497153419113E-2</v>
-      </c>
-      <c r="T45" s="4">
-        <v>1.1977414351611142E-2</v>
-      </c>
-      <c r="U45" s="4">
-        <v>1.5720780371172246E-2</v>
-      </c>
-      <c r="V45" s="4">
-        <v>1.6533712607986681E-2</v>
-      </c>
-      <c r="W45" s="4">
-        <v>4.6815487867963596E-3</v>
-      </c>
-      <c r="X45" s="4">
-        <v>6.4207453261305326E-3</v>
-      </c>
-      <c r="Y45" s="4">
-        <v>1.6917419644381392E-2</v>
-      </c>
-      <c r="Z45" s="4">
-        <v>6.3408523648290679E-2</v>
-      </c>
-      <c r="AA45" s="4">
-        <v>4.3507923914029113E-2</v>
-      </c>
-      <c r="AB45" s="4">
-        <v>5.925684907239008E-2</v>
-      </c>
-      <c r="AC45" s="4">
-        <v>2.0548178557019865E-2</v>
-      </c>
-      <c r="AD45" s="4">
-        <v>1.848956233788538E-2</v>
-      </c>
-      <c r="AE45" s="4">
-        <v>1.4448936093642227E-2</v>
-      </c>
-      <c r="AF45" s="4">
-        <v>2.1906536388605839E-2</v>
-      </c>
-      <c r="AG45" s="4">
-        <v>2.1906536388605839E-2</v>
-      </c>
+      <c r="A45"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="4"/>
+      <c r="AF45" s="4"/>
+      <c r="AG45" s="4"/>
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>56</v>
-      </c>
-      <c r="B46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46">
-        <v>0.84004911421145778</v>
-      </c>
-      <c r="D46" s="4">
-        <v>2.3711526819143666E-2</v>
-      </c>
-      <c r="E46" s="4">
-        <v>1.2701178658297618E-2</v>
-      </c>
-      <c r="F46" s="4">
-        <v>2.4598040842148592E-2</v>
-      </c>
-      <c r="G46" s="4">
-        <v>0.11125890723677065</v>
-      </c>
-      <c r="H46" s="4">
-        <v>1.075926565685152E-2</v>
-      </c>
-      <c r="I46" s="4">
-        <v>2.8273347926607271E-2</v>
-      </c>
-      <c r="J46" s="4">
-        <v>8.8954040343295106E-3</v>
-      </c>
-      <c r="K46" s="4">
-        <v>2.7620841825017551E-2</v>
-      </c>
-      <c r="L46" s="4">
-        <v>1.2654914888111077E-2</v>
-      </c>
-      <c r="M46" s="4">
-        <v>2.2331037817567959E-2</v>
-      </c>
-      <c r="N46" s="4">
-        <v>1.702190681064299E-2</v>
-      </c>
-      <c r="O46" s="4">
-        <v>4.5116580361587869E-3</v>
-      </c>
-      <c r="P46" s="4">
-        <v>1.8586915016131609E-2</v>
-      </c>
-      <c r="Q46" s="4">
-        <v>0.15034091737253111</v>
-      </c>
-      <c r="R46" s="4">
-        <v>1.6436092129792589E-2</v>
-      </c>
-      <c r="S46" s="4">
-        <v>4.2922877039882089E-2</v>
-      </c>
-      <c r="T46" s="4">
-        <v>1.6042912895048767E-2</v>
-      </c>
-      <c r="U46" s="4">
-        <v>2.0729356822785473E-2</v>
-      </c>
-      <c r="V46" s="4">
-        <v>1.8944860485131367E-2</v>
-      </c>
-      <c r="W46" s="4">
-        <v>1.3445577084004194E-2</v>
-      </c>
-      <c r="X46" s="4">
-        <v>1.2857730134456532E-2</v>
-      </c>
-      <c r="Y46" s="4">
-        <v>1.9766849305409541E-2</v>
-      </c>
-      <c r="Z46" s="4">
-        <v>6.2338052047173305E-2</v>
-      </c>
-      <c r="AA46" s="4">
-        <v>3.5911251718458694E-2</v>
-      </c>
-      <c r="AB46" s="4">
-        <v>4.2769437976171887E-2</v>
-      </c>
-      <c r="AC46" s="4">
-        <v>2.2973003132050689E-2</v>
-      </c>
-      <c r="AD46" s="4">
-        <v>1.7464180877724996E-2</v>
-      </c>
-      <c r="AE46" s="4">
-        <v>1.2881486768094329E-2</v>
-      </c>
-      <c r="AF46" s="4">
-        <v>1.1299582854963736E-2</v>
-      </c>
-      <c r="AG46" s="4">
-        <v>1.1299582854963736E-2</v>
-      </c>
+      <c r="A46"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="4"/>
+      <c r="AB46" s="4"/>
+      <c r="AC46" s="4"/>
+      <c r="AD46" s="4"/>
+      <c r="AE46" s="4"/>
+      <c r="AF46" s="4"/>
+      <c r="AG46" s="4"/>
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" t="s">
-        <v>39</v>
-      </c>
-      <c r="C47">
-        <v>0.81276406127894341</v>
-      </c>
-      <c r="D47" s="4">
-        <v>2.8700064505293683E-2</v>
-      </c>
-      <c r="E47" s="4">
-        <v>1.5927611752419198E-2</v>
-      </c>
-      <c r="F47" s="4">
-        <v>2.7277874202317181E-2</v>
-      </c>
-      <c r="G47" s="4">
-        <v>8.9178306761759571E-2</v>
-      </c>
-      <c r="H47" s="4">
-        <v>1.1114957332689121E-2</v>
-      </c>
-      <c r="I47" s="4">
-        <v>3.5660721732279348E-2</v>
-      </c>
-      <c r="J47" s="4">
-        <v>1.0033959569193928E-2</v>
-      </c>
-      <c r="K47" s="4">
-        <v>3.03197029173655E-2</v>
-      </c>
-      <c r="L47" s="4">
-        <v>1.7960345710481582E-2</v>
-      </c>
-      <c r="M47" s="4">
-        <v>2.3093456555989045E-2</v>
-      </c>
-      <c r="N47" s="4">
-        <v>1.593219355557399E-2</v>
-      </c>
-      <c r="O47" s="4">
-        <v>2.5885488639293477E-3</v>
-      </c>
-      <c r="P47" s="4">
-        <v>2.0054532383737396E-2</v>
-      </c>
-      <c r="Q47" s="4">
-        <v>0.10228634950139119</v>
-      </c>
-      <c r="R47" s="4">
-        <v>1.8535255398775197E-2</v>
-      </c>
-      <c r="S47" s="4">
-        <v>5.5031312721586248E-2</v>
-      </c>
-      <c r="T47" s="4">
-        <v>1.3586507482226324E-2</v>
-      </c>
-      <c r="U47" s="4">
-        <v>2.3233733868166087E-2</v>
-      </c>
-      <c r="V47" s="4">
-        <v>1.7096892199272989E-2</v>
-      </c>
-      <c r="W47" s="4">
-        <v>1.0758451471495319E-2</v>
-      </c>
-      <c r="X47" s="4">
-        <v>9.2449359466118004E-3</v>
-      </c>
-      <c r="Y47" s="4">
-        <v>2.223966257832663E-2</v>
-      </c>
-      <c r="Z47" s="4">
-        <v>6.7674774138395455E-2</v>
-      </c>
-      <c r="AA47" s="4">
-        <v>3.9360503752594776E-2</v>
-      </c>
-      <c r="AB47" s="4">
-        <v>5.6881817133906477E-2</v>
-      </c>
-      <c r="AC47" s="4">
-        <v>2.1713967426740075E-2</v>
-      </c>
-      <c r="AD47" s="4">
-        <v>1.4868907879310396E-2</v>
-      </c>
-      <c r="AE47" s="4">
-        <v>1.2408555085746032E-2</v>
-      </c>
-      <c r="AF47" s="4">
-        <v>1.5885136926972813E-7</v>
-      </c>
-      <c r="AG47" s="4">
-        <v>1.5885136926972813E-7</v>
-      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="4"/>
+      <c r="AB47" s="4"/>
+      <c r="AC47" s="4"/>
+      <c r="AD47" s="4"/>
+      <c r="AE47" s="4"/>
+      <c r="AF47" s="4"/>
+      <c r="AG47" s="4"/>
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48">
-        <v>0.83561790024632721</v>
-      </c>
-      <c r="D48" s="4">
-        <v>2.7484733958080657E-2</v>
-      </c>
-      <c r="E48" s="4">
-        <v>2.0377045517004446E-2</v>
-      </c>
-      <c r="F48" s="4">
-        <v>2.039024779799407E-2</v>
-      </c>
-      <c r="G48" s="4">
-        <v>7.2600632375516991E-2</v>
-      </c>
-      <c r="H48" s="4">
-        <v>5.479244073306095E-3</v>
-      </c>
-      <c r="I48" s="4">
-        <v>4.1092402750698122E-2</v>
-      </c>
-      <c r="J48" s="4">
-        <v>6.7943416918749468E-3</v>
-      </c>
-      <c r="K48" s="4">
-        <v>4.5222235188705266E-2</v>
-      </c>
-      <c r="L48" s="4">
-        <v>1.9310952187069182E-2</v>
-      </c>
-      <c r="M48" s="4">
-        <v>2.2984574568924398E-2</v>
-      </c>
-      <c r="N48" s="4">
-        <v>1.046974220890449E-2</v>
-      </c>
-      <c r="O48" s="4">
-        <v>5.4001864706231936E-3</v>
-      </c>
-      <c r="P48" s="4">
-        <v>2.1796051841635404E-2</v>
-      </c>
-      <c r="Q48" s="4">
-        <v>0.1390575938042915</v>
-      </c>
-      <c r="R48" s="4">
-        <v>1.7776370245618501E-2</v>
-      </c>
-      <c r="S48" s="4">
-        <v>5.2631717727389046E-2</v>
-      </c>
-      <c r="T48" s="4">
-        <v>1.6921100521356178E-2</v>
-      </c>
-      <c r="U48" s="4">
-        <v>2.132671024406757E-2</v>
-      </c>
-      <c r="V48" s="4">
-        <v>2.0507696795965438E-2</v>
-      </c>
-      <c r="W48" s="4">
-        <v>9.5952294606247955E-3</v>
-      </c>
-      <c r="X48" s="4">
-        <v>1.0092931869753326E-2</v>
-      </c>
-      <c r="Y48" s="4">
-        <v>2.0138372426143341E-2</v>
-      </c>
-      <c r="Z48" s="4">
-        <v>7.028778238064709E-2</v>
-      </c>
-      <c r="AA48" s="4">
-        <v>3.7678301105267743E-2</v>
-      </c>
-      <c r="AB48" s="4">
-        <v>5.6675007801865941E-2</v>
-      </c>
-      <c r="AC48" s="4">
-        <v>2.3555906528887137E-2</v>
-      </c>
-      <c r="AD48" s="4">
-        <v>8.3006579576447581E-3</v>
-      </c>
-      <c r="AE48" s="4">
-        <v>1.1664163850352774E-2</v>
-      </c>
-      <c r="AF48" s="4">
-        <v>5.9668961148372866E-6</v>
-      </c>
-      <c r="AG48" s="4">
-        <v>5.9668961148372866E-6</v>
-      </c>
+      <c r="A48"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="4"/>
+      <c r="AB48" s="4"/>
+      <c r="AC48" s="4"/>
+      <c r="AD48" s="4"/>
+      <c r="AE48" s="4"/>
+      <c r="AF48" s="4"/>
+      <c r="AG48" s="4"/>
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>59</v>
-      </c>
-      <c r="B49" t="s">
-        <v>39</v>
-      </c>
-      <c r="C49">
-        <v>0.82031452325455589</v>
-      </c>
-      <c r="D49" s="4">
-        <v>2.5097682960764457E-2</v>
-      </c>
-      <c r="E49" s="4">
-        <v>3.1804824089427974E-2</v>
-      </c>
-      <c r="F49" s="4">
-        <v>2.5354324909504788E-2</v>
-      </c>
-      <c r="G49" s="4">
-        <v>6.2496531771369122E-2</v>
-      </c>
-      <c r="H49" s="4">
-        <v>7.6544174382108558E-3</v>
-      </c>
-      <c r="I49" s="4">
-        <v>3.2251612271371632E-2</v>
-      </c>
-      <c r="J49" s="4">
-        <v>8.8223938416591187E-3</v>
-      </c>
-      <c r="K49" s="4">
-        <v>4.1347158480131624E-2</v>
-      </c>
-      <c r="L49" s="4">
-        <v>2.5902313889729019E-2</v>
-      </c>
-      <c r="M49" s="4">
-        <v>2.1424427911645557E-2</v>
-      </c>
-      <c r="N49" s="4">
-        <v>1.6233063344032996E-2</v>
-      </c>
-      <c r="O49" s="4">
-        <v>5.9489573504435019E-3</v>
-      </c>
-      <c r="P49" s="4">
-        <v>1.7883498393144539E-2</v>
-      </c>
-      <c r="Q49" s="4">
-        <v>0.14625869872141845</v>
-      </c>
-      <c r="R49" s="4">
-        <v>1.8266039129548692E-2</v>
-      </c>
-      <c r="S49" s="4">
-        <v>4.6154870613936368E-2</v>
-      </c>
-      <c r="T49" s="4">
-        <v>1.3363519400835173E-2</v>
-      </c>
-      <c r="U49" s="4">
-        <v>1.5485531317893989E-2</v>
-      </c>
-      <c r="V49" s="4">
-        <v>1.8252979095713152E-2</v>
-      </c>
-      <c r="W49" s="4">
-        <v>1.0386028871126472E-2</v>
-      </c>
-      <c r="X49" s="4">
-        <v>7.8024580798449379E-3</v>
-      </c>
-      <c r="Y49" s="4">
-        <v>2.1379281118454881E-2</v>
-      </c>
-      <c r="Z49" s="4">
-        <v>5.9827201945227795E-2</v>
-      </c>
-      <c r="AA49" s="4">
-        <v>4.8140963094389873E-2</v>
-      </c>
-      <c r="AB49" s="4">
-        <v>5.2492344476104943E-2</v>
-      </c>
-      <c r="AC49" s="4">
-        <v>1.7794801011382245E-2</v>
-      </c>
-      <c r="AD49" s="4">
-        <v>7.6642773766540089E-3</v>
-      </c>
-      <c r="AE49" s="4">
-        <v>1.4824322350589782E-2</v>
-      </c>
-      <c r="AF49" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG49" s="4">
-        <v>0</v>
-      </c>
+      <c r="A49"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+      <c r="M49" s="4"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="4"/>
+      <c r="AB49" s="4"/>
+      <c r="AC49" s="4"/>
+      <c r="AD49" s="4"/>
+      <c r="AE49" s="4"/>
+      <c r="AF49" s="4"/>
+      <c r="AG49" s="4"/>
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>60</v>
-      </c>
-      <c r="B50" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50">
-        <v>0.83596853511441893</v>
-      </c>
-      <c r="D50" s="4">
-        <v>1.6397837617082373E-2</v>
-      </c>
-      <c r="E50" s="4">
-        <v>3.286441149177495E-2</v>
-      </c>
-      <c r="F50" s="4">
-        <v>1.6605418606198016E-2</v>
-      </c>
-      <c r="G50" s="4">
-        <v>6.0222895312273574E-2</v>
-      </c>
-      <c r="H50" s="4">
-        <v>4.3101511413119759E-3</v>
-      </c>
-      <c r="I50" s="4">
-        <v>3.7088992227822817E-2</v>
-      </c>
-      <c r="J50" s="4">
-        <v>6.5923452025655194E-3</v>
-      </c>
-      <c r="K50" s="4">
-        <v>3.418462320547478E-2</v>
-      </c>
-      <c r="L50" s="4">
-        <v>2.2234945012553176E-2</v>
-      </c>
-      <c r="M50" s="4">
-        <v>1.8292607844156004E-2</v>
-      </c>
-      <c r="N50" s="4">
-        <v>3.7147085430373769E-3</v>
-      </c>
-      <c r="O50" s="4">
-        <v>3.5428303936819033E-3</v>
-      </c>
-      <c r="P50" s="4">
-        <v>1.2513782773857425E-2</v>
-      </c>
-      <c r="Q50" s="4">
-        <v>0.16740586762026363</v>
-      </c>
-      <c r="R50" s="4">
-        <v>2.5515784397567538E-2</v>
-      </c>
-      <c r="S50" s="4">
-        <v>4.8958203134311873E-2</v>
-      </c>
-      <c r="T50" s="4">
-        <v>4.2108204294790622E-3</v>
-      </c>
-      <c r="U50" s="4">
-        <v>1.7050006787523098E-2</v>
-      </c>
-      <c r="V50" s="4">
-        <v>3.1324459401389865E-2</v>
-      </c>
-      <c r="W50" s="4">
-        <v>1.5072471075074792E-2</v>
-      </c>
-      <c r="X50" s="4">
-        <v>1.5615579853105693E-2</v>
-      </c>
-      <c r="Y50" s="4">
-        <v>2.8133456613023071E-2</v>
-      </c>
-      <c r="Z50" s="4">
-        <v>6.3862722309487793E-2</v>
-      </c>
-      <c r="AA50" s="4">
-        <v>4.8473837438421666E-2</v>
-      </c>
-      <c r="AB50" s="4">
-        <v>6.0627485734968248E-2</v>
-      </c>
-      <c r="AC50" s="4">
-        <v>1.3988594330393834E-2</v>
-      </c>
-      <c r="AD50" s="4">
-        <v>7.6143137344516073E-3</v>
-      </c>
-      <c r="AE50" s="4">
-        <v>1.775650697692709E-2</v>
-      </c>
-      <c r="AF50" s="4">
-        <v>1.7928759062402105E-3</v>
-      </c>
-      <c r="AG50" s="4">
-        <v>1.7928759062402105E-3</v>
-      </c>
+      <c r="A50"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="4"/>
+      <c r="AB50" s="4"/>
+      <c r="AC50" s="4"/>
+      <c r="AD50" s="4"/>
+      <c r="AE50" s="4"/>
+      <c r="AF50" s="4"/>
+      <c r="AG50" s="4"/>
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B51" t="s">
-        <v>39</v>
-      </c>
-      <c r="C51">
-        <v>0.83266339055127203</v>
-      </c>
-      <c r="D51" s="4">
-        <v>1.0615882727247566E-2</v>
-      </c>
-      <c r="E51" s="4">
-        <v>3.8970494596121064E-2</v>
-      </c>
-      <c r="F51" s="4">
-        <v>2.1850537562523985E-2</v>
-      </c>
-      <c r="G51" s="4">
-        <v>8.3766652381478401E-2</v>
-      </c>
-      <c r="H51" s="4">
-        <v>4.9145992191714331E-3</v>
-      </c>
-      <c r="I51" s="4">
-        <v>3.2359423454310317E-2</v>
-      </c>
-      <c r="J51" s="4">
-        <v>5.4246268172288567E-3</v>
-      </c>
-      <c r="K51" s="4">
-        <v>4.7537381879128315E-2</v>
-      </c>
-      <c r="L51" s="4">
-        <v>2.3208526276916348E-2</v>
-      </c>
-      <c r="M51" s="4">
-        <v>2.3832519723646323E-2</v>
-      </c>
-      <c r="N51" s="4">
-        <v>2.5671953589702476E-3</v>
-      </c>
-      <c r="O51" s="4">
-        <v>3.1457699303953186E-3</v>
-      </c>
-      <c r="P51" s="4">
-        <v>1.2668567047382511E-2</v>
-      </c>
-      <c r="Q51" s="4">
-        <v>8.2744799185683102E-2</v>
-      </c>
-      <c r="R51" s="4">
-        <v>1.5142059394220092E-2</v>
-      </c>
-      <c r="S51" s="4">
-        <v>6.0109723927797135E-2</v>
-      </c>
-      <c r="T51" s="4">
-        <v>6.1513216620221346E-3</v>
-      </c>
-      <c r="U51" s="4">
-        <v>2.6027686056915897E-2</v>
-      </c>
-      <c r="V51" s="4">
-        <v>2.7540489519763858E-2</v>
-      </c>
-      <c r="W51" s="4">
-        <v>1.0810951270119228E-2</v>
-      </c>
-      <c r="X51" s="4">
-        <v>1.5337155145415511E-2</v>
-      </c>
-      <c r="Y51" s="4">
-        <v>2.8932942997401796E-2</v>
-      </c>
-      <c r="Z51" s="4">
-        <v>6.260457992313051E-2</v>
-      </c>
-      <c r="AA51" s="4">
-        <v>6.5343247252763789E-2</v>
-      </c>
-      <c r="AB51" s="4">
-        <v>6.3730977522919383E-2</v>
-      </c>
-      <c r="AC51" s="4">
-        <v>6.4553266051485649E-3</v>
-      </c>
-      <c r="AD51" s="4">
-        <v>9.0348369015137171E-3</v>
-      </c>
-      <c r="AE51" s="4">
-        <v>2.0157051599986604E-2</v>
-      </c>
-      <c r="AF51" s="4">
-        <v>2.1678064611950109E-2</v>
-      </c>
-      <c r="AG51" s="4">
-        <v>2.1678064611950109E-2</v>
-      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4"/>
+      <c r="AA51" s="4"/>
+      <c r="AB51" s="4"/>
+      <c r="AC51" s="4"/>
+      <c r="AD51" s="4"/>
+      <c r="AE51" s="4"/>
+      <c r="AF51" s="4"/>
+      <c r="AG51" s="4"/>
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B52" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52">
-        <v>0.8002148823955143</v>
-      </c>
-      <c r="D52" s="4">
-        <v>1.0150497324743468E-2</v>
-      </c>
-      <c r="E52" s="4">
-        <v>3.8657436716135377E-2</v>
-      </c>
-      <c r="F52" s="4">
-        <v>2.5665513091163779E-2</v>
-      </c>
-      <c r="G52" s="4">
-        <v>0.1002349887252425</v>
-      </c>
-      <c r="H52" s="4">
-        <v>6.7898051415394541E-3</v>
-      </c>
-      <c r="I52" s="4">
-        <v>2.9425259521941124E-2</v>
-      </c>
-      <c r="J52" s="4">
-        <v>3.7146457157285137E-3</v>
-      </c>
-      <c r="K52" s="4">
-        <v>4.9060323768519681E-2</v>
-      </c>
-      <c r="L52" s="4">
-        <v>1.2018495376552312E-2</v>
-      </c>
-      <c r="M52" s="4">
-        <v>2.5092340329517942E-2</v>
-      </c>
-      <c r="N52" s="4">
-        <v>4.7953316520731931E-3</v>
-      </c>
-      <c r="O52" s="4">
-        <v>3.0156789265172517E-3</v>
-      </c>
-      <c r="P52" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="4">
-        <v>7.4810124656601307E-2</v>
-      </c>
-      <c r="R52" s="4">
-        <v>9.6229344890756373E-3</v>
-      </c>
-      <c r="S52" s="4">
-        <v>5.786414838948465E-2</v>
-      </c>
-      <c r="T52" s="4">
-        <v>2.7500187835008379E-3</v>
-      </c>
-      <c r="U52" s="4">
-        <v>3.6667342302162072E-2</v>
-      </c>
-      <c r="V52" s="4">
-        <v>2.6646618282956881E-2</v>
-      </c>
-      <c r="W52" s="4">
-        <v>8.9234007814409551E-3</v>
-      </c>
-      <c r="X52" s="4">
-        <v>1.4674798343556237E-2</v>
-      </c>
-      <c r="Y52" s="4">
-        <v>4.0015949612752184E-2</v>
-      </c>
-      <c r="Z52" s="4">
-        <v>6.1249655949362027E-2</v>
-      </c>
-      <c r="AA52" s="4">
-        <v>5.9254709950932925E-2</v>
-      </c>
-      <c r="AB52" s="4">
-        <v>4.6847079321747337E-2</v>
-      </c>
-      <c r="AC52" s="4">
-        <v>3.2817859563690648E-3</v>
-      </c>
-      <c r="AD52" s="4">
-        <v>6.5351740548223111E-3</v>
-      </c>
-      <c r="AE52" s="4">
-        <v>1.7698975044845387E-2</v>
-      </c>
-      <c r="AF52" s="4">
-        <v>2.475185018622976E-2</v>
-      </c>
-      <c r="AG52" s="4">
-        <v>2.475185018622976E-2</v>
-      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="4"/>
+      <c r="AB52" s="4"/>
+      <c r="AC52" s="4"/>
+      <c r="AD52" s="4"/>
+      <c r="AE52" s="4"/>
+      <c r="AF52" s="4"/>
+      <c r="AG52" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:AF25">
@@ -16358,7 +13984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB935182-77BE-4937-895E-298CB203B7B1}">
   <dimension ref="A1:AT27"/>
   <sheetViews>
@@ -19237,7 +16863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59770AB8-B286-4DD2-85F2-92E4AF67B036}">
   <dimension ref="A1:AH48"/>
   <sheetViews>
@@ -22816,4 +20442,671 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA5121E-4C95-407A-A5D1-7B0917DADC02}">
+  <dimension ref="A1:O34"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="28.88671875" customWidth="1"/>
+    <col min="3" max="3" width="1.6640625" customWidth="1"/>
+    <col min="4" max="5" width="28.88671875" customWidth="1"/>
+    <col min="6" max="7" width="2.44140625" customWidth="1"/>
+    <col min="8" max="9" width="28.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="23"/>
+    </row>
+    <row r="2" spans="1:15" s="8" customFormat="1" ht="43.8" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="L2" s="11"/>
+      <c r="M2" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="D3" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="25"/>
+      <c r="H3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>19</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>24</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>17</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>16</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16">
+        <v>24</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
+        <v>24</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>13</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18">
+        <v>22</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19">
+        <v>24</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20">
+        <v>15</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>21</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21">
+        <v>23</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>14</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23">
+        <v>17</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25">
+        <v>11</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>23</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26">
+        <v>24</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27">
+        <v>22</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28">
+        <v>23</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28">
+        <v>24</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>16</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29">
+        <v>24</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30">
+        <v>20</v>
+      </c>
+      <c r="H30" s="13"/>
+      <c r="I30" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31">
+        <v>11</v>
+      </c>
+      <c r="H31" s="17"/>
+      <c r="I31" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>12</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D34" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I3:I31">
+    <sortCondition ref="I3:I31"/>
+  </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="M2:O2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>